--- a/code/lang/langdict.xlsx
+++ b/code/lang/langdict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingsongli/Dropbox/git/acycle/code/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D8A3F3-C0E8-AF43-ACA7-3C4A77733687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA80802-D6F9-4C4A-B90F-AC42A55DFCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24260" windowHeight="23660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28280" yWindow="-33840" windowWidth="28200" windowHeight="33840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="1979">
   <si>
     <t>en</t>
   </si>
@@ -6000,12 +6000,24 @@
   <si>
     <t>&lt;html&gt;中文单位</t>
   </si>
+  <si>
+    <t>Origin data</t>
+  </si>
+  <si>
+    <t>原始数据</t>
+  </si>
+  <si>
+    <t>Tuned data</t>
+  </si>
+  <si>
+    <t>调谐后</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -6041,6 +6053,18 @@
       <sz val="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAA04F9"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="4">
@@ -6182,7 +6206,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6234,11 +6258,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7402,24 +7432,24 @@
   </sheetPr>
   <dimension ref="A1:D825"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B773" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A786" sqref="A786:D807"/>
+      <selection pane="bottomRight" activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1874</v>
       </c>
@@ -7433,7 +7463,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -7447,7 +7477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -7461,7 +7491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -7475,7 +7505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -7489,7 +7519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -7503,7 +7533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -7517,7 +7547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -7531,7 +7561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -7545,7 +7575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -7559,7 +7589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -7573,7 +7603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
@@ -7587,7 +7617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
@@ -7601,7 +7631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -7615,7 +7645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -7629,7 +7659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
@@ -7643,7 +7673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -7657,7 +7687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>50</v>
       </c>
@@ -7671,7 +7701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>53</v>
       </c>
@@ -7685,7 +7715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>56</v>
       </c>
@@ -7699,7 +7729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>59</v>
       </c>
@@ -7713,7 +7743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -7727,7 +7757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -7741,7 +7771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
@@ -7755,7 +7785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>71</v>
       </c>
@@ -7769,7 +7799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>74</v>
       </c>
@@ -7783,7 +7813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>77</v>
       </c>
@@ -7797,7 +7827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>80</v>
       </c>
@@ -7811,7 +7841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>83</v>
       </c>
@@ -7825,7 +7855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>86</v>
       </c>
@@ -7839,7 +7869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>89</v>
       </c>
@@ -7853,7 +7883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>92</v>
       </c>
@@ -7867,7 +7897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>95</v>
       </c>
@@ -7881,7 +7911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>98</v>
       </c>
@@ -7895,7 +7925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>101</v>
       </c>
@@ -7909,7 +7939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>104</v>
       </c>
@@ -7923,7 +7953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -7937,7 +7967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>110</v>
       </c>
@@ -7951,7 +7981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>113</v>
       </c>
@@ -7965,7 +7995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
@@ -7979,7 +8009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>119</v>
       </c>
@@ -7993,7 +8023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>122</v>
       </c>
@@ -8007,7 +8037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="20" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>125</v>
       </c>
@@ -8021,7 +8051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="20" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>128</v>
       </c>
@@ -8035,7 +8065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="20" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
@@ -8049,7 +8079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="20" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>134</v>
       </c>
@@ -8063,7 +8093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="20" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>137</v>
       </c>
@@ -8077,7 +8107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="20" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>140</v>
       </c>
@@ -8091,7 +8121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="20" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>143</v>
       </c>
@@ -8099,7 +8129,7 @@
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="20" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>144</v>
       </c>
@@ -8107,7 +8137,7 @@
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="20" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>145</v>
       </c>
@@ -8115,7 +8145,7 @@
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="20" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>146</v>
       </c>
@@ -8123,7 +8153,7 @@
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="20" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>147</v>
       </c>
@@ -8131,7 +8161,7 @@
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="20" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>148</v>
       </c>
@@ -8139,7 +8169,7 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="20" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>149</v>
       </c>
@@ -8147,13 +8177,13 @@
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="20" customHeight="1">
       <c r="A56" s="12"/>
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="20" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>150</v>
       </c>
@@ -8167,7 +8197,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="20" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>154</v>
       </c>
@@ -8181,7 +8211,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="20" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>157</v>
       </c>
@@ -8195,7 +8225,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" ht="20" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>160</v>
       </c>
@@ -8209,7 +8239,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" ht="20" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>163</v>
       </c>
@@ -8223,7 +8253,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="20" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>166</v>
       </c>
@@ -8237,7 +8267,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" ht="20" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>169</v>
       </c>
@@ -8251,7 +8281,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" ht="20" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>172</v>
       </c>
@@ -8265,7 +8295,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="20" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>175</v>
       </c>
@@ -8279,7 +8309,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="20" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>178</v>
       </c>
@@ -8293,7 +8323,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="20" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>181</v>
       </c>
@@ -8307,7 +8337,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="20" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>184</v>
       </c>
@@ -8321,7 +8351,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="20" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>187</v>
       </c>
@@ -8335,11 +8365,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="20" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>191</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -8349,7 +8379,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="20" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>193</v>
       </c>
@@ -8363,7 +8393,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" ht="20" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>196</v>
       </c>
@@ -8377,7 +8407,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" ht="20" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>199</v>
       </c>
@@ -8391,7 +8421,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" ht="20" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>202</v>
       </c>
@@ -8405,7 +8435,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="20" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>205</v>
       </c>
@@ -8419,7 +8449,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="7" t="s">
         <v>208</v>
       </c>
@@ -8433,7 +8463,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="7" t="s">
         <v>211</v>
       </c>
@@ -8447,7 +8477,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" ht="20" customHeight="1">
       <c r="A78" s="7" t="s">
         <v>214</v>
       </c>
@@ -8461,7 +8491,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="20" customHeight="1">
       <c r="A79" s="7" t="s">
         <v>217</v>
       </c>
@@ -8475,7 +8505,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" ht="20" customHeight="1">
       <c r="A80" s="7" t="s">
         <v>220</v>
       </c>
@@ -8489,7 +8519,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" ht="20" customHeight="1">
       <c r="A81" s="7" t="s">
         <v>223</v>
       </c>
@@ -8503,7 +8533,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" ht="20" customHeight="1">
       <c r="A82" s="7" t="s">
         <v>226</v>
       </c>
@@ -8517,7 +8547,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" ht="20" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>227</v>
       </c>
@@ -8525,7 +8555,7 @@
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
     </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" ht="20" customHeight="1">
       <c r="A84" s="7" t="s">
         <v>228</v>
       </c>
@@ -8533,7 +8563,7 @@
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
     </row>
-    <row r="85" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="20" customHeight="1">
       <c r="A85" s="7" t="s">
         <v>229</v>
       </c>
@@ -8541,7 +8571,7 @@
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
     </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" ht="20" customHeight="1">
       <c r="A86" s="7" t="s">
         <v>230</v>
       </c>
@@ -8555,7 +8585,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" ht="20" customHeight="1">
       <c r="A87" s="7" t="s">
         <v>233</v>
       </c>
@@ -8569,7 +8599,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" ht="20" customHeight="1">
       <c r="A88" s="7" t="s">
         <v>236</v>
       </c>
@@ -8583,7 +8613,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" ht="20" customHeight="1">
       <c r="A89" s="7" t="s">
         <v>239</v>
       </c>
@@ -8597,7 +8627,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" ht="20" customHeight="1">
       <c r="A90" s="7" t="s">
         <v>242</v>
       </c>
@@ -8611,7 +8641,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" ht="20" customHeight="1">
       <c r="A91" s="7" t="s">
         <v>245</v>
       </c>
@@ -8625,7 +8655,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" ht="20" customHeight="1">
       <c r="A92" s="7" t="s">
         <v>248</v>
       </c>
@@ -8633,7 +8663,7 @@
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
     </row>
-    <row r="93" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" ht="20" customHeight="1">
       <c r="A93" s="7" t="s">
         <v>249</v>
       </c>
@@ -8641,7 +8671,7 @@
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
     </row>
-    <row r="94" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" ht="20" customHeight="1">
       <c r="A94" s="7" t="s">
         <v>250</v>
       </c>
@@ -8649,7 +8679,7 @@
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
     </row>
-    <row r="95" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" ht="20" customHeight="1">
       <c r="A95" s="7" t="s">
         <v>251</v>
       </c>
@@ -8657,7 +8687,7 @@
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
     </row>
-    <row r="96" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="20" customHeight="1">
       <c r="A96" s="7" t="s">
         <v>252</v>
       </c>
@@ -8671,7 +8701,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="20" customHeight="1">
       <c r="A97" s="7" t="s">
         <v>253</v>
       </c>
@@ -8685,7 +8715,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" ht="20" customHeight="1">
       <c r="A98" s="7" t="s">
         <v>256</v>
       </c>
@@ -8699,7 +8729,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" ht="20" customHeight="1">
       <c r="A99" s="7" t="s">
         <v>259</v>
       </c>
@@ -8713,7 +8743,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" ht="20" customHeight="1">
       <c r="A100" s="7" t="s">
         <v>262</v>
       </c>
@@ -8727,7 +8757,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" ht="20" customHeight="1">
       <c r="A101" s="7" t="s">
         <v>265</v>
       </c>
@@ -8741,7 +8771,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" ht="20" customHeight="1">
       <c r="A102" s="7" t="s">
         <v>268</v>
       </c>
@@ -8755,7 +8785,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" ht="20" customHeight="1">
       <c r="A103" s="7" t="s">
         <v>271</v>
       </c>
@@ -8769,7 +8799,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" ht="20" customHeight="1">
       <c r="A104" s="7" t="s">
         <v>274</v>
       </c>
@@ -8783,7 +8813,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" ht="20" customHeight="1">
       <c r="A105" s="7" t="s">
         <v>275</v>
       </c>
@@ -8791,7 +8821,7 @@
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
     </row>
-    <row r="106" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" ht="20" customHeight="1">
       <c r="A106" s="7" t="s">
         <v>276</v>
       </c>
@@ -8805,7 +8835,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" ht="20" customHeight="1">
       <c r="A107" s="7" t="s">
         <v>279</v>
       </c>
@@ -8819,7 +8849,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" ht="20" customHeight="1">
       <c r="A108" s="7" t="s">
         <v>282</v>
       </c>
@@ -8833,7 +8863,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" ht="20" customHeight="1">
       <c r="A109" s="7" t="s">
         <v>285</v>
       </c>
@@ -8847,7 +8877,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" ht="20" customHeight="1">
       <c r="A110" s="7" t="s">
         <v>288</v>
       </c>
@@ -8861,7 +8891,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" ht="20" customHeight="1">
       <c r="A111" s="7" t="s">
         <v>291</v>
       </c>
@@ -8875,7 +8905,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" ht="20" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>294</v>
       </c>
@@ -8889,7 +8919,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" ht="20" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>297</v>
       </c>
@@ -8903,7 +8933,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" ht="20" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>300</v>
       </c>
@@ -8917,7 +8947,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" ht="20" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>302</v>
       </c>
@@ -8931,7 +8961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" ht="20" customHeight="1">
       <c r="A116" s="7" t="s">
         <v>305</v>
       </c>
@@ -8945,7 +8975,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" ht="20" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>308</v>
       </c>
@@ -8959,7 +8989,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" ht="20" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>311</v>
       </c>
@@ -8973,7 +9003,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" ht="20" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>314</v>
       </c>
@@ -8987,7 +9017,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" ht="20" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>317</v>
       </c>
@@ -9001,7 +9031,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" ht="20" customHeight="1">
       <c r="A121" s="7" t="s">
         <v>320</v>
       </c>
@@ -9015,7 +9045,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" ht="20" customHeight="1">
       <c r="A122" s="7" t="s">
         <v>323</v>
       </c>
@@ -9029,7 +9059,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" ht="20" customHeight="1">
       <c r="A123" s="7" t="s">
         <v>326</v>
       </c>
@@ -9043,7 +9073,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" ht="20" customHeight="1">
       <c r="A124" s="7" t="s">
         <v>327</v>
       </c>
@@ -9051,7 +9081,7 @@
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
     </row>
-    <row r="125" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" ht="20" customHeight="1">
       <c r="A125" s="7" t="s">
         <v>328</v>
       </c>
@@ -9059,7 +9089,7 @@
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
     </row>
-    <row r="126" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" ht="20" customHeight="1">
       <c r="A126" s="7" t="s">
         <v>329</v>
       </c>
@@ -9073,7 +9103,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" ht="20" customHeight="1">
       <c r="A127" s="7" t="s">
         <v>332</v>
       </c>
@@ -9087,7 +9117,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" ht="20" customHeight="1">
       <c r="A128" s="7" t="s">
         <v>335</v>
       </c>
@@ -9101,7 +9131,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" ht="20" customHeight="1">
       <c r="A129" s="7" t="s">
         <v>338</v>
       </c>
@@ -9115,7 +9145,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" ht="20" customHeight="1">
       <c r="A130" s="7" t="s">
         <v>341</v>
       </c>
@@ -9129,7 +9159,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" ht="20" customHeight="1">
       <c r="A131" s="7" t="s">
         <v>344</v>
       </c>
@@ -9143,7 +9173,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" ht="20" customHeight="1">
       <c r="A132" s="7" t="s">
         <v>347</v>
       </c>
@@ -9157,7 +9187,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" ht="20" customHeight="1">
       <c r="A133" s="7" t="s">
         <v>350</v>
       </c>
@@ -9171,7 +9201,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4" ht="20" customHeight="1">
       <c r="A134" s="7" t="s">
         <v>353</v>
       </c>
@@ -9185,7 +9215,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" ht="20" customHeight="1">
       <c r="A135" s="7" t="s">
         <v>356</v>
       </c>
@@ -9199,7 +9229,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" ht="20" customHeight="1">
       <c r="A136" s="7" t="s">
         <v>359</v>
       </c>
@@ -9213,7 +9243,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" ht="20" customHeight="1">
       <c r="A137" s="7" t="s">
         <v>362</v>
       </c>
@@ -9227,7 +9257,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" ht="20" customHeight="1">
       <c r="A138" s="7" t="s">
         <v>365</v>
       </c>
@@ -9241,7 +9271,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" ht="20" customHeight="1">
       <c r="A139" s="7" t="s">
         <v>368</v>
       </c>
@@ -9255,7 +9285,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" ht="20" customHeight="1">
       <c r="A140" s="7" t="s">
         <v>371</v>
       </c>
@@ -9269,7 +9299,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" ht="20" customHeight="1">
       <c r="A141" s="7" t="s">
         <v>374</v>
       </c>
@@ -9283,7 +9313,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" ht="20" customHeight="1">
       <c r="A142" s="7" t="s">
         <v>377</v>
       </c>
@@ -9297,7 +9327,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" ht="20" customHeight="1">
       <c r="A143" s="7" t="s">
         <v>380</v>
       </c>
@@ -9311,7 +9341,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" ht="20" customHeight="1">
       <c r="A144" s="7" t="s">
         <v>383</v>
       </c>
@@ -9325,7 +9355,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" ht="20" customHeight="1">
       <c r="A145" s="7" t="s">
         <v>386</v>
       </c>
@@ -9339,7 +9369,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="20" customHeight="1">
       <c r="A146" s="7" t="s">
         <v>389</v>
       </c>
@@ -9353,7 +9383,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" ht="20" customHeight="1">
       <c r="A147" s="7" t="s">
         <v>392</v>
       </c>
@@ -9367,7 +9397,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" ht="20" customHeight="1">
       <c r="A148" s="7" t="s">
         <v>395</v>
       </c>
@@ -9381,7 +9411,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" ht="20" customHeight="1">
       <c r="A149" s="7" t="s">
         <v>398</v>
       </c>
@@ -9395,7 +9425,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" ht="20" customHeight="1">
       <c r="A150" s="7" t="s">
         <v>399</v>
       </c>
@@ -9409,7 +9439,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" ht="20" customHeight="1">
       <c r="A151" s="7" t="s">
         <v>400</v>
       </c>
@@ -9417,7 +9447,7 @@
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
     </row>
-    <row r="152" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" ht="20" customHeight="1">
       <c r="A152" s="7" t="s">
         <v>401</v>
       </c>
@@ -9425,7 +9455,7 @@
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" ht="20" customHeight="1">
       <c r="A153" s="7" t="s">
         <v>402</v>
       </c>
@@ -9433,7 +9463,7 @@
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
     </row>
-    <row r="154" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" ht="20" customHeight="1">
       <c r="A154" s="7" t="s">
         <v>403</v>
       </c>
@@ -9441,7 +9471,7 @@
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
     </row>
-    <row r="155" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" ht="20" customHeight="1">
       <c r="A155" s="7" t="s">
         <v>404</v>
       </c>
@@ -9449,7 +9479,7 @@
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
     </row>
-    <row r="156" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" ht="20" customHeight="1">
       <c r="A156" s="7" t="s">
         <v>405</v>
       </c>
@@ -9463,7 +9493,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" ht="20" customHeight="1">
       <c r="A157" s="7" t="s">
         <v>408</v>
       </c>
@@ -9477,7 +9507,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" ht="20" customHeight="1">
       <c r="A158" s="7" t="s">
         <v>411</v>
       </c>
@@ -9491,7 +9521,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" ht="20" customHeight="1">
       <c r="A159" s="7" t="s">
         <v>414</v>
       </c>
@@ -9505,7 +9535,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" ht="20" customHeight="1">
       <c r="A160" s="7" t="s">
         <v>417</v>
       </c>
@@ -9519,7 +9549,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" ht="21.25" customHeight="1">
       <c r="A161" s="7" t="s">
         <v>420</v>
       </c>
@@ -9533,7 +9563,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" ht="20" customHeight="1">
       <c r="A162" s="7" t="s">
         <v>423</v>
       </c>
@@ -9547,7 +9577,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" ht="20" customHeight="1">
       <c r="A163" s="7" t="s">
         <v>426</v>
       </c>
@@ -9561,7 +9591,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" ht="20" customHeight="1">
       <c r="A164" s="7" t="s">
         <v>429</v>
       </c>
@@ -9575,7 +9605,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" ht="20" customHeight="1">
       <c r="A165" s="7" t="s">
         <v>432</v>
       </c>
@@ -9589,7 +9619,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" ht="20" customHeight="1">
       <c r="A166" s="7" t="s">
         <v>435</v>
       </c>
@@ -9603,7 +9633,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" ht="20" customHeight="1">
       <c r="A167" s="7" t="s">
         <v>438</v>
       </c>
@@ -9617,7 +9647,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" ht="20" customHeight="1">
       <c r="A168" s="7" t="s">
         <v>441</v>
       </c>
@@ -9631,7 +9661,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" ht="20" customHeight="1">
       <c r="A169" s="7" t="s">
         <v>444</v>
       </c>
@@ -9645,7 +9675,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" ht="20" customHeight="1">
       <c r="A170" s="7" t="s">
         <v>447</v>
       </c>
@@ -9659,7 +9689,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" ht="20" customHeight="1">
       <c r="A171" s="7" t="s">
         <v>450</v>
       </c>
@@ -9673,7 +9703,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" ht="20" customHeight="1">
       <c r="A172" s="7" t="s">
         <v>453</v>
       </c>
@@ -9687,7 +9717,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" ht="20" customHeight="1">
       <c r="A173" s="7" t="s">
         <v>456</v>
       </c>
@@ -9701,7 +9731,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" ht="20" customHeight="1">
       <c r="A174" s="7" t="s">
         <v>459</v>
       </c>
@@ -9715,7 +9745,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" ht="20" customHeight="1">
       <c r="A175" s="7" t="s">
         <v>462</v>
       </c>
@@ -9729,7 +9759,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" ht="20" customHeight="1">
       <c r="A176" s="7" t="s">
         <v>465</v>
       </c>
@@ -9743,7 +9773,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" ht="20" customHeight="1">
       <c r="A177" s="7" t="s">
         <v>468</v>
       </c>
@@ -9757,7 +9787,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" ht="20" customHeight="1">
       <c r="A178" s="7" t="s">
         <v>471</v>
       </c>
@@ -9771,7 +9801,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" ht="20" customHeight="1">
       <c r="A179" s="7" t="s">
         <v>474</v>
       </c>
@@ -9785,7 +9815,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" ht="20" customHeight="1">
       <c r="A180" s="7" t="s">
         <v>477</v>
       </c>
@@ -9799,7 +9829,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4" ht="20" customHeight="1">
       <c r="A181" s="7" t="s">
         <v>480</v>
       </c>
@@ -9813,7 +9843,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4" ht="20" customHeight="1">
       <c r="A182" s="7" t="s">
         <v>482</v>
       </c>
@@ -9827,7 +9857,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4" ht="20" customHeight="1">
       <c r="A183" s="7" t="s">
         <v>484</v>
       </c>
@@ -9841,7 +9871,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4" ht="20" customHeight="1">
       <c r="A184" s="7" t="s">
         <v>486</v>
       </c>
@@ -9855,7 +9885,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" ht="20" customHeight="1">
       <c r="A185" s="7" t="s">
         <v>487</v>
       </c>
@@ -9863,7 +9893,7 @@
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
     </row>
-    <row r="186" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4" ht="20" customHeight="1">
       <c r="A186" s="7" t="s">
         <v>488</v>
       </c>
@@ -9871,7 +9901,7 @@
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
     </row>
-    <row r="187" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4" ht="20" customHeight="1">
       <c r="A187" s="7" t="s">
         <v>489</v>
       </c>
@@ -9879,7 +9909,7 @@
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
     </row>
-    <row r="188" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4" ht="20" customHeight="1">
       <c r="A188" s="7" t="s">
         <v>490</v>
       </c>
@@ -9887,7 +9917,7 @@
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
     </row>
-    <row r="189" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" ht="20" customHeight="1">
       <c r="A189" s="7" t="s">
         <v>491</v>
       </c>
@@ -9895,7 +9925,7 @@
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
     </row>
-    <row r="190" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" ht="20" customHeight="1">
       <c r="A190" s="7" t="s">
         <v>492</v>
       </c>
@@ -9903,7 +9933,7 @@
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
     </row>
-    <row r="191" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4" ht="20" customHeight="1">
       <c r="A191" s="7" t="s">
         <v>493</v>
       </c>
@@ -9911,7 +9941,7 @@
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
     </row>
-    <row r="192" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4" ht="20" customHeight="1">
       <c r="A192" s="7" t="s">
         <v>494</v>
       </c>
@@ -9919,7 +9949,7 @@
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
     </row>
-    <row r="193" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4" ht="20" customHeight="1">
       <c r="A193" s="7" t="s">
         <v>495</v>
       </c>
@@ -9927,7 +9957,7 @@
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
     </row>
-    <row r="194" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4" ht="20" customHeight="1">
       <c r="A194" s="7" t="s">
         <v>496</v>
       </c>
@@ -9935,7 +9965,7 @@
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
     </row>
-    <row r="195" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4" ht="20" customHeight="1">
       <c r="A195" s="7" t="s">
         <v>497</v>
       </c>
@@ -9943,7 +9973,7 @@
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
     </row>
-    <row r="196" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4" ht="20" customHeight="1">
       <c r="A196" s="7" t="s">
         <v>498</v>
       </c>
@@ -9957,7 +9987,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4" ht="20" customHeight="1">
       <c r="A197" s="7" t="s">
         <v>501</v>
       </c>
@@ -9971,7 +10001,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4" ht="20" customHeight="1">
       <c r="A198" s="7" t="s">
         <v>504</v>
       </c>
@@ -9985,7 +10015,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4" ht="20" customHeight="1">
       <c r="A199" s="7" t="s">
         <v>507</v>
       </c>
@@ -9999,7 +10029,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4" ht="20" customHeight="1">
       <c r="A200" s="7" t="s">
         <v>510</v>
       </c>
@@ -10013,7 +10043,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4" ht="20" customHeight="1">
       <c r="A201" s="7" t="s">
         <v>513</v>
       </c>
@@ -10021,7 +10051,7 @@
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
     </row>
-    <row r="202" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4" ht="20" customHeight="1">
       <c r="A202" s="7" t="s">
         <v>514</v>
       </c>
@@ -10029,7 +10059,7 @@
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
     </row>
-    <row r="203" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4" ht="20" customHeight="1">
       <c r="A203" s="7" t="s">
         <v>515</v>
       </c>
@@ -10037,7 +10067,7 @@
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
     </row>
-    <row r="204" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4" ht="20" customHeight="1">
       <c r="A204" s="7" t="s">
         <v>516</v>
       </c>
@@ -10045,7 +10075,7 @@
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
     </row>
-    <row r="205" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4" ht="20" customHeight="1">
       <c r="A205" s="7" t="s">
         <v>517</v>
       </c>
@@ -10053,7 +10083,7 @@
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
     </row>
-    <row r="206" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4" ht="20" customHeight="1">
       <c r="A206" s="7" t="s">
         <v>518</v>
       </c>
@@ -10067,7 +10097,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4" ht="20" customHeight="1">
       <c r="A207" s="7" t="s">
         <v>522</v>
       </c>
@@ -10075,7 +10105,7 @@
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
     </row>
-    <row r="208" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4" ht="20" customHeight="1">
       <c r="A208" s="7" t="s">
         <v>523</v>
       </c>
@@ -10089,7 +10119,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4" ht="20" customHeight="1">
       <c r="A209" s="7" t="s">
         <v>526</v>
       </c>
@@ -10103,7 +10133,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:4" ht="20" customHeight="1">
       <c r="A210" s="7" t="s">
         <v>529</v>
       </c>
@@ -10117,7 +10147,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4" ht="20" customHeight="1">
       <c r="A211" s="7" t="s">
         <v>532</v>
       </c>
@@ -10131,7 +10161,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:4" ht="20" customHeight="1">
       <c r="A212" s="7" t="s">
         <v>535</v>
       </c>
@@ -10145,7 +10175,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:4" ht="20" customHeight="1">
       <c r="A213" s="7" t="s">
         <v>538</v>
       </c>
@@ -10153,7 +10183,7 @@
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
     </row>
-    <row r="214" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4" ht="20" customHeight="1">
       <c r="A214" s="7" t="s">
         <v>539</v>
       </c>
@@ -10165,7 +10195,7 @@
       </c>
       <c r="D214" s="11"/>
     </row>
-    <row r="215" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4" ht="20" customHeight="1">
       <c r="A215" s="7" t="s">
         <v>542</v>
       </c>
@@ -10177,7 +10207,7 @@
       </c>
       <c r="D215" s="11"/>
     </row>
-    <row r="216" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4" ht="20" customHeight="1">
       <c r="A216" s="7" t="s">
         <v>545</v>
       </c>
@@ -10189,7 +10219,7 @@
       </c>
       <c r="D216" s="11"/>
     </row>
-    <row r="217" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4" ht="20" customHeight="1">
       <c r="A217" s="7" t="s">
         <v>548</v>
       </c>
@@ -10201,7 +10231,7 @@
       </c>
       <c r="D217" s="11"/>
     </row>
-    <row r="218" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4" ht="20" customHeight="1">
       <c r="A218" s="7" t="s">
         <v>551</v>
       </c>
@@ -10213,7 +10243,7 @@
       </c>
       <c r="D218" s="11"/>
     </row>
-    <row r="219" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:4" ht="20" customHeight="1">
       <c r="A219" s="7" t="s">
         <v>554</v>
       </c>
@@ -10225,7 +10255,7 @@
       </c>
       <c r="D219" s="11"/>
     </row>
-    <row r="220" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:4" ht="20" customHeight="1">
       <c r="A220" s="7" t="s">
         <v>557</v>
       </c>
@@ -10237,7 +10267,7 @@
       </c>
       <c r="D220" s="11"/>
     </row>
-    <row r="221" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:4" ht="20" customHeight="1">
       <c r="A221" s="7" t="s">
         <v>560</v>
       </c>
@@ -10249,7 +10279,7 @@
       </c>
       <c r="D221" s="11"/>
     </row>
-    <row r="222" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:4" ht="20" customHeight="1">
       <c r="A222" s="7" t="s">
         <v>563</v>
       </c>
@@ -10261,7 +10291,7 @@
       </c>
       <c r="D222" s="11"/>
     </row>
-    <row r="223" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:4" ht="20" customHeight="1">
       <c r="A223" s="7" t="s">
         <v>566</v>
       </c>
@@ -10273,7 +10303,7 @@
       </c>
       <c r="D223" s="11"/>
     </row>
-    <row r="224" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:4" ht="20" customHeight="1">
       <c r="A224" s="7" t="s">
         <v>569</v>
       </c>
@@ -10285,7 +10315,7 @@
       </c>
       <c r="D224" s="11"/>
     </row>
-    <row r="225" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:4" ht="20" customHeight="1">
       <c r="A225" s="7" t="s">
         <v>572</v>
       </c>
@@ -10297,7 +10327,7 @@
       </c>
       <c r="D225" s="11"/>
     </row>
-    <row r="226" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:4" ht="20" customHeight="1">
       <c r="A226" s="7" t="s">
         <v>575</v>
       </c>
@@ -10309,7 +10339,7 @@
       </c>
       <c r="D226" s="11"/>
     </row>
-    <row r="227" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:4" ht="20" customHeight="1">
       <c r="A227" s="7" t="s">
         <v>578</v>
       </c>
@@ -10321,7 +10351,7 @@
       </c>
       <c r="D227" s="11"/>
     </row>
-    <row r="228" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:4" ht="20" customHeight="1">
       <c r="A228" s="7" t="s">
         <v>581</v>
       </c>
@@ -10333,7 +10363,7 @@
       </c>
       <c r="D228" s="11"/>
     </row>
-    <row r="229" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:4" ht="20" customHeight="1">
       <c r="A229" s="7" t="s">
         <v>584</v>
       </c>
@@ -10345,7 +10375,7 @@
       </c>
       <c r="D229" s="11"/>
     </row>
-    <row r="230" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:4" ht="20" customHeight="1">
       <c r="A230" s="7" t="s">
         <v>587</v>
       </c>
@@ -10357,7 +10387,7 @@
       </c>
       <c r="D230" s="11"/>
     </row>
-    <row r="231" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:4" ht="20" customHeight="1">
       <c r="A231" s="7" t="s">
         <v>590</v>
       </c>
@@ -10369,7 +10399,7 @@
       </c>
       <c r="D231" s="11"/>
     </row>
-    <row r="232" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:4" ht="20" customHeight="1">
       <c r="A232" s="7" t="s">
         <v>593</v>
       </c>
@@ -10381,7 +10411,7 @@
       </c>
       <c r="D232" s="11"/>
     </row>
-    <row r="233" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:4" ht="20" customHeight="1">
       <c r="A233" s="7" t="s">
         <v>596</v>
       </c>
@@ -10393,7 +10423,7 @@
       </c>
       <c r="D233" s="11"/>
     </row>
-    <row r="234" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:4" ht="20" customHeight="1">
       <c r="A234" s="7" t="s">
         <v>599</v>
       </c>
@@ -10405,31 +10435,39 @@
       </c>
       <c r="D234" s="11"/>
     </row>
-    <row r="235" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:4" ht="20" customHeight="1">
       <c r="A235" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="B235" s="10"/>
-      <c r="C235" s="11"/>
+      <c r="B235" s="14" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C235" s="15" t="s">
+        <v>1976</v>
+      </c>
       <c r="D235" s="11"/>
     </row>
-    <row r="236" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:4" ht="20" customHeight="1">
       <c r="A236" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B236" s="10"/>
-      <c r="C236" s="11"/>
+      <c r="B236" s="14" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>1978</v>
+      </c>
       <c r="D236" s="11"/>
     </row>
-    <row r="237" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:4" ht="20" customHeight="1">
       <c r="A237" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="B237" s="10"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
     </row>
-    <row r="238" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:4" ht="20" customHeight="1">
       <c r="A238" s="7" t="s">
         <v>605</v>
       </c>
@@ -10437,7 +10475,7 @@
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
     </row>
-    <row r="239" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:4" ht="20" customHeight="1">
       <c r="A239" s="7" t="s">
         <v>606</v>
       </c>
@@ -10451,7 +10489,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:4" ht="20" customHeight="1">
       <c r="A240" s="7" t="s">
         <v>609</v>
       </c>
@@ -10465,7 +10503,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:4" ht="20" customHeight="1">
       <c r="A241" s="7" t="s">
         <v>612</v>
       </c>
@@ -10479,7 +10517,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:4" ht="20" customHeight="1">
       <c r="A242" s="7" t="s">
         <v>615</v>
       </c>
@@ -10493,7 +10531,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:4" ht="20" customHeight="1">
       <c r="A243" s="7" t="s">
         <v>618</v>
       </c>
@@ -10507,7 +10545,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:4" ht="20" customHeight="1">
       <c r="A244" s="7" t="s">
         <v>621</v>
       </c>
@@ -10521,7 +10559,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:4" ht="20" customHeight="1">
       <c r="A245" s="7" t="s">
         <v>624</v>
       </c>
@@ -10535,7 +10573,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:4" ht="20" customHeight="1">
       <c r="A246" s="7" t="s">
         <v>627</v>
       </c>
@@ -10549,7 +10587,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:4" ht="20" customHeight="1">
       <c r="A247" s="7" t="s">
         <v>630</v>
       </c>
@@ -10557,7 +10595,7 @@
       <c r="C247" s="11"/>
       <c r="D247" s="11"/>
     </row>
-    <row r="248" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:4" ht="20" customHeight="1">
       <c r="A248" s="7" t="s">
         <v>631</v>
       </c>
@@ -10565,7 +10603,7 @@
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
     </row>
-    <row r="249" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:4" ht="20" customHeight="1">
       <c r="A249" s="7" t="s">
         <v>632</v>
       </c>
@@ -10573,7 +10611,7 @@
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
     </row>
-    <row r="250" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:4" ht="20" customHeight="1">
       <c r="A250" s="7" t="s">
         <v>633</v>
       </c>
@@ -10581,7 +10619,7 @@
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
     </row>
-    <row r="251" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:4" ht="20" customHeight="1">
       <c r="A251" s="7" t="s">
         <v>634</v>
       </c>
@@ -10589,7 +10627,7 @@
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
     </row>
-    <row r="252" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:4" ht="20" customHeight="1">
       <c r="A252" s="7" t="s">
         <v>635</v>
       </c>
@@ -10597,7 +10635,7 @@
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
     </row>
-    <row r="253" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4" ht="20" customHeight="1">
       <c r="A253" s="7" t="s">
         <v>636</v>
       </c>
@@ -10605,7 +10643,7 @@
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
     </row>
-    <row r="254" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:4" ht="20" customHeight="1">
       <c r="A254" s="7" t="s">
         <v>637</v>
       </c>
@@ -10619,7 +10657,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4" ht="20" customHeight="1">
       <c r="A255" s="7" t="s">
         <v>638</v>
       </c>
@@ -10633,7 +10671,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:4" ht="20" customHeight="1">
       <c r="A256" s="7" t="s">
         <v>641</v>
       </c>
@@ -10645,7 +10683,7 @@
       </c>
       <c r="D256" s="11"/>
     </row>
-    <row r="257" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:4" ht="20" customHeight="1">
       <c r="A257" s="7" t="s">
         <v>644</v>
       </c>
@@ -10659,7 +10697,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:4" ht="20" customHeight="1">
       <c r="A258" s="7" t="s">
         <v>647</v>
       </c>
@@ -10673,7 +10711,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:4" ht="20" customHeight="1">
       <c r="A259" s="7" t="s">
         <v>650</v>
       </c>
@@ -10687,7 +10725,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:4" ht="20" customHeight="1">
       <c r="A260" s="7" t="s">
         <v>653</v>
       </c>
@@ -10701,7 +10739,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:4" ht="20" customHeight="1">
       <c r="A261" s="7" t="s">
         <v>656</v>
       </c>
@@ -10715,7 +10753,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:4" ht="20" customHeight="1">
       <c r="A262" s="7" t="s">
         <v>659</v>
       </c>
@@ -10723,7 +10761,7 @@
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
     </row>
-    <row r="263" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:4" ht="20" customHeight="1">
       <c r="A263" s="7" t="s">
         <v>660</v>
       </c>
@@ -10731,7 +10769,7 @@
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
     </row>
-    <row r="264" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:4" ht="20" customHeight="1">
       <c r="A264" s="7" t="s">
         <v>661</v>
       </c>
@@ -10745,7 +10783,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:4" ht="20" customHeight="1">
       <c r="A265" s="7" t="s">
         <v>664</v>
       </c>
@@ -10759,7 +10797,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:4" ht="20" customHeight="1">
       <c r="A266" s="7" t="s">
         <v>667</v>
       </c>
@@ -10773,7 +10811,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:4" ht="20" customHeight="1">
       <c r="A267" s="7" t="s">
         <v>670</v>
       </c>
@@ -10787,7 +10825,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:4" ht="20" customHeight="1">
       <c r="A268" s="7" t="s">
         <v>673</v>
       </c>
@@ -10801,7 +10839,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:4" ht="20" customHeight="1">
       <c r="A269" s="7" t="s">
         <v>674</v>
       </c>
@@ -10815,7 +10853,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:4" ht="20" customHeight="1">
       <c r="A270" s="7" t="s">
         <v>677</v>
       </c>
@@ -10829,7 +10867,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:4" ht="20" customHeight="1">
       <c r="A271" s="7" t="s">
         <v>680</v>
       </c>
@@ -10843,7 +10881,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:4" ht="20" customHeight="1">
       <c r="A272" s="7" t="s">
         <v>683</v>
       </c>
@@ -10851,7 +10889,7 @@
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
     </row>
-    <row r="273" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:4" ht="20" customHeight="1">
       <c r="A273" s="7" t="s">
         <v>684</v>
       </c>
@@ -10859,7 +10897,7 @@
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
     </row>
-    <row r="274" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:4" ht="20" customHeight="1">
       <c r="A274" s="7" t="s">
         <v>685</v>
       </c>
@@ -10873,7 +10911,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:4" ht="20" customHeight="1">
       <c r="A275" s="7" t="s">
         <v>688</v>
       </c>
@@ -10887,7 +10925,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:4" ht="20" customHeight="1">
       <c r="A276" s="7" t="s">
         <v>691</v>
       </c>
@@ -10901,7 +10939,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:4" ht="20" customHeight="1">
       <c r="A277" s="7" t="s">
         <v>694</v>
       </c>
@@ -10909,7 +10947,7 @@
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
     </row>
-    <row r="278" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:4" ht="20" customHeight="1">
       <c r="A278" s="7" t="s">
         <v>695</v>
       </c>
@@ -10917,7 +10955,7 @@
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
     </row>
-    <row r="279" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:4" ht="20" customHeight="1">
       <c r="A279" s="7" t="s">
         <v>696</v>
       </c>
@@ -10931,7 +10969,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:4" ht="20" customHeight="1">
       <c r="A280" s="7" t="s">
         <v>699</v>
       </c>
@@ -10945,7 +10983,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:4" ht="20" customHeight="1">
       <c r="A281" s="7" t="s">
         <v>702</v>
       </c>
@@ -10959,7 +10997,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:4" ht="20" customHeight="1">
       <c r="A282" s="7" t="s">
         <v>705</v>
       </c>
@@ -10967,7 +11005,7 @@
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
     </row>
-    <row r="283" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:4" ht="20" customHeight="1">
       <c r="A283" s="7" t="s">
         <v>706</v>
       </c>
@@ -10975,7 +11013,7 @@
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
     </row>
-    <row r="284" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:4" ht="20" customHeight="1">
       <c r="A284" s="7" t="s">
         <v>707</v>
       </c>
@@ -10989,7 +11027,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:4" ht="20" customHeight="1">
       <c r="A285" s="7" t="s">
         <v>710</v>
       </c>
@@ -11003,7 +11041,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:4" ht="20" customHeight="1">
       <c r="A286" s="7" t="s">
         <v>713</v>
       </c>
@@ -11017,7 +11055,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:4" ht="20" customHeight="1">
       <c r="A287" s="7" t="s">
         <v>716</v>
       </c>
@@ -11031,7 +11069,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:4" ht="20" customHeight="1">
       <c r="A288" s="7" t="s">
         <v>719</v>
       </c>
@@ -11045,7 +11083,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:4" ht="20" customHeight="1">
       <c r="A289" s="7" t="s">
         <v>722</v>
       </c>
@@ -11059,7 +11097,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:4" ht="20" customHeight="1">
       <c r="A290" s="7" t="s">
         <v>725</v>
       </c>
@@ -11067,7 +11105,7 @@
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
     </row>
-    <row r="291" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:4" ht="20" customHeight="1">
       <c r="A291" s="7" t="s">
         <v>726</v>
       </c>
@@ -11075,7 +11113,7 @@
       <c r="C291" s="11"/>
       <c r="D291" s="11"/>
     </row>
-    <row r="292" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:4" ht="20" customHeight="1">
       <c r="A292" s="7" t="s">
         <v>727</v>
       </c>
@@ -11083,7 +11121,7 @@
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
     </row>
-    <row r="293" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:4" ht="20" customHeight="1">
       <c r="A293" s="7" t="s">
         <v>728</v>
       </c>
@@ -11091,7 +11129,7 @@
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
     </row>
-    <row r="294" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:4" ht="20" customHeight="1">
       <c r="A294" s="7" t="s">
         <v>729</v>
       </c>
@@ -11105,7 +11143,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:4" ht="20" customHeight="1">
       <c r="A295" s="7" t="s">
         <v>732</v>
       </c>
@@ -11119,7 +11157,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:4" ht="20" customHeight="1">
       <c r="A296" s="7" t="s">
         <v>734</v>
       </c>
@@ -11133,7 +11171,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:4" ht="20" customHeight="1">
       <c r="A297" s="7" t="s">
         <v>737</v>
       </c>
@@ -11141,7 +11179,7 @@
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
     </row>
-    <row r="298" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:4" ht="20" customHeight="1">
       <c r="A298" s="7" t="s">
         <v>738</v>
       </c>
@@ -11149,7 +11187,7 @@
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
     </row>
-    <row r="299" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:4" ht="20" customHeight="1">
       <c r="A299" s="7" t="s">
         <v>739</v>
       </c>
@@ -11161,7 +11199,7 @@
       </c>
       <c r="D299" s="11"/>
     </row>
-    <row r="300" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:4" ht="20" customHeight="1">
       <c r="A300" s="7" t="s">
         <v>742</v>
       </c>
@@ -11173,7 +11211,7 @@
       </c>
       <c r="D300" s="11"/>
     </row>
-    <row r="301" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:4" ht="20" customHeight="1">
       <c r="A301" s="7" t="s">
         <v>745</v>
       </c>
@@ -11185,7 +11223,7 @@
       </c>
       <c r="D301" s="11"/>
     </row>
-    <row r="302" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:4" ht="20" customHeight="1">
       <c r="A302" s="7" t="s">
         <v>748</v>
       </c>
@@ -11197,7 +11235,7 @@
       </c>
       <c r="D302" s="11"/>
     </row>
-    <row r="303" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:4" ht="20" customHeight="1">
       <c r="A303" s="7" t="s">
         <v>751</v>
       </c>
@@ -11209,7 +11247,7 @@
       </c>
       <c r="D303" s="11"/>
     </row>
-    <row r="304" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:4" ht="20" customHeight="1">
       <c r="A304" s="7" t="s">
         <v>754</v>
       </c>
@@ -11221,7 +11259,7 @@
       </c>
       <c r="D304" s="11"/>
     </row>
-    <row r="305" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:4" ht="20" customHeight="1">
       <c r="A305" s="7" t="s">
         <v>757</v>
       </c>
@@ -11229,7 +11267,7 @@
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
     </row>
-    <row r="306" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:4" ht="20" customHeight="1">
       <c r="A306" s="7" t="s">
         <v>758</v>
       </c>
@@ -11237,7 +11275,7 @@
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
     </row>
-    <row r="307" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:4" ht="20" customHeight="1">
       <c r="A307" s="7" t="s">
         <v>759</v>
       </c>
@@ -11249,7 +11287,7 @@
       </c>
       <c r="D307" s="11"/>
     </row>
-    <row r="308" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:4" ht="20" customHeight="1">
       <c r="A308" s="7" t="s">
         <v>762</v>
       </c>
@@ -11261,7 +11299,7 @@
       </c>
       <c r="D308" s="11"/>
     </row>
-    <row r="309" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:4" ht="20" customHeight="1">
       <c r="A309" s="7" t="s">
         <v>765</v>
       </c>
@@ -11273,7 +11311,7 @@
       </c>
       <c r="D309" s="11"/>
     </row>
-    <row r="310" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:4" ht="20" customHeight="1">
       <c r="A310" s="7" t="s">
         <v>768</v>
       </c>
@@ -11281,7 +11319,7 @@
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
     </row>
-    <row r="311" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:4" ht="20" customHeight="1">
       <c r="A311" s="7" t="s">
         <v>769</v>
       </c>
@@ -11289,7 +11327,7 @@
       <c r="C311" s="11"/>
       <c r="D311" s="11"/>
     </row>
-    <row r="312" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:4" ht="20" customHeight="1">
       <c r="A312" s="7" t="s">
         <v>770</v>
       </c>
@@ -11303,7 +11341,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:4" ht="20" customHeight="1">
       <c r="A313" s="7" t="s">
         <v>773</v>
       </c>
@@ -11317,7 +11355,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:4" ht="20" customHeight="1">
       <c r="A314" s="7" t="s">
         <v>776</v>
       </c>
@@ -11331,7 +11369,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:4" ht="20" customHeight="1">
       <c r="A315" s="7" t="s">
         <v>779</v>
       </c>
@@ -11345,7 +11383,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:4" ht="20" customHeight="1">
       <c r="A316" s="7" t="s">
         <v>782</v>
       </c>
@@ -11359,7 +11397,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:4" ht="20" customHeight="1">
       <c r="A317" s="7" t="s">
         <v>785</v>
       </c>
@@ -11373,7 +11411,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:4" ht="20" customHeight="1">
       <c r="A318" s="7" t="s">
         <v>788</v>
       </c>
@@ -11381,7 +11419,7 @@
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
     </row>
-    <row r="319" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:4" ht="20" customHeight="1">
       <c r="A319" s="7" t="s">
         <v>789</v>
       </c>
@@ -11395,7 +11433,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:4" ht="20" customHeight="1">
       <c r="A320" s="7" t="s">
         <v>793</v>
       </c>
@@ -11409,7 +11447,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:4" ht="20" customHeight="1">
       <c r="A321" s="7" t="s">
         <v>796</v>
       </c>
@@ -11423,7 +11461,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:4" ht="20" customHeight="1">
       <c r="A322" s="7" t="s">
         <v>799</v>
       </c>
@@ -11437,7 +11475,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:4" ht="20" customHeight="1">
       <c r="A323" s="7" t="s">
         <v>802</v>
       </c>
@@ -11451,7 +11489,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:4" ht="20" customHeight="1">
       <c r="A324" s="7" t="s">
         <v>805</v>
       </c>
@@ -11465,7 +11503,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:4" ht="20" customHeight="1">
       <c r="A325" s="7" t="s">
         <v>808</v>
       </c>
@@ -11479,7 +11517,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:4" ht="20" customHeight="1">
       <c r="A326" s="7" t="s">
         <v>811</v>
       </c>
@@ -11493,7 +11531,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:4" ht="20" customHeight="1">
       <c r="A327" s="7" t="s">
         <v>814</v>
       </c>
@@ -11501,7 +11539,7 @@
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
     </row>
-    <row r="328" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:4" ht="20" customHeight="1">
       <c r="A328" s="7" t="s">
         <v>815</v>
       </c>
@@ -11509,7 +11547,7 @@
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
     </row>
-    <row r="329" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:4" ht="20" customHeight="1">
       <c r="A329" s="7" t="s">
         <v>816</v>
       </c>
@@ -11523,7 +11561,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:4" ht="20" customHeight="1">
       <c r="A330" s="7" t="s">
         <v>819</v>
       </c>
@@ -11537,7 +11575,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:4" ht="20" customHeight="1">
       <c r="A331" s="7" t="s">
         <v>822</v>
       </c>
@@ -11551,7 +11589,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:4" ht="20" customHeight="1">
       <c r="A332" s="7" t="s">
         <v>825</v>
       </c>
@@ -11565,7 +11603,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:4" ht="20" customHeight="1">
       <c r="A333" s="7" t="s">
         <v>828</v>
       </c>
@@ -11579,7 +11617,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:4" ht="20" customHeight="1">
       <c r="A334" s="7" t="s">
         <v>831</v>
       </c>
@@ -11593,7 +11631,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:4" ht="20" customHeight="1">
       <c r="A335" s="7" t="s">
         <v>834</v>
       </c>
@@ -11607,7 +11645,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:4" ht="20" customHeight="1">
       <c r="A336" s="7" t="s">
         <v>837</v>
       </c>
@@ -11621,7 +11659,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:4" ht="20" customHeight="1">
       <c r="A337" s="7" t="s">
         <v>840</v>
       </c>
@@ -11635,7 +11673,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:4" ht="20" customHeight="1">
       <c r="A338" s="7" t="s">
         <v>843</v>
       </c>
@@ -11649,7 +11687,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:4" ht="20" customHeight="1">
       <c r="A339" s="7" t="s">
         <v>846</v>
       </c>
@@ -11657,7 +11695,7 @@
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
     </row>
-    <row r="340" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:4" ht="20" customHeight="1">
       <c r="A340" s="7" t="s">
         <v>847</v>
       </c>
@@ -11671,7 +11709,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:4" ht="20" customHeight="1">
       <c r="A341" s="7" t="s">
         <v>851</v>
       </c>
@@ -11685,7 +11723,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:4" ht="20" customHeight="1">
       <c r="A342" s="7" t="s">
         <v>854</v>
       </c>
@@ -11699,7 +11737,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:4" ht="20" customHeight="1">
       <c r="A343" s="7" t="s">
         <v>857</v>
       </c>
@@ -11709,7 +11747,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:4" ht="20" customHeight="1">
       <c r="A344" s="7" t="s">
         <v>858</v>
       </c>
@@ -11723,7 +11761,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:4" ht="20" customHeight="1">
       <c r="A345" s="7" t="s">
         <v>861</v>
       </c>
@@ -11737,7 +11775,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:4" ht="20" customHeight="1">
       <c r="A346" s="7" t="s">
         <v>864</v>
       </c>
@@ -11751,7 +11789,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:4" ht="20" customHeight="1">
       <c r="A347" s="7" t="s">
         <v>867</v>
       </c>
@@ -11765,7 +11803,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:4" ht="20" customHeight="1">
       <c r="A348" s="7" t="s">
         <v>870</v>
       </c>
@@ -11779,7 +11817,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:4" ht="20" customHeight="1">
       <c r="A349" s="7" t="s">
         <v>873</v>
       </c>
@@ -11793,7 +11831,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:4" ht="20" customHeight="1">
       <c r="A350" s="7" t="s">
         <v>876</v>
       </c>
@@ -11807,7 +11845,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:4" ht="20" customHeight="1">
       <c r="A351" s="7" t="s">
         <v>879</v>
       </c>
@@ -11815,7 +11853,7 @@
       <c r="C351" s="11"/>
       <c r="D351" s="11"/>
     </row>
-    <row r="352" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:4" ht="20" customHeight="1">
       <c r="A352" s="7" t="s">
         <v>880</v>
       </c>
@@ -11827,7 +11865,7 @@
       </c>
       <c r="D352" s="11"/>
     </row>
-    <row r="353" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:4" ht="20" customHeight="1">
       <c r="A353" s="7" t="s">
         <v>881</v>
       </c>
@@ -11839,7 +11877,7 @@
       </c>
       <c r="D353" s="11"/>
     </row>
-    <row r="354" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:4" ht="20" customHeight="1">
       <c r="A354" s="7" t="s">
         <v>882</v>
       </c>
@@ -11851,7 +11889,7 @@
       </c>
       <c r="D354" s="11"/>
     </row>
-    <row r="355" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:4" ht="20" customHeight="1">
       <c r="A355" s="7" t="s">
         <v>885</v>
       </c>
@@ -11863,7 +11901,7 @@
       </c>
       <c r="D355" s="11"/>
     </row>
-    <row r="356" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:4" ht="20" customHeight="1">
       <c r="A356" s="7" t="s">
         <v>888</v>
       </c>
@@ -11871,7 +11909,7 @@
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
     </row>
-    <row r="357" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:4" ht="20" customHeight="1">
       <c r="A357" s="7" t="s">
         <v>889</v>
       </c>
@@ -11883,7 +11921,7 @@
       </c>
       <c r="D357" s="11"/>
     </row>
-    <row r="358" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:4" ht="20" customHeight="1">
       <c r="A358" s="7" t="s">
         <v>892</v>
       </c>
@@ -11895,7 +11933,7 @@
       </c>
       <c r="D358" s="11"/>
     </row>
-    <row r="359" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:4" ht="20" customHeight="1">
       <c r="A359" s="7" t="s">
         <v>895</v>
       </c>
@@ -11907,7 +11945,7 @@
       </c>
       <c r="D359" s="11"/>
     </row>
-    <row r="360" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:4" ht="20" customHeight="1">
       <c r="A360" s="7" t="s">
         <v>898</v>
       </c>
@@ -11919,7 +11957,7 @@
       </c>
       <c r="D360" s="11"/>
     </row>
-    <row r="361" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:4" ht="20" customHeight="1">
       <c r="A361" s="7" t="s">
         <v>901</v>
       </c>
@@ -11931,7 +11969,7 @@
       </c>
       <c r="D361" s="11"/>
     </row>
-    <row r="362" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:4" ht="20" customHeight="1">
       <c r="A362" s="7" t="s">
         <v>904</v>
       </c>
@@ -11943,7 +11981,7 @@
       </c>
       <c r="D362" s="11"/>
     </row>
-    <row r="363" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:4" ht="20" customHeight="1">
       <c r="A363" s="7" t="s">
         <v>907</v>
       </c>
@@ -11955,7 +11993,7 @@
       </c>
       <c r="D363" s="11"/>
     </row>
-    <row r="364" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:4" ht="20" customHeight="1">
       <c r="A364" s="7" t="s">
         <v>908</v>
       </c>
@@ -11967,7 +12005,7 @@
       </c>
       <c r="D364" s="11"/>
     </row>
-    <row r="365" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:4" ht="20" customHeight="1">
       <c r="A365" s="7" t="s">
         <v>911</v>
       </c>
@@ -11975,7 +12013,7 @@
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
     </row>
-    <row r="366" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:4" ht="20" customHeight="1">
       <c r="A366" s="7" t="s">
         <v>912</v>
       </c>
@@ -11983,7 +12021,7 @@
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
     </row>
-    <row r="367" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:4" ht="20" customHeight="1">
       <c r="A367" s="7" t="s">
         <v>913</v>
       </c>
@@ -11991,7 +12029,7 @@
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
     </row>
-    <row r="368" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:4" ht="20" customHeight="1">
       <c r="A368" s="7" t="s">
         <v>914</v>
       </c>
@@ -11999,7 +12037,7 @@
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
     </row>
-    <row r="369" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:4" ht="20" customHeight="1">
       <c r="A369" s="7" t="s">
         <v>915</v>
       </c>
@@ -12007,7 +12045,7 @@
       <c r="C369" s="11"/>
       <c r="D369" s="11"/>
     </row>
-    <row r="370" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:4" ht="20" customHeight="1">
       <c r="A370" s="7" t="s">
         <v>916</v>
       </c>
@@ -12015,7 +12053,7 @@
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
     </row>
-    <row r="371" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:4" ht="20" customHeight="1">
       <c r="A371" s="7" t="s">
         <v>917</v>
       </c>
@@ -12023,7 +12061,7 @@
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
     </row>
-    <row r="372" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:4" ht="20" customHeight="1">
       <c r="A372" s="7" t="s">
         <v>918</v>
       </c>
@@ -12031,7 +12069,7 @@
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
     </row>
-    <row r="373" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:4" ht="20" customHeight="1">
       <c r="A373" s="7" t="s">
         <v>919</v>
       </c>
@@ -12039,7 +12077,7 @@
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
     </row>
-    <row r="374" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:4" ht="20" customHeight="1">
       <c r="A374" s="7" t="s">
         <v>920</v>
       </c>
@@ -12051,7 +12089,7 @@
       </c>
       <c r="D374" s="11"/>
     </row>
-    <row r="375" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:4" ht="20" customHeight="1">
       <c r="A375" s="7" t="s">
         <v>923</v>
       </c>
@@ -12063,7 +12101,7 @@
       </c>
       <c r="D375" s="11"/>
     </row>
-    <row r="376" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:4" ht="20" customHeight="1">
       <c r="A376" s="7" t="s">
         <v>926</v>
       </c>
@@ -12075,7 +12113,7 @@
       </c>
       <c r="D376" s="11"/>
     </row>
-    <row r="377" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:4" ht="20" customHeight="1">
       <c r="A377" s="7" t="s">
         <v>929</v>
       </c>
@@ -12087,7 +12125,7 @@
       </c>
       <c r="D377" s="11"/>
     </row>
-    <row r="378" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:4" ht="20" customHeight="1">
       <c r="A378" s="7" t="s">
         <v>932</v>
       </c>
@@ -12099,7 +12137,7 @@
       </c>
       <c r="D378" s="11"/>
     </row>
-    <row r="379" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:4" ht="20" customHeight="1">
       <c r="A379" s="7" t="s">
         <v>935</v>
       </c>
@@ -12111,7 +12149,7 @@
       </c>
       <c r="D379" s="11"/>
     </row>
-    <row r="380" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:4" ht="20" customHeight="1">
       <c r="A380" s="7" t="s">
         <v>938</v>
       </c>
@@ -12123,7 +12161,7 @@
       </c>
       <c r="D380" s="11"/>
     </row>
-    <row r="381" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:4" ht="20" customHeight="1">
       <c r="A381" s="7" t="s">
         <v>941</v>
       </c>
@@ -12135,7 +12173,7 @@
       </c>
       <c r="D381" s="11"/>
     </row>
-    <row r="382" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:4" ht="20" customHeight="1">
       <c r="A382" s="7" t="s">
         <v>944</v>
       </c>
@@ -12147,7 +12185,7 @@
       </c>
       <c r="D382" s="11"/>
     </row>
-    <row r="383" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:4" ht="20" customHeight="1">
       <c r="A383" s="7" t="s">
         <v>947</v>
       </c>
@@ -12159,7 +12197,7 @@
       </c>
       <c r="D383" s="11"/>
     </row>
-    <row r="384" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:4" ht="20" customHeight="1">
       <c r="A384" s="7" t="s">
         <v>950</v>
       </c>
@@ -12171,7 +12209,7 @@
       </c>
       <c r="D384" s="11"/>
     </row>
-    <row r="385" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:4" ht="20" customHeight="1">
       <c r="A385" s="7" t="s">
         <v>953</v>
       </c>
@@ -12183,7 +12221,7 @@
       </c>
       <c r="D385" s="11"/>
     </row>
-    <row r="386" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:4" ht="20" customHeight="1">
       <c r="A386" s="7" t="s">
         <v>956</v>
       </c>
@@ -12195,7 +12233,7 @@
       </c>
       <c r="D386" s="11"/>
     </row>
-    <row r="387" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:4" ht="20" customHeight="1">
       <c r="A387" s="7" t="s">
         <v>959</v>
       </c>
@@ -12207,7 +12245,7 @@
       </c>
       <c r="D387" s="11"/>
     </row>
-    <row r="388" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:4" ht="20" customHeight="1">
       <c r="A388" s="7" t="s">
         <v>962</v>
       </c>
@@ -12219,7 +12257,7 @@
       </c>
       <c r="D388" s="11"/>
     </row>
-    <row r="389" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:4" ht="20" customHeight="1">
       <c r="A389" s="7" t="s">
         <v>965</v>
       </c>
@@ -12231,7 +12269,7 @@
       </c>
       <c r="D389" s="11"/>
     </row>
-    <row r="390" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:4" ht="20" customHeight="1">
       <c r="A390" s="7" t="s">
         <v>968</v>
       </c>
@@ -12243,7 +12281,7 @@
       </c>
       <c r="D390" s="11"/>
     </row>
-    <row r="391" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:4" ht="20" customHeight="1">
       <c r="A391" s="7" t="s">
         <v>971</v>
       </c>
@@ -12255,7 +12293,7 @@
       </c>
       <c r="D391" s="11"/>
     </row>
-    <row r="392" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:4" ht="20" customHeight="1">
       <c r="A392" s="7" t="s">
         <v>974</v>
       </c>
@@ -12267,7 +12305,7 @@
       </c>
       <c r="D392" s="11"/>
     </row>
-    <row r="393" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:4" ht="20" customHeight="1">
       <c r="A393" s="7" t="s">
         <v>977</v>
       </c>
@@ -12279,7 +12317,7 @@
       </c>
       <c r="D393" s="11"/>
     </row>
-    <row r="394" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:4" ht="20" customHeight="1">
       <c r="A394" s="7" t="s">
         <v>980</v>
       </c>
@@ -12287,7 +12325,7 @@
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
     </row>
-    <row r="395" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:4" ht="20" customHeight="1">
       <c r="A395" s="7" t="s">
         <v>981</v>
       </c>
@@ -12299,7 +12337,7 @@
       </c>
       <c r="D395" s="11"/>
     </row>
-    <row r="396" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:4" ht="20" customHeight="1">
       <c r="A396" s="7" t="s">
         <v>984</v>
       </c>
@@ -12311,7 +12349,7 @@
       </c>
       <c r="D396" s="11"/>
     </row>
-    <row r="397" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:4" ht="20" customHeight="1">
       <c r="A397" s="7" t="s">
         <v>986</v>
       </c>
@@ -12323,7 +12361,7 @@
       </c>
       <c r="D397" s="11"/>
     </row>
-    <row r="398" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:4" ht="20" customHeight="1">
       <c r="A398" s="7" t="s">
         <v>989</v>
       </c>
@@ -12331,7 +12369,7 @@
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
     </row>
-    <row r="399" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:4" ht="20" customHeight="1">
       <c r="A399" s="7" t="s">
         <v>990</v>
       </c>
@@ -12343,7 +12381,7 @@
       </c>
       <c r="D399" s="11"/>
     </row>
-    <row r="400" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:4" ht="20" customHeight="1">
       <c r="A400" s="7" t="s">
         <v>993</v>
       </c>
@@ -12355,7 +12393,7 @@
       </c>
       <c r="D400" s="11"/>
     </row>
-    <row r="401" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:4" ht="20" customHeight="1">
       <c r="A401" s="7" t="s">
         <v>996</v>
       </c>
@@ -12367,7 +12405,7 @@
       </c>
       <c r="D401" s="11"/>
     </row>
-    <row r="402" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:4" ht="20" customHeight="1">
       <c r="A402" s="7" t="s">
         <v>999</v>
       </c>
@@ -12379,7 +12417,7 @@
       </c>
       <c r="D402" s="11"/>
     </row>
-    <row r="403" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:4" ht="20" customHeight="1">
       <c r="A403" s="7" t="s">
         <v>1002</v>
       </c>
@@ -12391,7 +12429,7 @@
       </c>
       <c r="D403" s="11"/>
     </row>
-    <row r="404" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:4" ht="20" customHeight="1">
       <c r="A404" s="7" t="s">
         <v>1004</v>
       </c>
@@ -12403,7 +12441,7 @@
       </c>
       <c r="D404" s="11"/>
     </row>
-    <row r="405" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:4" ht="20" customHeight="1">
       <c r="A405" s="7" t="s">
         <v>1006</v>
       </c>
@@ -12415,7 +12453,7 @@
       </c>
       <c r="D405" s="11"/>
     </row>
-    <row r="406" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:4" ht="20" customHeight="1">
       <c r="A406" s="7" t="s">
         <v>1009</v>
       </c>
@@ -12423,7 +12461,7 @@
       <c r="C406" s="11"/>
       <c r="D406" s="11"/>
     </row>
-    <row r="407" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:4" ht="20" customHeight="1">
       <c r="A407" s="7" t="s">
         <v>1010</v>
       </c>
@@ -12431,7 +12469,7 @@
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
     </row>
-    <row r="408" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:4" ht="20" customHeight="1">
       <c r="A408" s="7" t="s">
         <v>1011</v>
       </c>
@@ -12439,7 +12477,7 @@
       <c r="C408" s="11"/>
       <c r="D408" s="11"/>
     </row>
-    <row r="409" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:4" ht="20" customHeight="1">
       <c r="A409" s="7" t="s">
         <v>1012</v>
       </c>
@@ -12451,7 +12489,7 @@
       </c>
       <c r="D409" s="11"/>
     </row>
-    <row r="410" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:4" ht="20" customHeight="1">
       <c r="A410" s="7" t="s">
         <v>1015</v>
       </c>
@@ -12463,7 +12501,7 @@
       </c>
       <c r="D410" s="11"/>
     </row>
-    <row r="411" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:4" ht="20" customHeight="1">
       <c r="A411" s="7" t="s">
         <v>1018</v>
       </c>
@@ -12475,7 +12513,7 @@
       </c>
       <c r="D411" s="11"/>
     </row>
-    <row r="412" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:4" ht="20" customHeight="1">
       <c r="A412" s="7" t="s">
         <v>1021</v>
       </c>
@@ -12487,7 +12525,7 @@
       </c>
       <c r="D412" s="11"/>
     </row>
-    <row r="413" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:4" ht="20" customHeight="1">
       <c r="A413" s="7" t="s">
         <v>1024</v>
       </c>
@@ -12499,7 +12537,7 @@
       </c>
       <c r="D413" s="11"/>
     </row>
-    <row r="414" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:4" ht="20" customHeight="1">
       <c r="A414" s="7" t="s">
         <v>1027</v>
       </c>
@@ -12511,7 +12549,7 @@
       </c>
       <c r="D414" s="11"/>
     </row>
-    <row r="415" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:4" ht="20" customHeight="1">
       <c r="A415" s="7" t="s">
         <v>1030</v>
       </c>
@@ -12523,7 +12561,7 @@
       </c>
       <c r="D415" s="11"/>
     </row>
-    <row r="416" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:4" ht="20" customHeight="1">
       <c r="A416" s="7" t="s">
         <v>1033</v>
       </c>
@@ -12535,7 +12573,7 @@
       </c>
       <c r="D416" s="11"/>
     </row>
-    <row r="417" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:4" ht="20" customHeight="1">
       <c r="A417" s="7" t="s">
         <v>1036</v>
       </c>
@@ -12547,7 +12585,7 @@
       </c>
       <c r="D417" s="11"/>
     </row>
-    <row r="418" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:4" ht="20" customHeight="1">
       <c r="A418" s="7" t="s">
         <v>1039</v>
       </c>
@@ -12559,7 +12597,7 @@
       </c>
       <c r="D418" s="11"/>
     </row>
-    <row r="419" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:4" ht="20" customHeight="1">
       <c r="A419" s="7" t="s">
         <v>1042</v>
       </c>
@@ -12571,7 +12609,7 @@
       </c>
       <c r="D419" s="11"/>
     </row>
-    <row r="420" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:4" ht="20" customHeight="1">
       <c r="A420" s="7" t="s">
         <v>1045</v>
       </c>
@@ -12583,7 +12621,7 @@
       </c>
       <c r="D420" s="11"/>
     </row>
-    <row r="421" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:4" ht="20" customHeight="1">
       <c r="A421" s="7" t="s">
         <v>1048</v>
       </c>
@@ -12595,7 +12633,7 @@
       </c>
       <c r="D421" s="11"/>
     </row>
-    <row r="422" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:4" ht="20" customHeight="1">
       <c r="A422" s="7" t="s">
         <v>1051</v>
       </c>
@@ -12607,7 +12645,7 @@
       </c>
       <c r="D422" s="11"/>
     </row>
-    <row r="423" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:4" ht="20" customHeight="1">
       <c r="A423" s="7" t="s">
         <v>1054</v>
       </c>
@@ -12619,7 +12657,7 @@
       </c>
       <c r="D423" s="11"/>
     </row>
-    <row r="424" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:4" ht="20" customHeight="1">
       <c r="A424" s="7" t="s">
         <v>1057</v>
       </c>
@@ -12631,7 +12669,7 @@
       </c>
       <c r="D424" s="11"/>
     </row>
-    <row r="425" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:4" ht="20" customHeight="1">
       <c r="A425" s="7" t="s">
         <v>1060</v>
       </c>
@@ -12643,7 +12681,7 @@
       </c>
       <c r="D425" s="11"/>
     </row>
-    <row r="426" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:4" ht="20" customHeight="1">
       <c r="A426" s="7" t="s">
         <v>1063</v>
       </c>
@@ -12655,7 +12693,7 @@
       </c>
       <c r="D426" s="11"/>
     </row>
-    <row r="427" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:4" ht="20" customHeight="1">
       <c r="A427" s="7" t="s">
         <v>1066</v>
       </c>
@@ -12667,7 +12705,7 @@
       </c>
       <c r="D427" s="11"/>
     </row>
-    <row r="428" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:4" ht="20" customHeight="1">
       <c r="A428" s="7" t="s">
         <v>1069</v>
       </c>
@@ -12679,7 +12717,7 @@
       </c>
       <c r="D428" s="11"/>
     </row>
-    <row r="429" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:4" ht="20" customHeight="1">
       <c r="A429" s="7" t="s">
         <v>1072</v>
       </c>
@@ -12687,7 +12725,7 @@
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
     </row>
-    <row r="430" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:4" ht="20" customHeight="1">
       <c r="A430" s="7" t="s">
         <v>1073</v>
       </c>
@@ -12695,7 +12733,7 @@
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
     </row>
-    <row r="431" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:4" ht="20" customHeight="1">
       <c r="A431" s="7" t="s">
         <v>1074</v>
       </c>
@@ -12703,7 +12741,7 @@
       <c r="C431" s="11"/>
       <c r="D431" s="11"/>
     </row>
-    <row r="432" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:4" ht="20" customHeight="1">
       <c r="A432" s="7" t="s">
         <v>1075</v>
       </c>
@@ -12711,7 +12749,7 @@
       <c r="C432" s="11"/>
       <c r="D432" s="11"/>
     </row>
-    <row r="433" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:4" ht="20" customHeight="1">
       <c r="A433" s="7" t="s">
         <v>1076</v>
       </c>
@@ -12719,7 +12757,7 @@
       <c r="C433" s="11"/>
       <c r="D433" s="11"/>
     </row>
-    <row r="434" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:4" ht="20" customHeight="1">
       <c r="A434" s="7" t="s">
         <v>1077</v>
       </c>
@@ -12731,7 +12769,7 @@
       </c>
       <c r="D434" s="11"/>
     </row>
-    <row r="435" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:4" ht="20" customHeight="1">
       <c r="A435" s="7" t="s">
         <v>1080</v>
       </c>
@@ -12743,7 +12781,7 @@
       </c>
       <c r="D435" s="11"/>
     </row>
-    <row r="436" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:4" ht="20" customHeight="1">
       <c r="A436" s="7" t="s">
         <v>1083</v>
       </c>
@@ -12755,7 +12793,7 @@
       </c>
       <c r="D436" s="11"/>
     </row>
-    <row r="437" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:4" ht="20" customHeight="1">
       <c r="A437" s="7" t="s">
         <v>1086</v>
       </c>
@@ -12767,7 +12805,7 @@
       </c>
       <c r="D437" s="11"/>
     </row>
-    <row r="438" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:4" ht="20" customHeight="1">
       <c r="A438" s="7" t="s">
         <v>1089</v>
       </c>
@@ -12775,7 +12813,7 @@
       <c r="C438" s="11"/>
       <c r="D438" s="11"/>
     </row>
-    <row r="439" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:4" ht="20" customHeight="1">
       <c r="A439" s="7" t="s">
         <v>1090</v>
       </c>
@@ -12787,7 +12825,7 @@
       </c>
       <c r="D439" s="11"/>
     </row>
-    <row r="440" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:4" ht="20" customHeight="1">
       <c r="A440" s="7" t="s">
         <v>1093</v>
       </c>
@@ -12799,7 +12837,7 @@
       </c>
       <c r="D440" s="11"/>
     </row>
-    <row r="441" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:4" ht="20" customHeight="1">
       <c r="A441" s="7" t="s">
         <v>1095</v>
       </c>
@@ -12811,7 +12849,7 @@
       </c>
       <c r="D441" s="11"/>
     </row>
-    <row r="442" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:4" ht="20" customHeight="1">
       <c r="A442" s="7" t="s">
         <v>1098</v>
       </c>
@@ -12823,7 +12861,7 @@
       </c>
       <c r="D442" s="11"/>
     </row>
-    <row r="443" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:4" ht="20" customHeight="1">
       <c r="A443" s="7" t="s">
         <v>1101</v>
       </c>
@@ -12831,7 +12869,7 @@
       <c r="C443" s="11"/>
       <c r="D443" s="11"/>
     </row>
-    <row r="444" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:4" ht="20" customHeight="1">
       <c r="A444" s="7" t="s">
         <v>1102</v>
       </c>
@@ -12843,7 +12881,7 @@
       </c>
       <c r="D444" s="11"/>
     </row>
-    <row r="445" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:4" ht="20" customHeight="1">
       <c r="A445" s="7" t="s">
         <v>1105</v>
       </c>
@@ -12855,7 +12893,7 @@
       </c>
       <c r="D445" s="11"/>
     </row>
-    <row r="446" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:4" ht="20" customHeight="1">
       <c r="A446" s="7" t="s">
         <v>1108</v>
       </c>
@@ -12867,7 +12905,7 @@
       </c>
       <c r="D446" s="11"/>
     </row>
-    <row r="447" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:4" ht="20" customHeight="1">
       <c r="A447" s="7" t="s">
         <v>1111</v>
       </c>
@@ -12879,7 +12917,7 @@
       </c>
       <c r="D447" s="11"/>
     </row>
-    <row r="448" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:4" ht="20" customHeight="1">
       <c r="A448" s="7" t="s">
         <v>1114</v>
       </c>
@@ -12891,7 +12929,7 @@
       </c>
       <c r="D448" s="11"/>
     </row>
-    <row r="449" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:4" ht="20" customHeight="1">
       <c r="A449" s="7" t="s">
         <v>1117</v>
       </c>
@@ -12903,7 +12941,7 @@
       </c>
       <c r="D449" s="11"/>
     </row>
-    <row r="450" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:4" ht="20" customHeight="1">
       <c r="A450" s="7" t="s">
         <v>1120</v>
       </c>
@@ -12911,7 +12949,7 @@
       <c r="C450" s="11"/>
       <c r="D450" s="11"/>
     </row>
-    <row r="451" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:4" ht="20" customHeight="1">
       <c r="A451" s="7" t="s">
         <v>1121</v>
       </c>
@@ -12919,7 +12957,7 @@
       <c r="C451" s="11"/>
       <c r="D451" s="11"/>
     </row>
-    <row r="452" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:4" ht="20" customHeight="1">
       <c r="A452" s="7" t="s">
         <v>1122</v>
       </c>
@@ -12931,7 +12969,7 @@
       </c>
       <c r="D452" s="11"/>
     </row>
-    <row r="453" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:4" ht="20" customHeight="1">
       <c r="A453" s="7" t="s">
         <v>1125</v>
       </c>
@@ -12943,7 +12981,7 @@
       </c>
       <c r="D453" s="11"/>
     </row>
-    <row r="454" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:4" ht="20" customHeight="1">
       <c r="A454" s="7" t="s">
         <v>1128</v>
       </c>
@@ -12955,7 +12993,7 @@
       </c>
       <c r="D454" s="11"/>
     </row>
-    <row r="455" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:4" ht="20" customHeight="1">
       <c r="A455" s="7" t="s">
         <v>1131</v>
       </c>
@@ -12967,7 +13005,7 @@
       </c>
       <c r="D455" s="11"/>
     </row>
-    <row r="456" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:4" ht="20" customHeight="1">
       <c r="A456" s="7" t="s">
         <v>1134</v>
       </c>
@@ -12979,7 +13017,7 @@
       </c>
       <c r="D456" s="11"/>
     </row>
-    <row r="457" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:4" ht="20" customHeight="1">
       <c r="A457" s="7" t="s">
         <v>1137</v>
       </c>
@@ -12991,7 +13029,7 @@
       </c>
       <c r="D457" s="11"/>
     </row>
-    <row r="458" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:4" ht="20" customHeight="1">
       <c r="A458" s="7" t="s">
         <v>1140</v>
       </c>
@@ -13003,7 +13041,7 @@
       </c>
       <c r="D458" s="11"/>
     </row>
-    <row r="459" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:4" ht="20" customHeight="1">
       <c r="A459" s="7" t="s">
         <v>1143</v>
       </c>
@@ -13015,7 +13053,7 @@
       </c>
       <c r="D459" s="11"/>
     </row>
-    <row r="460" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:4" ht="20" customHeight="1">
       <c r="A460" s="7" t="s">
         <v>1146</v>
       </c>
@@ -13023,7 +13061,7 @@
       <c r="C460" s="11"/>
       <c r="D460" s="11"/>
     </row>
-    <row r="461" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:4" ht="20" customHeight="1">
       <c r="A461" s="7" t="s">
         <v>1147</v>
       </c>
@@ -13031,7 +13069,7 @@
       <c r="C461" s="11"/>
       <c r="D461" s="11"/>
     </row>
-    <row r="462" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:4" ht="20" customHeight="1">
       <c r="A462" s="7" t="s">
         <v>1148</v>
       </c>
@@ -13039,7 +13077,7 @@
       <c r="C462" s="11"/>
       <c r="D462" s="11"/>
     </row>
-    <row r="463" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:4" ht="20" customHeight="1">
       <c r="A463" s="7" t="s">
         <v>1149</v>
       </c>
@@ -13047,7 +13085,7 @@
       <c r="C463" s="11"/>
       <c r="D463" s="11"/>
     </row>
-    <row r="464" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:4" ht="20" customHeight="1">
       <c r="A464" s="7" t="s">
         <v>1150</v>
       </c>
@@ -13059,7 +13097,7 @@
       </c>
       <c r="D464" s="11"/>
     </row>
-    <row r="465" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:4" ht="20" customHeight="1">
       <c r="A465" s="7" t="s">
         <v>1153</v>
       </c>
@@ -13071,7 +13109,7 @@
       </c>
       <c r="D465" s="11"/>
     </row>
-    <row r="466" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:4" ht="20" customHeight="1">
       <c r="A466" s="7" t="s">
         <v>1156</v>
       </c>
@@ -13083,7 +13121,7 @@
       </c>
       <c r="D466" s="11"/>
     </row>
-    <row r="467" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:4" ht="20" customHeight="1">
       <c r="A467" s="7" t="s">
         <v>1159</v>
       </c>
@@ -13091,7 +13129,7 @@
       <c r="C467" s="11"/>
       <c r="D467" s="11"/>
     </row>
-    <row r="468" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:4" ht="20" customHeight="1">
       <c r="A468" s="7" t="s">
         <v>1160</v>
       </c>
@@ -13103,7 +13141,7 @@
       </c>
       <c r="D468" s="11"/>
     </row>
-    <row r="469" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:4" ht="20" customHeight="1">
       <c r="A469" s="7" t="s">
         <v>1163</v>
       </c>
@@ -13115,7 +13153,7 @@
       </c>
       <c r="D469" s="11"/>
     </row>
-    <row r="470" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:4" ht="20" customHeight="1">
       <c r="A470" s="7" t="s">
         <v>1166</v>
       </c>
@@ -13127,7 +13165,7 @@
       </c>
       <c r="D470" s="11"/>
     </row>
-    <row r="471" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:4" ht="20" customHeight="1">
       <c r="A471" s="7" t="s">
         <v>1169</v>
       </c>
@@ -13135,7 +13173,7 @@
       <c r="C471" s="11"/>
       <c r="D471" s="11"/>
     </row>
-    <row r="472" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:4" ht="20" customHeight="1">
       <c r="A472" s="7" t="s">
         <v>1170</v>
       </c>
@@ -13143,7 +13181,7 @@
       <c r="C472" s="11"/>
       <c r="D472" s="11"/>
     </row>
-    <row r="473" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:4" ht="20" customHeight="1">
       <c r="A473" s="7" t="s">
         <v>1171</v>
       </c>
@@ -13151,7 +13189,7 @@
       <c r="C473" s="11"/>
       <c r="D473" s="11"/>
     </row>
-    <row r="474" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:4" ht="20" customHeight="1">
       <c r="A474" s="7" t="s">
         <v>1172</v>
       </c>
@@ -13163,7 +13201,7 @@
       </c>
       <c r="D474" s="11"/>
     </row>
-    <row r="475" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:4" ht="20" customHeight="1">
       <c r="A475" s="7" t="s">
         <v>1175</v>
       </c>
@@ -13175,7 +13213,7 @@
       </c>
       <c r="D475" s="11"/>
     </row>
-    <row r="476" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:4" ht="20" customHeight="1">
       <c r="A476" s="7" t="s">
         <v>1178</v>
       </c>
@@ -13187,7 +13225,7 @@
       </c>
       <c r="D476" s="11"/>
     </row>
-    <row r="477" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:4" ht="20" customHeight="1">
       <c r="A477" s="7" t="s">
         <v>1181</v>
       </c>
@@ -13199,7 +13237,7 @@
       </c>
       <c r="D477" s="11"/>
     </row>
-    <row r="478" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:4" ht="20" customHeight="1">
       <c r="A478" s="7" t="s">
         <v>1184</v>
       </c>
@@ -13211,7 +13249,7 @@
       </c>
       <c r="D478" s="11"/>
     </row>
-    <row r="479" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:4" ht="20" customHeight="1">
       <c r="A479" s="7" t="s">
         <v>1187</v>
       </c>
@@ -13223,7 +13261,7 @@
       </c>
       <c r="D479" s="11"/>
     </row>
-    <row r="480" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:4" ht="20" customHeight="1">
       <c r="A480" s="7" t="s">
         <v>1190</v>
       </c>
@@ -13235,7 +13273,7 @@
       </c>
       <c r="D480" s="11"/>
     </row>
-    <row r="481" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:4" ht="20" customHeight="1">
       <c r="A481" s="7" t="s">
         <v>1193</v>
       </c>
@@ -13247,7 +13285,7 @@
       </c>
       <c r="D481" s="11"/>
     </row>
-    <row r="482" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:4" ht="20" customHeight="1">
       <c r="A482" s="7" t="s">
         <v>1196</v>
       </c>
@@ -13259,7 +13297,7 @@
       </c>
       <c r="D482" s="11"/>
     </row>
-    <row r="483" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:4" ht="20" customHeight="1">
       <c r="A483" s="7" t="s">
         <v>1199</v>
       </c>
@@ -13271,7 +13309,7 @@
       </c>
       <c r="D483" s="11"/>
     </row>
-    <row r="484" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:4" ht="20" customHeight="1">
       <c r="A484" s="7" t="s">
         <v>1202</v>
       </c>
@@ -13283,7 +13321,7 @@
       </c>
       <c r="D484" s="11"/>
     </row>
-    <row r="485" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:4" ht="20" customHeight="1">
       <c r="A485" s="7" t="s">
         <v>1204</v>
       </c>
@@ -13295,7 +13333,7 @@
       </c>
       <c r="D485" s="11"/>
     </row>
-    <row r="486" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:4" ht="20" customHeight="1">
       <c r="A486" s="7" t="s">
         <v>1207</v>
       </c>
@@ -13307,7 +13345,7 @@
       </c>
       <c r="D486" s="11"/>
     </row>
-    <row r="487" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:4" ht="20" customHeight="1">
       <c r="A487" s="7" t="s">
         <v>1210</v>
       </c>
@@ -13319,7 +13357,7 @@
       </c>
       <c r="D487" s="11"/>
     </row>
-    <row r="488" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:4" ht="20" customHeight="1">
       <c r="A488" s="7" t="s">
         <v>1213</v>
       </c>
@@ -13331,7 +13369,7 @@
       </c>
       <c r="D488" s="11"/>
     </row>
-    <row r="489" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:4" ht="20" customHeight="1">
       <c r="A489" s="7" t="s">
         <v>1216</v>
       </c>
@@ -13343,7 +13381,7 @@
       </c>
       <c r="D489" s="11"/>
     </row>
-    <row r="490" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:4" ht="20" customHeight="1">
       <c r="A490" s="7" t="s">
         <v>1218</v>
       </c>
@@ -13355,7 +13393,7 @@
       </c>
       <c r="D490" s="11"/>
     </row>
-    <row r="491" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:4" ht="20" customHeight="1">
       <c r="A491" s="7" t="s">
         <v>1221</v>
       </c>
@@ -13367,7 +13405,7 @@
       </c>
       <c r="D491" s="11"/>
     </row>
-    <row r="492" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:4" ht="20" customHeight="1">
       <c r="A492" s="7" t="s">
         <v>1224</v>
       </c>
@@ -13379,7 +13417,7 @@
       </c>
       <c r="D492" s="11"/>
     </row>
-    <row r="493" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:4" ht="20" customHeight="1">
       <c r="A493" s="7" t="s">
         <v>1227</v>
       </c>
@@ -13391,7 +13429,7 @@
       </c>
       <c r="D493" s="11"/>
     </row>
-    <row r="494" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:4" ht="20" customHeight="1">
       <c r="A494" s="7" t="s">
         <v>1230</v>
       </c>
@@ -13399,13 +13437,13 @@
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
     </row>
-    <row r="495" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:4" ht="20" customHeight="1">
       <c r="A495" s="12"/>
       <c r="B495" s="10"/>
       <c r="C495" s="11"/>
       <c r="D495" s="11"/>
     </row>
-    <row r="496" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:4" ht="20" customHeight="1">
       <c r="A496" s="7" t="s">
         <v>1231</v>
       </c>
@@ -13419,7 +13457,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:4" ht="20" customHeight="1">
       <c r="A497" s="7" t="s">
         <v>1235</v>
       </c>
@@ -13433,7 +13471,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:4" ht="20" customHeight="1">
       <c r="A498" s="7" t="s">
         <v>1237</v>
       </c>
@@ -13447,7 +13485,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:4" ht="20" customHeight="1">
       <c r="A499" s="7" t="s">
         <v>1240</v>
       </c>
@@ -13461,7 +13499,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:4" ht="20" customHeight="1">
       <c r="A500" s="7" t="s">
         <v>1243</v>
       </c>
@@ -13475,7 +13513,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:4" ht="20" customHeight="1">
       <c r="A501" s="7" t="s">
         <v>1246</v>
       </c>
@@ -13489,7 +13527,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:4" ht="20" customHeight="1">
       <c r="A502" s="7" t="s">
         <v>1249</v>
       </c>
@@ -13499,7 +13537,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:4" ht="20" customHeight="1">
       <c r="A503" s="7" t="s">
         <v>1250</v>
       </c>
@@ -13513,7 +13551,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:4" ht="20" customHeight="1">
       <c r="A504" s="7" t="s">
         <v>1253</v>
       </c>
@@ -13527,7 +13565,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:4" ht="20" customHeight="1">
       <c r="A505" s="7" t="s">
         <v>1256</v>
       </c>
@@ -13541,7 +13579,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:4" ht="20" customHeight="1">
       <c r="A506" s="7" t="s">
         <v>1259</v>
       </c>
@@ -13555,7 +13593,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:4" ht="20" customHeight="1">
       <c r="A507" s="7" t="s">
         <v>1262</v>
       </c>
@@ -13563,7 +13601,7 @@
       <c r="C507" s="11"/>
       <c r="D507" s="11"/>
     </row>
-    <row r="508" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:4" ht="20" customHeight="1">
       <c r="A508" s="7" t="s">
         <v>1263</v>
       </c>
@@ -13577,7 +13615,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:4" ht="20" customHeight="1">
       <c r="A509" s="7" t="s">
         <v>1267</v>
       </c>
@@ -13591,7 +13629,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:4" ht="20" customHeight="1">
       <c r="A510" s="7" t="s">
         <v>1270</v>
       </c>
@@ -13605,7 +13643,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:4" ht="20" customHeight="1">
       <c r="A511" s="7" t="s">
         <v>1273</v>
       </c>
@@ -13615,7 +13653,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:4" ht="20" customHeight="1">
       <c r="A512" s="7" t="s">
         <v>1274</v>
       </c>
@@ -13625,7 +13663,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:4" ht="20" customHeight="1">
       <c r="A513" s="7" t="s">
         <v>1275</v>
       </c>
@@ -13635,7 +13673,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:4" ht="20" customHeight="1">
       <c r="A514" s="7" t="s">
         <v>1276</v>
       </c>
@@ -13645,7 +13683,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:4" ht="20" customHeight="1">
       <c r="A515" s="7" t="s">
         <v>1277</v>
       </c>
@@ -13659,7 +13697,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:4" ht="20" customHeight="1">
       <c r="A516" s="7" t="s">
         <v>1280</v>
       </c>
@@ -13673,7 +13711,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:4" ht="20" customHeight="1">
       <c r="A517" s="7" t="s">
         <v>1283</v>
       </c>
@@ -13687,7 +13725,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:4" ht="20" customHeight="1">
       <c r="A518" s="7" t="s">
         <v>1286</v>
       </c>
@@ -13701,7 +13739,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:4" ht="20" customHeight="1">
       <c r="A519" s="7" t="s">
         <v>1289</v>
       </c>
@@ -13711,7 +13749,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:4" ht="20" customHeight="1">
       <c r="A520" s="7" t="s">
         <v>1290</v>
       </c>
@@ -13721,7 +13759,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:4" ht="20" customHeight="1">
       <c r="A521" s="7" t="s">
         <v>1291</v>
       </c>
@@ -13735,7 +13773,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:4" ht="20" customHeight="1">
       <c r="A522" s="7" t="s">
         <v>1294</v>
       </c>
@@ -13749,7 +13787,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:4" ht="20" customHeight="1">
       <c r="A523" s="7" t="s">
         <v>1297</v>
       </c>
@@ -13763,7 +13801,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:4" ht="20" customHeight="1">
       <c r="A524" s="7" t="s">
         <v>1300</v>
       </c>
@@ -13777,7 +13815,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:4" ht="20" customHeight="1">
       <c r="A525" s="7" t="s">
         <v>1303</v>
       </c>
@@ -13791,7 +13829,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:4" ht="20" customHeight="1">
       <c r="A526" s="7" t="s">
         <v>1306</v>
       </c>
@@ -13799,7 +13837,7 @@
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
     </row>
-    <row r="527" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:4" ht="20" customHeight="1">
       <c r="A527" s="7" t="s">
         <v>1307</v>
       </c>
@@ -13807,7 +13845,7 @@
       <c r="C527" s="11"/>
       <c r="D527" s="11"/>
     </row>
-    <row r="528" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:4" ht="20" customHeight="1">
       <c r="A528" s="7" t="s">
         <v>1308</v>
       </c>
@@ -13819,7 +13857,7 @@
       </c>
       <c r="D528" s="11"/>
     </row>
-    <row r="529" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:4" ht="20" customHeight="1">
       <c r="A529" s="7" t="s">
         <v>1311</v>
       </c>
@@ -13827,7 +13865,7 @@
       <c r="C529" s="11"/>
       <c r="D529" s="11"/>
     </row>
-    <row r="530" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:4" ht="20" customHeight="1">
       <c r="A530" s="7" t="s">
         <v>1312</v>
       </c>
@@ -13841,7 +13879,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:4" ht="20" customHeight="1">
       <c r="A531" s="7" t="s">
         <v>1316</v>
       </c>
@@ -13851,7 +13889,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:4" ht="20" customHeight="1">
       <c r="A532" s="7" t="s">
         <v>1317</v>
       </c>
@@ -13865,7 +13903,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:4" ht="20" customHeight="1">
       <c r="A533" s="7" t="s">
         <v>1318</v>
       </c>
@@ -13879,7 +13917,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:4" ht="20" customHeight="1">
       <c r="A534" s="7" t="s">
         <v>1319</v>
       </c>
@@ -13893,7 +13931,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:4" ht="20" customHeight="1">
       <c r="A535" s="7" t="s">
         <v>1322</v>
       </c>
@@ -13907,7 +13945,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:4" ht="20" customHeight="1">
       <c r="A536" s="7" t="s">
         <v>1325</v>
       </c>
@@ -13921,7 +13959,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:4" ht="20" customHeight="1">
       <c r="A537" s="7" t="s">
         <v>1328</v>
       </c>
@@ -13935,7 +13973,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:4" ht="20" customHeight="1">
       <c r="A538" s="7" t="s">
         <v>1331</v>
       </c>
@@ -13949,7 +13987,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:4" ht="20" customHeight="1">
       <c r="A539" s="7" t="s">
         <v>1334</v>
       </c>
@@ -13963,7 +14001,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:4" ht="20" customHeight="1">
       <c r="A540" s="7" t="s">
         <v>1337</v>
       </c>
@@ -13977,7 +14015,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:4" ht="20" customHeight="1">
       <c r="A541" s="7" t="s">
         <v>1340</v>
       </c>
@@ -13991,7 +14029,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:4" ht="20" customHeight="1">
       <c r="A542" s="7" t="s">
         <v>1343</v>
       </c>
@@ -13999,7 +14037,7 @@
       <c r="C542" s="11"/>
       <c r="D542" s="11"/>
     </row>
-    <row r="543" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:4" ht="20" customHeight="1">
       <c r="A543" s="7" t="s">
         <v>1344</v>
       </c>
@@ -14007,7 +14045,7 @@
       <c r="C543" s="11"/>
       <c r="D543" s="11"/>
     </row>
-    <row r="544" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:4" ht="20" customHeight="1">
       <c r="A544" s="7" t="s">
         <v>1345</v>
       </c>
@@ -14015,7 +14053,7 @@
       <c r="C544" s="11"/>
       <c r="D544" s="11"/>
     </row>
-    <row r="545" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:4" ht="20" customHeight="1">
       <c r="A545" s="7" t="s">
         <v>1346</v>
       </c>
@@ -14023,7 +14061,7 @@
       <c r="C545" s="11"/>
       <c r="D545" s="11"/>
     </row>
-    <row r="546" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:4" ht="20" customHeight="1">
       <c r="A546" s="7" t="s">
         <v>1347</v>
       </c>
@@ -14035,7 +14073,7 @@
       </c>
       <c r="D546" s="11"/>
     </row>
-    <row r="547" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:4" ht="20" customHeight="1">
       <c r="A547" s="7" t="s">
         <v>1350</v>
       </c>
@@ -14043,7 +14081,7 @@
       <c r="C547" s="11"/>
       <c r="D547" s="11"/>
     </row>
-    <row r="548" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:4" ht="20" customHeight="1">
       <c r="A548" s="7" t="s">
         <v>1351</v>
       </c>
@@ -14055,7 +14093,7 @@
       </c>
       <c r="D548" s="11"/>
     </row>
-    <row r="549" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:4" ht="20" customHeight="1">
       <c r="A549" s="7" t="s">
         <v>1354</v>
       </c>
@@ -14063,7 +14101,7 @@
       <c r="C549" s="11"/>
       <c r="D549" s="11"/>
     </row>
-    <row r="550" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:4" ht="20" customHeight="1">
       <c r="A550" s="7" t="s">
         <v>1355</v>
       </c>
@@ -14071,7 +14109,7 @@
       <c r="C550" s="11"/>
       <c r="D550" s="11"/>
     </row>
-    <row r="551" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:4" ht="20" customHeight="1">
       <c r="A551" s="7" t="s">
         <v>1356</v>
       </c>
@@ -14079,7 +14117,7 @@
       <c r="C551" s="11"/>
       <c r="D551" s="11"/>
     </row>
-    <row r="552" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:4" ht="20" customHeight="1">
       <c r="A552" s="7" t="s">
         <v>1357</v>
       </c>
@@ -14093,7 +14131,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:4" ht="20" customHeight="1">
       <c r="A553" s="7" t="s">
         <v>1360</v>
       </c>
@@ -14107,7 +14145,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:4" ht="20" customHeight="1">
       <c r="A554" s="7" t="s">
         <v>1363</v>
       </c>
@@ -14121,7 +14159,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:4" ht="22.25" customHeight="1">
       <c r="A555" s="7" t="s">
         <v>1366</v>
       </c>
@@ -14135,7 +14173,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:4" ht="20" customHeight="1">
       <c r="A556" s="7" t="s">
         <v>1369</v>
       </c>
@@ -14149,7 +14187,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:4" ht="20" customHeight="1">
       <c r="A557" s="7" t="s">
         <v>1371</v>
       </c>
@@ -14157,7 +14195,7 @@
       <c r="C557" s="11"/>
       <c r="D557" s="11"/>
     </row>
-    <row r="558" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:4" ht="20" customHeight="1">
       <c r="A558" s="7" t="s">
         <v>1372</v>
       </c>
@@ -14165,7 +14203,7 @@
       <c r="C558" s="11"/>
       <c r="D558" s="11"/>
     </row>
-    <row r="559" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:4" ht="20" customHeight="1">
       <c r="A559" s="7" t="s">
         <v>1373</v>
       </c>
@@ -14173,7 +14211,7 @@
       <c r="C559" s="11"/>
       <c r="D559" s="11"/>
     </row>
-    <row r="560" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:4" ht="20" customHeight="1">
       <c r="A560" s="7" t="s">
         <v>1374</v>
       </c>
@@ -14181,7 +14219,7 @@
       <c r="C560" s="11"/>
       <c r="D560" s="11"/>
     </row>
-    <row r="561" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:4" ht="20" customHeight="1">
       <c r="A561" s="7" t="s">
         <v>1375</v>
       </c>
@@ -14189,7 +14227,7 @@
       <c r="C561" s="11"/>
       <c r="D561" s="11"/>
     </row>
-    <row r="562" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:4" ht="20" customHeight="1">
       <c r="A562" s="7" t="s">
         <v>1376</v>
       </c>
@@ -14203,7 +14241,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:4" ht="20" customHeight="1">
       <c r="A563" s="7" t="s">
         <v>1379</v>
       </c>
@@ -14217,7 +14255,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:4" ht="20" customHeight="1">
       <c r="A564" s="7" t="s">
         <v>1382</v>
       </c>
@@ -14231,7 +14269,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:4" ht="20" customHeight="1">
       <c r="A565" s="7" t="s">
         <v>1385</v>
       </c>
@@ -14245,7 +14283,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:4" ht="20" customHeight="1">
       <c r="A566" s="7" t="s">
         <v>1388</v>
       </c>
@@ -14259,7 +14297,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:4" ht="20" customHeight="1">
       <c r="A567" s="7" t="s">
         <v>1391</v>
       </c>
@@ -14273,7 +14311,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:4" ht="20" customHeight="1">
       <c r="A568" s="7" t="s">
         <v>1394</v>
       </c>
@@ -14287,7 +14325,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:4" ht="20" customHeight="1">
       <c r="A569" s="7" t="s">
         <v>1397</v>
       </c>
@@ -14301,7 +14339,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:4" ht="20" customHeight="1">
       <c r="A570" s="7" t="s">
         <v>1400</v>
       </c>
@@ -14315,7 +14353,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:4" ht="20" customHeight="1">
       <c r="A571" s="7" t="s">
         <v>1403</v>
       </c>
@@ -14329,7 +14367,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:4" ht="20" customHeight="1">
       <c r="A572" s="7" t="s">
         <v>1406</v>
       </c>
@@ -14343,7 +14381,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:4" ht="20" customHeight="1">
       <c r="A573" s="7" t="s">
         <v>1409</v>
       </c>
@@ -14357,7 +14395,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:4" ht="20" customHeight="1">
       <c r="A574" s="7" t="s">
         <v>1412</v>
       </c>
@@ -14371,7 +14409,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:4" ht="20" customHeight="1">
       <c r="A575" s="7" t="s">
         <v>1415</v>
       </c>
@@ -14385,7 +14423,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:4" ht="20" customHeight="1">
       <c r="A576" s="7" t="s">
         <v>1418</v>
       </c>
@@ -14399,7 +14437,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:4" ht="20" customHeight="1">
       <c r="A577" s="7" t="s">
         <v>1421</v>
       </c>
@@ -14413,7 +14451,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:4" ht="20" customHeight="1">
       <c r="A578" s="7" t="s">
         <v>1424</v>
       </c>
@@ -14427,7 +14465,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:4" ht="20" customHeight="1">
       <c r="A579" s="7" t="s">
         <v>1427</v>
       </c>
@@ -14441,7 +14479,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:4" ht="20" customHeight="1">
       <c r="A580" s="7" t="s">
         <v>1430</v>
       </c>
@@ -14455,7 +14493,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:4" ht="20" customHeight="1">
       <c r="A581" s="7" t="s">
         <v>1433</v>
       </c>
@@ -14469,7 +14507,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:4" ht="20" customHeight="1">
       <c r="A582" s="7" t="s">
         <v>1436</v>
       </c>
@@ -14483,7 +14521,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:4" ht="20" customHeight="1">
       <c r="A583" s="7" t="s">
         <v>1439</v>
       </c>
@@ -14497,7 +14535,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:4" ht="20" customHeight="1">
       <c r="A584" s="7" t="s">
         <v>1440</v>
       </c>
@@ -14511,7 +14549,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:4" ht="20" customHeight="1">
       <c r="A585" s="7" t="s">
         <v>1443</v>
       </c>
@@ -14519,7 +14557,7 @@
       <c r="C585" s="11"/>
       <c r="D585" s="11"/>
     </row>
-    <row r="586" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:4" ht="20" customHeight="1">
       <c r="A586" s="7" t="s">
         <v>1444</v>
       </c>
@@ -14527,7 +14565,7 @@
       <c r="C586" s="11"/>
       <c r="D586" s="11"/>
     </row>
-    <row r="587" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:4" ht="20" customHeight="1">
       <c r="A587" s="7" t="s">
         <v>1445</v>
       </c>
@@ -14541,7 +14579,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:4" ht="20" customHeight="1">
       <c r="A588" s="7" t="s">
         <v>1449</v>
       </c>
@@ -14555,13 +14593,13 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:4" ht="20" customHeight="1">
       <c r="A589" s="12"/>
       <c r="B589" s="10"/>
       <c r="C589" s="11"/>
       <c r="D589" s="11"/>
     </row>
-    <row r="590" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:4" ht="20" customHeight="1">
       <c r="A590" s="7" t="s">
         <v>1452</v>
       </c>
@@ -14575,7 +14613,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:4" ht="20" customHeight="1">
       <c r="A591" s="7" t="s">
         <v>1455</v>
       </c>
@@ -14589,7 +14627,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:4" ht="20" customHeight="1">
       <c r="A592" s="7" t="s">
         <v>1458</v>
       </c>
@@ -14603,7 +14641,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:4" ht="20" customHeight="1">
       <c r="A593" s="7" t="s">
         <v>1461</v>
       </c>
@@ -14617,7 +14655,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:4" ht="20" customHeight="1">
       <c r="A594" s="7" t="s">
         <v>1464</v>
       </c>
@@ -14631,7 +14669,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:4" ht="20" customHeight="1">
       <c r="A595" s="7" t="s">
         <v>1467</v>
       </c>
@@ -14645,7 +14683,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:4" ht="20" customHeight="1">
       <c r="A596" s="7" t="s">
         <v>1470</v>
       </c>
@@ -14659,7 +14697,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:4" ht="20" customHeight="1">
       <c r="A597" s="7" t="s">
         <v>1473</v>
       </c>
@@ -14673,7 +14711,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:4" ht="20" customHeight="1">
       <c r="A598" s="7" t="s">
         <v>1476</v>
       </c>
@@ -14687,7 +14725,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:4" ht="20" customHeight="1">
       <c r="A599" s="7" t="s">
         <v>1479</v>
       </c>
@@ -14701,7 +14739,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:4" ht="20" customHeight="1">
       <c r="A600" s="7" t="s">
         <v>1482</v>
       </c>
@@ -14715,7 +14753,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:4" ht="20" customHeight="1">
       <c r="A601" s="7" t="s">
         <v>1485</v>
       </c>
@@ -14725,7 +14763,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:4" ht="20" customHeight="1">
       <c r="A602" s="7" t="s">
         <v>1486</v>
       </c>
@@ -14739,7 +14777,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:4" ht="20" customHeight="1">
       <c r="A603" s="7" t="s">
         <v>1489</v>
       </c>
@@ -14753,7 +14791,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:4" ht="20" customHeight="1">
       <c r="A604" s="7" t="s">
         <v>1492</v>
       </c>
@@ -14767,7 +14805,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:4" ht="20" customHeight="1">
       <c r="A605" s="7" t="s">
         <v>1495</v>
       </c>
@@ -14781,7 +14819,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:4" ht="20" customHeight="1">
       <c r="A606" s="7" t="s">
         <v>1498</v>
       </c>
@@ -14795,7 +14833,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:4" ht="20" customHeight="1">
       <c r="A607" s="7" t="s">
         <v>1501</v>
       </c>
@@ -14809,7 +14847,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:4" ht="20" customHeight="1">
       <c r="A608" s="7" t="s">
         <v>1504</v>
       </c>
@@ -14823,7 +14861,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:4" ht="20" customHeight="1">
       <c r="A609" s="7" t="s">
         <v>1507</v>
       </c>
@@ -14837,7 +14875,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:4" ht="20" customHeight="1">
       <c r="A610" s="7" t="s">
         <v>1510</v>
       </c>
@@ -14851,7 +14889,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:4" ht="20" customHeight="1">
       <c r="A611" s="7" t="s">
         <v>1513</v>
       </c>
@@ -14865,7 +14903,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:4" ht="20" customHeight="1">
       <c r="A612" s="7" t="s">
         <v>1516</v>
       </c>
@@ -14879,7 +14917,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:4" ht="20" customHeight="1">
       <c r="A613" s="7" t="s">
         <v>1519</v>
       </c>
@@ -14893,7 +14931,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:4" ht="20" customHeight="1">
       <c r="A614" s="7" t="s">
         <v>1522</v>
       </c>
@@ -14907,7 +14945,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:4" ht="20" customHeight="1">
       <c r="A615" s="7" t="s">
         <v>1525</v>
       </c>
@@ -14915,7 +14953,7 @@
       <c r="C615" s="11"/>
       <c r="D615" s="11"/>
     </row>
-    <row r="616" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:4" ht="20" customHeight="1">
       <c r="A616" s="7" t="s">
         <v>1526</v>
       </c>
@@ -14923,7 +14961,7 @@
       <c r="C616" s="11"/>
       <c r="D616" s="11"/>
     </row>
-    <row r="617" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:4" ht="20" customHeight="1">
       <c r="A617" s="7" t="s">
         <v>1527</v>
       </c>
@@ -14931,7 +14969,7 @@
       <c r="C617" s="11"/>
       <c r="D617" s="11"/>
     </row>
-    <row r="618" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:4" ht="20" customHeight="1">
       <c r="A618" s="7" t="s">
         <v>1528</v>
       </c>
@@ -14939,7 +14977,7 @@
       <c r="C618" s="11"/>
       <c r="D618" s="11"/>
     </row>
-    <row r="619" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:4" ht="20" customHeight="1">
       <c r="A619" s="7" t="s">
         <v>1529</v>
       </c>
@@ -14947,7 +14985,7 @@
       <c r="C619" s="11"/>
       <c r="D619" s="11"/>
     </row>
-    <row r="620" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:4" ht="20" customHeight="1">
       <c r="A620" s="7" t="s">
         <v>1530</v>
       </c>
@@ -14961,7 +14999,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:4" ht="20" customHeight="1">
       <c r="A621" s="7" t="s">
         <v>1533</v>
       </c>
@@ -14975,7 +15013,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:4" ht="20" customHeight="1">
       <c r="A622" s="7" t="s">
         <v>1536</v>
       </c>
@@ -14989,7 +15027,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:4" ht="20" customHeight="1">
       <c r="A623" s="7" t="s">
         <v>1538</v>
       </c>
@@ -15003,7 +15041,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:4" ht="20" customHeight="1">
       <c r="A624" s="7" t="s">
         <v>1541</v>
       </c>
@@ -15017,7 +15055,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:4" ht="20" customHeight="1">
       <c r="A625" s="7" t="s">
         <v>1544</v>
       </c>
@@ -15031,7 +15069,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:4" ht="20" customHeight="1">
       <c r="A626" s="7" t="s">
         <v>1547</v>
       </c>
@@ -15045,7 +15083,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:4" ht="20" customHeight="1">
       <c r="A627" s="7" t="s">
         <v>1550</v>
       </c>
@@ -15059,7 +15097,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:4" ht="20" customHeight="1">
       <c r="A628" s="7" t="s">
         <v>1553</v>
       </c>
@@ -15073,7 +15111,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:4" ht="20" customHeight="1">
       <c r="A629" s="7" t="s">
         <v>1556</v>
       </c>
@@ -15087,7 +15125,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:4" ht="20" customHeight="1">
       <c r="A630" s="7" t="s">
         <v>1559</v>
       </c>
@@ -15101,7 +15139,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:4" ht="20" customHeight="1">
       <c r="A631" s="7" t="s">
         <v>1562</v>
       </c>
@@ -15115,7 +15153,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:4" ht="20" customHeight="1">
       <c r="A632" s="7" t="s">
         <v>1565</v>
       </c>
@@ -15129,7 +15167,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:4" ht="20" customHeight="1">
       <c r="A633" s="7" t="s">
         <v>1568</v>
       </c>
@@ -15143,7 +15181,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:4" ht="20" customHeight="1">
       <c r="A634" s="7" t="s">
         <v>1571</v>
       </c>
@@ -15157,7 +15195,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:4" ht="20" customHeight="1">
       <c r="A635" s="7" t="s">
         <v>1574</v>
       </c>
@@ -15171,7 +15209,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:4" ht="20" customHeight="1">
       <c r="A636" s="7" t="s">
         <v>1577</v>
       </c>
@@ -15185,7 +15223,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:4" ht="20" customHeight="1">
       <c r="A637" s="7" t="s">
         <v>1580</v>
       </c>
@@ -15199,7 +15237,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:4" ht="20" customHeight="1">
       <c r="A638" s="7" t="s">
         <v>1583</v>
       </c>
@@ -15213,7 +15251,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:4" ht="20" customHeight="1">
       <c r="A639" s="7" t="s">
         <v>1586</v>
       </c>
@@ -15227,7 +15265,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:4" ht="20" customHeight="1">
       <c r="A640" s="7" t="s">
         <v>1589</v>
       </c>
@@ -15241,7 +15279,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:4" ht="20" customHeight="1">
       <c r="A641" s="7" t="s">
         <v>1592</v>
       </c>
@@ -15255,7 +15293,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:4" ht="20" customHeight="1">
       <c r="A642" s="7" t="s">
         <v>1595</v>
       </c>
@@ -15269,7 +15307,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:4" ht="20" customHeight="1">
       <c r="A643" s="7" t="s">
         <v>1598</v>
       </c>
@@ -15283,7 +15321,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:4" ht="20" customHeight="1">
       <c r="A644" s="7" t="s">
         <v>1601</v>
       </c>
@@ -15297,7 +15335,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:4" ht="20" customHeight="1">
       <c r="A645" s="7" t="s">
         <v>1604</v>
       </c>
@@ -15311,7 +15349,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:4" ht="20" customHeight="1">
       <c r="A646" s="7" t="s">
         <v>1607</v>
       </c>
@@ -15325,7 +15363,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:4" ht="20" customHeight="1">
       <c r="A647" s="7" t="s">
         <v>1610</v>
       </c>
@@ -15339,7 +15377,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:4" ht="20" customHeight="1">
       <c r="A648" s="7" t="s">
         <v>1613</v>
       </c>
@@ -15347,7 +15385,7 @@
       <c r="C648" s="11"/>
       <c r="D648" s="11"/>
     </row>
-    <row r="649" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:4" ht="20" customHeight="1">
       <c r="A649" s="7" t="s">
         <v>1614</v>
       </c>
@@ -15355,7 +15393,7 @@
       <c r="C649" s="11"/>
       <c r="D649" s="11"/>
     </row>
-    <row r="650" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:4" ht="20" customHeight="1">
       <c r="A650" s="7" t="s">
         <v>1615</v>
       </c>
@@ -15363,7 +15401,7 @@
       <c r="C650" s="11"/>
       <c r="D650" s="11"/>
     </row>
-    <row r="651" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:4" ht="20" customHeight="1">
       <c r="A651" s="7" t="s">
         <v>1616</v>
       </c>
@@ -15371,7 +15409,7 @@
       <c r="C651" s="11"/>
       <c r="D651" s="11"/>
     </row>
-    <row r="652" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:4" ht="20" customHeight="1">
       <c r="A652" s="7" t="s">
         <v>1617</v>
       </c>
@@ -15379,7 +15417,7 @@
       <c r="C652" s="11"/>
       <c r="D652" s="11"/>
     </row>
-    <row r="653" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:4" ht="20" customHeight="1">
       <c r="A653" s="7" t="s">
         <v>1618</v>
       </c>
@@ -15387,7 +15425,7 @@
       <c r="C653" s="11"/>
       <c r="D653" s="11"/>
     </row>
-    <row r="654" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:4" ht="20" customHeight="1">
       <c r="A654" s="7" t="s">
         <v>1619</v>
       </c>
@@ -15395,7 +15433,7 @@
       <c r="C654" s="11"/>
       <c r="D654" s="11"/>
     </row>
-    <row r="655" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:4" ht="20" customHeight="1">
       <c r="A655" s="7" t="s">
         <v>1620</v>
       </c>
@@ -15403,7 +15441,7 @@
       <c r="C655" s="11"/>
       <c r="D655" s="11"/>
     </row>
-    <row r="656" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:4" ht="20" customHeight="1">
       <c r="A656" s="7" t="s">
         <v>1621</v>
       </c>
@@ -15411,7 +15449,7 @@
       <c r="C656" s="11"/>
       <c r="D656" s="11"/>
     </row>
-    <row r="657" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:4" ht="20" customHeight="1">
       <c r="A657" s="7" t="s">
         <v>1622</v>
       </c>
@@ -15419,7 +15457,7 @@
       <c r="C657" s="11"/>
       <c r="D657" s="11"/>
     </row>
-    <row r="658" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:4" ht="20" customHeight="1">
       <c r="A658" s="7" t="s">
         <v>1623</v>
       </c>
@@ -15427,7 +15465,7 @@
       <c r="C658" s="11"/>
       <c r="D658" s="11"/>
     </row>
-    <row r="659" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:4" ht="20" customHeight="1">
       <c r="A659" s="7" t="s">
         <v>1624</v>
       </c>
@@ -15435,7 +15473,7 @@
       <c r="C659" s="11"/>
       <c r="D659" s="11"/>
     </row>
-    <row r="660" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:4" ht="20" customHeight="1">
       <c r="A660" s="7" t="s">
         <v>1625</v>
       </c>
@@ -15443,7 +15481,7 @@
       <c r="C660" s="11"/>
       <c r="D660" s="11"/>
     </row>
-    <row r="661" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:4" ht="20" customHeight="1">
       <c r="A661" s="7" t="s">
         <v>1626</v>
       </c>
@@ -15451,7 +15489,7 @@
       <c r="C661" s="11"/>
       <c r="D661" s="11"/>
     </row>
-    <row r="662" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:4" ht="20" customHeight="1">
       <c r="A662" s="7" t="s">
         <v>1627</v>
       </c>
@@ -15459,7 +15497,7 @@
       <c r="C662" s="11"/>
       <c r="D662" s="11"/>
     </row>
-    <row r="663" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:4" ht="20" customHeight="1">
       <c r="A663" s="7" t="s">
         <v>1628</v>
       </c>
@@ -15467,7 +15505,7 @@
       <c r="C663" s="11"/>
       <c r="D663" s="11"/>
     </row>
-    <row r="664" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:4" ht="20" customHeight="1">
       <c r="A664" s="7" t="s">
         <v>1629</v>
       </c>
@@ -15475,7 +15513,7 @@
       <c r="C664" s="11"/>
       <c r="D664" s="11"/>
     </row>
-    <row r="665" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:4" ht="20" customHeight="1">
       <c r="A665" s="7" t="s">
         <v>1630</v>
       </c>
@@ -15483,7 +15521,7 @@
       <c r="C665" s="11"/>
       <c r="D665" s="11"/>
     </row>
-    <row r="666" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:4" ht="20" customHeight="1">
       <c r="A666" s="7" t="s">
         <v>1631</v>
       </c>
@@ -15491,7 +15529,7 @@
       <c r="C666" s="11"/>
       <c r="D666" s="11"/>
     </row>
-    <row r="667" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:4" ht="20" customHeight="1">
       <c r="A667" s="7" t="s">
         <v>1632</v>
       </c>
@@ -15499,7 +15537,7 @@
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
     </row>
-    <row r="668" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:4" ht="20" customHeight="1">
       <c r="A668" s="7" t="s">
         <v>1633</v>
       </c>
@@ -15507,7 +15545,7 @@
       <c r="C668" s="11"/>
       <c r="D668" s="11"/>
     </row>
-    <row r="669" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:4" ht="20" customHeight="1">
       <c r="A669" s="7" t="s">
         <v>1634</v>
       </c>
@@ -15515,7 +15553,7 @@
       <c r="C669" s="11"/>
       <c r="D669" s="11"/>
     </row>
-    <row r="670" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:4" ht="20" customHeight="1">
       <c r="A670" s="7" t="s">
         <v>1635</v>
       </c>
@@ -15523,7 +15561,7 @@
       <c r="C670" s="11"/>
       <c r="D670" s="11"/>
     </row>
-    <row r="671" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:4" ht="20" customHeight="1">
       <c r="A671" s="7" t="s">
         <v>1636</v>
       </c>
@@ -15531,7 +15569,7 @@
       <c r="C671" s="11"/>
       <c r="D671" s="11"/>
     </row>
-    <row r="672" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:4" ht="20" customHeight="1">
       <c r="A672" s="7" t="s">
         <v>1637</v>
       </c>
@@ -15539,7 +15577,7 @@
       <c r="C672" s="11"/>
       <c r="D672" s="11"/>
     </row>
-    <row r="673" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:4" ht="20" customHeight="1">
       <c r="A673" s="7" t="s">
         <v>1638</v>
       </c>
@@ -15547,7 +15585,7 @@
       <c r="C673" s="11"/>
       <c r="D673" s="11"/>
     </row>
-    <row r="674" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:4" ht="20" customHeight="1">
       <c r="A674" s="7" t="s">
         <v>1639</v>
       </c>
@@ -15555,7 +15593,7 @@
       <c r="C674" s="11"/>
       <c r="D674" s="11"/>
     </row>
-    <row r="675" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:4" ht="20" customHeight="1">
       <c r="A675" s="7" t="s">
         <v>1640</v>
       </c>
@@ -15563,7 +15601,7 @@
       <c r="C675" s="11"/>
       <c r="D675" s="11"/>
     </row>
-    <row r="676" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:4" ht="20" customHeight="1">
       <c r="A676" s="7" t="s">
         <v>1641</v>
       </c>
@@ -15571,7 +15609,7 @@
       <c r="C676" s="11"/>
       <c r="D676" s="11"/>
     </row>
-    <row r="677" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:4" ht="20" customHeight="1">
       <c r="A677" s="7" t="s">
         <v>1642</v>
       </c>
@@ -15579,7 +15617,7 @@
       <c r="C677" s="11"/>
       <c r="D677" s="11"/>
     </row>
-    <row r="678" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:4" ht="20" customHeight="1">
       <c r="A678" s="7" t="s">
         <v>1643</v>
       </c>
@@ -15587,7 +15625,7 @@
       <c r="C678" s="11"/>
       <c r="D678" s="11"/>
     </row>
-    <row r="679" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:4" ht="20" customHeight="1">
       <c r="A679" s="7" t="s">
         <v>1644</v>
       </c>
@@ -15595,7 +15633,7 @@
       <c r="C679" s="11"/>
       <c r="D679" s="11"/>
     </row>
-    <row r="680" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:4" ht="20" customHeight="1">
       <c r="A680" s="7" t="s">
         <v>1645</v>
       </c>
@@ -15603,7 +15641,7 @@
       <c r="C680" s="11"/>
       <c r="D680" s="11"/>
     </row>
-    <row r="681" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:4" ht="20" customHeight="1">
       <c r="A681" s="7" t="s">
         <v>1646</v>
       </c>
@@ -15611,7 +15649,7 @@
       <c r="C681" s="11"/>
       <c r="D681" s="11"/>
     </row>
-    <row r="682" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:4" ht="20" customHeight="1">
       <c r="A682" s="7" t="s">
         <v>1647</v>
       </c>
@@ -15619,7 +15657,7 @@
       <c r="C682" s="11"/>
       <c r="D682" s="11"/>
     </row>
-    <row r="683" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:4" ht="20" customHeight="1">
       <c r="A683" s="7" t="s">
         <v>1648</v>
       </c>
@@ -15627,7 +15665,7 @@
       <c r="C683" s="11"/>
       <c r="D683" s="11"/>
     </row>
-    <row r="684" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:4" ht="20" customHeight="1">
       <c r="A684" s="7" t="s">
         <v>1649</v>
       </c>
@@ -15639,7 +15677,7 @@
       </c>
       <c r="D684" s="11"/>
     </row>
-    <row r="685" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:4" ht="20" customHeight="1">
       <c r="A685" s="7" t="s">
         <v>1652</v>
       </c>
@@ -15651,7 +15689,7 @@
       </c>
       <c r="D685" s="11"/>
     </row>
-    <row r="686" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:4" ht="20" customHeight="1">
       <c r="A686" s="7" t="s">
         <v>1655</v>
       </c>
@@ -15663,7 +15701,7 @@
       </c>
       <c r="D686" s="11"/>
     </row>
-    <row r="687" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:4" ht="20" customHeight="1">
       <c r="A687" s="7" t="s">
         <v>1658</v>
       </c>
@@ -15675,7 +15713,7 @@
       </c>
       <c r="D687" s="11"/>
     </row>
-    <row r="688" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:4" ht="20" customHeight="1">
       <c r="A688" s="7" t="s">
         <v>1660</v>
       </c>
@@ -15687,7 +15725,7 @@
       </c>
       <c r="D688" s="11"/>
     </row>
-    <row r="689" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:4" ht="20" customHeight="1">
       <c r="A689" s="7" t="s">
         <v>1662</v>
       </c>
@@ -15699,7 +15737,7 @@
       </c>
       <c r="D689" s="11"/>
     </row>
-    <row r="690" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:4" ht="20" customHeight="1">
       <c r="A690" s="7" t="s">
         <v>1665</v>
       </c>
@@ -15711,7 +15749,7 @@
       </c>
       <c r="D690" s="11"/>
     </row>
-    <row r="691" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:4" ht="20" customHeight="1">
       <c r="A691" s="7" t="s">
         <v>1666</v>
       </c>
@@ -15723,7 +15761,7 @@
       </c>
       <c r="D691" s="11"/>
     </row>
-    <row r="692" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:4" ht="20" customHeight="1">
       <c r="A692" s="7" t="s">
         <v>1669</v>
       </c>
@@ -15735,7 +15773,7 @@
       </c>
       <c r="D692" s="11"/>
     </row>
-    <row r="693" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:4" ht="20" customHeight="1">
       <c r="A693" s="7" t="s">
         <v>1672</v>
       </c>
@@ -15747,7 +15785,7 @@
       </c>
       <c r="D693" s="11"/>
     </row>
-    <row r="694" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:4" ht="20" customHeight="1">
       <c r="A694" s="7" t="s">
         <v>1675</v>
       </c>
@@ -15759,7 +15797,7 @@
       </c>
       <c r="D694" s="11"/>
     </row>
-    <row r="695" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:4" ht="20" customHeight="1">
       <c r="A695" s="7" t="s">
         <v>1678</v>
       </c>
@@ -15771,7 +15809,7 @@
       </c>
       <c r="D695" s="11"/>
     </row>
-    <row r="696" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:4" ht="20" customHeight="1">
       <c r="A696" s="7" t="s">
         <v>1681</v>
       </c>
@@ -15783,7 +15821,7 @@
       </c>
       <c r="D696" s="11"/>
     </row>
-    <row r="697" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:4" ht="20" customHeight="1">
       <c r="A697" s="7" t="s">
         <v>1684</v>
       </c>
@@ -15795,7 +15833,7 @@
       </c>
       <c r="D697" s="11"/>
     </row>
-    <row r="698" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:4" ht="20" customHeight="1">
       <c r="A698" s="7" t="s">
         <v>1687</v>
       </c>
@@ -15807,7 +15845,7 @@
       </c>
       <c r="D698" s="11"/>
     </row>
-    <row r="699" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:4" ht="20" customHeight="1">
       <c r="A699" s="7" t="s">
         <v>1689</v>
       </c>
@@ -15819,7 +15857,7 @@
       </c>
       <c r="D699" s="11"/>
     </row>
-    <row r="700" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:4" ht="20" customHeight="1">
       <c r="A700" s="7" t="s">
         <v>1692</v>
       </c>
@@ -15831,7 +15869,7 @@
       </c>
       <c r="D700" s="11"/>
     </row>
-    <row r="701" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:4" ht="20" customHeight="1">
       <c r="A701" s="7" t="s">
         <v>1695</v>
       </c>
@@ -15843,7 +15881,7 @@
       </c>
       <c r="D701" s="11"/>
     </row>
-    <row r="702" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:4" ht="20" customHeight="1">
       <c r="A702" s="7" t="s">
         <v>1698</v>
       </c>
@@ -15855,7 +15893,7 @@
       </c>
       <c r="D702" s="11"/>
     </row>
-    <row r="703" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:4" ht="20" customHeight="1">
       <c r="A703" s="7" t="s">
         <v>1700</v>
       </c>
@@ -15867,7 +15905,7 @@
       </c>
       <c r="D703" s="11"/>
     </row>
-    <row r="704" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:4" ht="20" customHeight="1">
       <c r="A704" s="7" t="s">
         <v>1703</v>
       </c>
@@ -15879,7 +15917,7 @@
       </c>
       <c r="D704" s="11"/>
     </row>
-    <row r="705" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:4" ht="20" customHeight="1">
       <c r="A705" s="7" t="s">
         <v>1706</v>
       </c>
@@ -15891,7 +15929,7 @@
       </c>
       <c r="D705" s="11"/>
     </row>
-    <row r="706" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:4" ht="20" customHeight="1">
       <c r="A706" s="7" t="s">
         <v>1709</v>
       </c>
@@ -15903,7 +15941,7 @@
       </c>
       <c r="D706" s="11"/>
     </row>
-    <row r="707" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:4" ht="20" customHeight="1">
       <c r="A707" s="7" t="s">
         <v>1712</v>
       </c>
@@ -15915,7 +15953,7 @@
       </c>
       <c r="D707" s="11"/>
     </row>
-    <row r="708" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:4" ht="20" customHeight="1">
       <c r="A708" s="7" t="s">
         <v>1715</v>
       </c>
@@ -15927,7 +15965,7 @@
       </c>
       <c r="D708" s="11"/>
     </row>
-    <row r="709" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:4" ht="20" customHeight="1">
       <c r="A709" s="7" t="s">
         <v>1718</v>
       </c>
@@ -15939,7 +15977,7 @@
       </c>
       <c r="D709" s="11"/>
     </row>
-    <row r="710" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:4" ht="20" customHeight="1">
       <c r="A710" s="7" t="s">
         <v>1721</v>
       </c>
@@ -15951,7 +15989,7 @@
       </c>
       <c r="D710" s="11"/>
     </row>
-    <row r="711" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:4" ht="20" customHeight="1">
       <c r="A711" s="7" t="s">
         <v>1724</v>
       </c>
@@ -15963,7 +16001,7 @@
       </c>
       <c r="D711" s="11"/>
     </row>
-    <row r="712" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:4" ht="20" customHeight="1">
       <c r="A712" s="7" t="s">
         <v>1727</v>
       </c>
@@ -15975,7 +16013,7 @@
       </c>
       <c r="D712" s="11"/>
     </row>
-    <row r="713" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:4" ht="20" customHeight="1">
       <c r="A713" s="7" t="s">
         <v>1730</v>
       </c>
@@ -15987,7 +16025,7 @@
       </c>
       <c r="D713" s="11"/>
     </row>
-    <row r="714" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:4" ht="20" customHeight="1">
       <c r="A714" s="7" t="s">
         <v>1733</v>
       </c>
@@ -15999,7 +16037,7 @@
       </c>
       <c r="D714" s="11"/>
     </row>
-    <row r="715" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:4" ht="20" customHeight="1">
       <c r="A715" s="7" t="s">
         <v>1736</v>
       </c>
@@ -16011,7 +16049,7 @@
       </c>
       <c r="D715" s="11"/>
     </row>
-    <row r="716" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:4" ht="20" customHeight="1">
       <c r="A716" s="7" t="s">
         <v>1739</v>
       </c>
@@ -16023,7 +16061,7 @@
       </c>
       <c r="D716" s="11"/>
     </row>
-    <row r="717" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:4" ht="20" customHeight="1">
       <c r="A717" s="7" t="s">
         <v>1742</v>
       </c>
@@ -16035,7 +16073,7 @@
       </c>
       <c r="D717" s="11"/>
     </row>
-    <row r="718" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:4" ht="20" customHeight="1">
       <c r="A718" s="7" t="s">
         <v>1745</v>
       </c>
@@ -16047,7 +16085,7 @@
       </c>
       <c r="D718" s="11"/>
     </row>
-    <row r="719" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:4" ht="20" customHeight="1">
       <c r="A719" s="7" t="s">
         <v>1748</v>
       </c>
@@ -16059,7 +16097,7 @@
       </c>
       <c r="D719" s="11"/>
     </row>
-    <row r="720" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:4" ht="20" customHeight="1">
       <c r="A720" s="7" t="s">
         <v>1751</v>
       </c>
@@ -16071,7 +16109,7 @@
       </c>
       <c r="D720" s="11"/>
     </row>
-    <row r="721" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:4" ht="20" customHeight="1">
       <c r="A721" s="7" t="s">
         <v>1754</v>
       </c>
@@ -16083,7 +16121,7 @@
       </c>
       <c r="D721" s="11"/>
     </row>
-    <row r="722" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:4" ht="20" customHeight="1">
       <c r="A722" s="7" t="s">
         <v>1757</v>
       </c>
@@ -16095,7 +16133,7 @@
       </c>
       <c r="D722" s="11"/>
     </row>
-    <row r="723" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:4" ht="20" customHeight="1">
       <c r="A723" s="7" t="s">
         <v>1760</v>
       </c>
@@ -16107,7 +16145,7 @@
       </c>
       <c r="D723" s="11"/>
     </row>
-    <row r="724" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:4" ht="20" customHeight="1">
       <c r="A724" s="7" t="s">
         <v>1763</v>
       </c>
@@ -16119,7 +16157,7 @@
       </c>
       <c r="D724" s="11"/>
     </row>
-    <row r="725" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:4" ht="20" customHeight="1">
       <c r="A725" s="7" t="s">
         <v>1766</v>
       </c>
@@ -16131,7 +16169,7 @@
       </c>
       <c r="D725" s="11"/>
     </row>
-    <row r="726" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:4" ht="20" customHeight="1">
       <c r="A726" s="7" t="s">
         <v>1769</v>
       </c>
@@ -16143,7 +16181,7 @@
       </c>
       <c r="D726" s="11"/>
     </row>
-    <row r="727" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:4" ht="20" customHeight="1">
       <c r="A727" s="7" t="s">
         <v>1772</v>
       </c>
@@ -16155,7 +16193,7 @@
       </c>
       <c r="D727" s="11"/>
     </row>
-    <row r="728" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:4" ht="20" customHeight="1">
       <c r="A728" s="7" t="s">
         <v>1775</v>
       </c>
@@ -16167,7 +16205,7 @@
       </c>
       <c r="D728" s="11"/>
     </row>
-    <row r="729" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:4" ht="20" customHeight="1">
       <c r="A729" s="7" t="s">
         <v>1778</v>
       </c>
@@ -16179,7 +16217,7 @@
       </c>
       <c r="D729" s="11"/>
     </row>
-    <row r="730" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:4" ht="20" customHeight="1">
       <c r="A730" s="7" t="s">
         <v>1781</v>
       </c>
@@ -16191,7 +16229,7 @@
       </c>
       <c r="D730" s="11"/>
     </row>
-    <row r="731" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:4" ht="20" customHeight="1">
       <c r="A731" s="7" t="s">
         <v>1783</v>
       </c>
@@ -16203,7 +16241,7 @@
       </c>
       <c r="D731" s="11"/>
     </row>
-    <row r="732" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:4" ht="20" customHeight="1">
       <c r="A732" s="7" t="s">
         <v>1786</v>
       </c>
@@ -16215,7 +16253,7 @@
       </c>
       <c r="D732" s="11"/>
     </row>
-    <row r="733" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:4" ht="20" customHeight="1">
       <c r="A733" s="7" t="s">
         <v>1789</v>
       </c>
@@ -16227,7 +16265,7 @@
       </c>
       <c r="D733" s="11"/>
     </row>
-    <row r="734" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:4" ht="20" customHeight="1">
       <c r="A734" s="7" t="s">
         <v>1792</v>
       </c>
@@ -16239,7 +16277,7 @@
       </c>
       <c r="D734" s="11"/>
     </row>
-    <row r="735" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:4" ht="20" customHeight="1">
       <c r="A735" s="7" t="s">
         <v>1794</v>
       </c>
@@ -16251,7 +16289,7 @@
       </c>
       <c r="D735" s="11"/>
     </row>
-    <row r="736" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:4" ht="20" customHeight="1">
       <c r="A736" s="7" t="s">
         <v>1795</v>
       </c>
@@ -16263,7 +16301,7 @@
       </c>
       <c r="D736" s="11"/>
     </row>
-    <row r="737" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:4" ht="20" customHeight="1">
       <c r="A737" s="7" t="s">
         <v>1798</v>
       </c>
@@ -16275,7 +16313,7 @@
       </c>
       <c r="D737" s="11"/>
     </row>
-    <row r="738" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:4" ht="20" customHeight="1">
       <c r="A738" s="7" t="s">
         <v>1801</v>
       </c>
@@ -16287,7 +16325,7 @@
       </c>
       <c r="D738" s="11"/>
     </row>
-    <row r="739" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:4" ht="20" customHeight="1">
       <c r="A739" s="7" t="s">
         <v>1804</v>
       </c>
@@ -16299,7 +16337,7 @@
       </c>
       <c r="D739" s="11"/>
     </row>
-    <row r="740" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:4" ht="20" customHeight="1">
       <c r="A740" s="7" t="s">
         <v>1807</v>
       </c>
@@ -16311,7 +16349,7 @@
       </c>
       <c r="D740" s="11"/>
     </row>
-    <row r="741" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:4" ht="20" customHeight="1">
       <c r="A741" s="7" t="s">
         <v>1810</v>
       </c>
@@ -16323,7 +16361,7 @@
       </c>
       <c r="D741" s="11"/>
     </row>
-    <row r="742" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:4" ht="20" customHeight="1">
       <c r="A742" s="7" t="s">
         <v>1813</v>
       </c>
@@ -16335,7 +16373,7 @@
       </c>
       <c r="D742" s="11"/>
     </row>
-    <row r="743" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:4" ht="20" customHeight="1">
       <c r="A743" s="7" t="s">
         <v>1816</v>
       </c>
@@ -16347,7 +16385,7 @@
       </c>
       <c r="D743" s="11"/>
     </row>
-    <row r="744" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:4" ht="20" customHeight="1">
       <c r="A744" s="7" t="s">
         <v>1819</v>
       </c>
@@ -16359,7 +16397,7 @@
       </c>
       <c r="D744" s="11"/>
     </row>
-    <row r="745" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:4" ht="20" customHeight="1">
       <c r="A745" s="7" t="s">
         <v>1822</v>
       </c>
@@ -16371,7 +16409,7 @@
       </c>
       <c r="D745" s="11"/>
     </row>
-    <row r="746" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:4" ht="20" customHeight="1">
       <c r="A746" s="7" t="s">
         <v>1825</v>
       </c>
@@ -16383,7 +16421,7 @@
       </c>
       <c r="D746" s="11"/>
     </row>
-    <row r="747" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:4" ht="20" customHeight="1">
       <c r="A747" s="7" t="s">
         <v>1828</v>
       </c>
@@ -16395,7 +16433,7 @@
       </c>
       <c r="D747" s="11"/>
     </row>
-    <row r="748" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:4" ht="20" customHeight="1">
       <c r="A748" s="7" t="s">
         <v>1831</v>
       </c>
@@ -16407,7 +16445,7 @@
       </c>
       <c r="D748" s="11"/>
     </row>
-    <row r="749" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:4" ht="20" customHeight="1">
       <c r="A749" s="7" t="s">
         <v>1834</v>
       </c>
@@ -16419,7 +16457,7 @@
       </c>
       <c r="D749" s="11"/>
     </row>
-    <row r="750" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:4" ht="20" customHeight="1">
       <c r="A750" s="7" t="s">
         <v>1837</v>
       </c>
@@ -16427,7 +16465,7 @@
       <c r="C750" s="11"/>
       <c r="D750" s="11"/>
     </row>
-    <row r="751" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:4" ht="20" customHeight="1">
       <c r="A751" s="7" t="s">
         <v>1838</v>
       </c>
@@ -16439,7 +16477,7 @@
       </c>
       <c r="D751" s="11"/>
     </row>
-    <row r="752" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:4" ht="20" customHeight="1">
       <c r="A752" s="7" t="s">
         <v>1841</v>
       </c>
@@ -16451,7 +16489,7 @@
       </c>
       <c r="D752" s="11"/>
     </row>
-    <row r="753" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:4" ht="20" customHeight="1">
       <c r="A753" s="7" t="s">
         <v>1844</v>
       </c>
@@ -16463,7 +16501,7 @@
       </c>
       <c r="D753" s="11"/>
     </row>
-    <row r="754" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:4" ht="20" customHeight="1">
       <c r="A754" s="7" t="s">
         <v>1847</v>
       </c>
@@ -16475,7 +16513,7 @@
       </c>
       <c r="D754" s="11"/>
     </row>
-    <row r="755" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:4" ht="20" customHeight="1">
       <c r="A755" s="7" t="s">
         <v>1850</v>
       </c>
@@ -16487,7 +16525,7 @@
       </c>
       <c r="D755" s="11"/>
     </row>
-    <row r="756" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:4" ht="20" customHeight="1">
       <c r="A756" s="7" t="s">
         <v>1853</v>
       </c>
@@ -16499,7 +16537,7 @@
       </c>
       <c r="D756" s="11"/>
     </row>
-    <row r="757" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:4" ht="20" customHeight="1">
       <c r="A757" s="7" t="s">
         <v>1856</v>
       </c>
@@ -16511,7 +16549,7 @@
       </c>
       <c r="D757" s="11"/>
     </row>
-    <row r="758" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:4" ht="20" customHeight="1">
       <c r="A758" s="7" t="s">
         <v>1859</v>
       </c>
@@ -16523,7 +16561,7 @@
       </c>
       <c r="D758" s="11"/>
     </row>
-    <row r="759" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:4" ht="20" customHeight="1">
       <c r="A759" s="7" t="s">
         <v>1862</v>
       </c>
@@ -16535,7 +16573,7 @@
       </c>
       <c r="D759" s="11"/>
     </row>
-    <row r="760" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:4" ht="20" customHeight="1">
       <c r="A760" s="7" t="s">
         <v>1865</v>
       </c>
@@ -16547,7 +16585,7 @@
       </c>
       <c r="D760" s="11"/>
     </row>
-    <row r="761" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:4" ht="20" customHeight="1">
       <c r="A761" s="7" t="s">
         <v>1868</v>
       </c>
@@ -16559,7 +16597,7 @@
       </c>
       <c r="D761" s="11"/>
     </row>
-    <row r="762" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:4" ht="20" customHeight="1">
       <c r="A762" s="7" t="s">
         <v>1871</v>
       </c>
@@ -16571,355 +16609,355 @@
       </c>
       <c r="D762" s="11"/>
     </row>
-    <row r="786" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A786" s="16" t="s">
+    <row r="786" spans="1:4" ht="20" customHeight="1">
+      <c r="A786" s="18" t="s">
         <v>1886</v>
       </c>
-      <c r="B786" s="16" t="s">
+      <c r="B786" s="18" t="s">
         <v>1887</v>
       </c>
-      <c r="C786" s="16" t="s">
+      <c r="C786" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D786" s="16" t="s">
+      <c r="D786" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="787" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A787" s="16" t="s">
+    <row r="787" spans="1:4" ht="20" customHeight="1">
+      <c r="A787" s="18" t="s">
         <v>1889</v>
       </c>
-      <c r="B787" s="16" t="s">
+      <c r="B787" s="18" t="s">
         <v>1908</v>
       </c>
-      <c r="C787" s="16" t="s">
+      <c r="C787" s="18" t="s">
         <v>1927</v>
       </c>
-      <c r="D787" s="16" t="s">
+      <c r="D787" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="788" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A788" s="16" t="s">
+    <row r="788" spans="1:4" ht="20" customHeight="1">
+      <c r="A788" s="18" t="s">
         <v>1890</v>
       </c>
-      <c r="B788" s="16" t="s">
+      <c r="B788" s="18" t="s">
         <v>1909</v>
       </c>
-      <c r="C788" s="16" t="s">
+      <c r="C788" s="18" t="s">
         <v>1928</v>
       </c>
-      <c r="D788" s="16" t="s">
+      <c r="D788" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A789" s="16" t="s">
+    <row r="789" spans="1:4" ht="20" customHeight="1">
+      <c r="A789" s="18" t="s">
         <v>1891</v>
       </c>
-      <c r="B789" s="16" t="s">
+      <c r="B789" s="18" t="s">
         <v>1910</v>
       </c>
-      <c r="C789" s="16" t="s">
+      <c r="C789" s="18" t="s">
         <v>1929</v>
       </c>
-      <c r="D789" s="16" t="s">
+      <c r="D789" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A790" s="16" t="s">
+    <row r="790" spans="1:4" ht="20" customHeight="1">
+      <c r="A790" s="18" t="s">
         <v>1892</v>
       </c>
-      <c r="B790" s="16" t="s">
+      <c r="B790" s="18" t="s">
         <v>1911</v>
       </c>
-      <c r="C790" s="16" t="s">
+      <c r="C790" s="18" t="s">
         <v>1930</v>
       </c>
-      <c r="D790" s="16" t="s">
+      <c r="D790" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A791" s="16" t="s">
+    <row r="791" spans="1:4" ht="20" customHeight="1">
+      <c r="A791" s="18" t="s">
         <v>1893</v>
       </c>
-      <c r="B791" s="16" t="s">
+      <c r="B791" s="18" t="s">
         <v>1912</v>
       </c>
-      <c r="C791" s="16" t="s">
+      <c r="C791" s="18" t="s">
         <v>1931</v>
       </c>
-      <c r="D791" s="16" t="s">
+      <c r="D791" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A792" s="16" t="s">
+    <row r="792" spans="1:4" ht="20" customHeight="1">
+      <c r="A792" s="18" t="s">
         <v>1894</v>
       </c>
-      <c r="B792" s="16" t="s">
+      <c r="B792" s="18" t="s">
         <v>1913</v>
       </c>
-      <c r="C792" s="16" t="s">
+      <c r="C792" s="18" t="s">
         <v>1932</v>
       </c>
-      <c r="D792" s="16" t="s">
+      <c r="D792" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A793" s="16" t="s">
+    <row r="793" spans="1:4" ht="20" customHeight="1">
+      <c r="A793" s="18" t="s">
         <v>1895</v>
       </c>
-      <c r="B793" s="17" t="s">
+      <c r="B793" s="19" t="s">
         <v>1940</v>
       </c>
-      <c r="C793" s="17" t="s">
+      <c r="C793" s="19" t="s">
         <v>1940</v>
       </c>
-      <c r="D793" s="16" t="s">
+      <c r="D793" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A794" s="16" t="s">
+    <row r="794" spans="1:4" ht="20" customHeight="1">
+      <c r="A794" s="18" t="s">
         <v>1896</v>
       </c>
-      <c r="B794" s="16" t="s">
+      <c r="B794" s="18" t="s">
         <v>1914</v>
       </c>
-      <c r="C794" s="16" t="s">
+      <c r="C794" s="18" t="s">
         <v>1933</v>
       </c>
-      <c r="D794" s="16" t="s">
+      <c r="D794" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A795" s="16" t="s">
+    <row r="795" spans="1:4" ht="20" customHeight="1">
+      <c r="A795" s="18" t="s">
         <v>1897</v>
       </c>
-      <c r="B795" s="16" t="s">
+      <c r="B795" s="18" t="s">
         <v>1915</v>
       </c>
-      <c r="C795" s="16" t="s">
+      <c r="C795" s="18" t="s">
         <v>1934</v>
       </c>
-      <c r="D795" s="16" t="s">
+      <c r="D795" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A796" s="16" t="s">
+    <row r="796" spans="1:4" ht="20" customHeight="1">
+      <c r="A796" s="18" t="s">
         <v>1898</v>
       </c>
-      <c r="B796" s="16" t="s">
+      <c r="B796" s="18" t="s">
         <v>1916</v>
       </c>
-      <c r="C796" s="16" t="s">
+      <c r="C796" s="18" t="s">
         <v>1935</v>
       </c>
-      <c r="D796" s="16" t="s">
+      <c r="D796" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A797" s="16" t="s">
+    <row r="797" spans="1:4" ht="20" customHeight="1">
+      <c r="A797" s="18" t="s">
         <v>1899</v>
       </c>
-      <c r="B797" s="16" t="s">
+      <c r="B797" s="18" t="s">
         <v>1917</v>
       </c>
-      <c r="C797" s="16" t="s">
+      <c r="C797" s="18" t="s">
         <v>1226</v>
       </c>
-      <c r="D797" s="16" t="s">
+      <c r="D797" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A798" s="16" t="s">
+    <row r="798" spans="1:4" ht="20" customHeight="1">
+      <c r="A798" s="18" t="s">
         <v>1900</v>
       </c>
-      <c r="B798" s="16" t="s">
+      <c r="B798" s="18" t="s">
         <v>1918</v>
       </c>
-      <c r="C798" s="16" t="s">
+      <c r="C798" s="18" t="s">
         <v>1933</v>
       </c>
-      <c r="D798" s="16" t="s">
+      <c r="D798" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A799" s="16" t="s">
+    <row r="799" spans="1:4" ht="20" customHeight="1">
+      <c r="A799" s="18" t="s">
         <v>1901</v>
       </c>
-      <c r="B799" s="16" t="s">
+      <c r="B799" s="18" t="s">
         <v>1919</v>
       </c>
-      <c r="C799" s="16" t="s">
+      <c r="C799" s="18" t="s">
         <v>1934</v>
       </c>
-      <c r="D799" s="16" t="s">
+      <c r="D799" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A800" s="16" t="s">
+    <row r="800" spans="1:4" ht="20" customHeight="1">
+      <c r="A800" s="18" t="s">
         <v>1902</v>
       </c>
-      <c r="B800" s="16" t="s">
+      <c r="B800" s="18" t="s">
         <v>1920</v>
       </c>
-      <c r="C800" s="16" t="s">
+      <c r="C800" s="18" t="s">
         <v>1935</v>
       </c>
-      <c r="D800" s="16" t="s">
+      <c r="D800" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A801" s="16" t="s">
+    <row r="801" spans="1:4" ht="20" customHeight="1">
+      <c r="A801" s="18" t="s">
         <v>1903</v>
       </c>
-      <c r="B801" s="17" t="s">
+      <c r="B801" s="19" t="s">
         <v>1940</v>
       </c>
-      <c r="C801" s="17" t="s">
+      <c r="C801" s="19" t="s">
         <v>1940</v>
       </c>
-      <c r="D801" s="16" t="s">
+      <c r="D801" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A802" s="16" t="s">
+    <row r="802" spans="1:4" ht="20" customHeight="1">
+      <c r="A802" s="18" t="s">
         <v>1904</v>
       </c>
-      <c r="B802" s="16" t="s">
+      <c r="B802" s="18" t="s">
         <v>1921</v>
       </c>
-      <c r="C802" s="16" t="s">
+      <c r="C802" s="18" t="s">
         <v>1936</v>
       </c>
-      <c r="D802" s="16" t="s">
+      <c r="D802" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A803" s="16" t="s">
+    <row r="803" spans="1:4" ht="20" customHeight="1">
+      <c r="A803" s="18" t="s">
         <v>1905</v>
       </c>
-      <c r="B803" s="16" t="s">
+      <c r="B803" s="18" t="s">
         <v>1922</v>
       </c>
-      <c r="C803" s="16" t="s">
+      <c r="C803" s="18" t="s">
         <v>1928</v>
       </c>
-      <c r="D803" s="16" t="s">
+      <c r="D803" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A804" s="16" t="s">
+    <row r="804" spans="1:4" ht="20" customHeight="1">
+      <c r="A804" s="18" t="s">
         <v>1906</v>
       </c>
-      <c r="B804" s="16" t="s">
+      <c r="B804" s="18" t="s">
         <v>1923</v>
       </c>
-      <c r="C804" s="16" t="s">
+      <c r="C804" s="18" t="s">
         <v>1937</v>
       </c>
-      <c r="D804" s="16" t="s">
+      <c r="D804" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A805" s="16" t="s">
+    <row r="805" spans="1:4" ht="20" customHeight="1">
+      <c r="A805" s="18" t="s">
         <v>1907</v>
       </c>
-      <c r="B805" s="16" t="s">
+      <c r="B805" s="18" t="s">
         <v>1924</v>
       </c>
-      <c r="C805" s="16" t="s">
+      <c r="C805" s="18" t="s">
         <v>1938</v>
       </c>
-      <c r="D805" s="16" t="s">
+      <c r="D805" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A806" s="16" t="s">
+    <row r="806" spans="1:4" ht="20" customHeight="1">
+      <c r="A806" s="18" t="s">
         <v>1941</v>
       </c>
-      <c r="B806" s="16" t="s">
+      <c r="B806" s="18" t="s">
         <v>1925</v>
       </c>
-      <c r="C806" s="16" t="s">
+      <c r="C806" s="18" t="s">
         <v>1939</v>
       </c>
-      <c r="D806" s="16" t="s">
+      <c r="D806" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A807" s="16" t="s">
+    <row r="807" spans="1:4" ht="20" customHeight="1">
+      <c r="A807" s="18" t="s">
         <v>1942</v>
       </c>
-      <c r="B807" s="16" t="s">
+      <c r="B807" s="18" t="s">
         <v>1926</v>
       </c>
-      <c r="C807" s="16" t="s">
+      <c r="C807" s="18" t="s">
         <v>1226</v>
       </c>
-      <c r="D807" s="16" t="s">
+      <c r="D807" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:4" ht="20" customHeight="1">
       <c r="A808" s="16" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:4" ht="20" customHeight="1">
       <c r="A809" s="16" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:4" ht="20" customHeight="1">
       <c r="A810" s="16" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:4" ht="20" customHeight="1">
       <c r="A811" s="16" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:4" ht="20" customHeight="1">
       <c r="A812" s="16" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:4" ht="20" customHeight="1">
       <c r="A813" s="16" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:4" ht="20" customHeight="1">
       <c r="A814" s="16" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:4" ht="20" customHeight="1">
       <c r="A815" s="16" t="s">
         <v>1950</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:4" ht="20" customHeight="1">
       <c r="A817" s="16" t="s">
         <v>1957</v>
       </c>
@@ -16933,7 +16971,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:4" ht="20" customHeight="1">
       <c r="A818" s="16" t="s">
         <v>1958</v>
       </c>
@@ -16947,7 +16985,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:4" ht="20" customHeight="1">
       <c r="A819" s="16" t="s">
         <v>1959</v>
       </c>
@@ -16961,7 +16999,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="820" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:4" ht="20" customHeight="1">
       <c r="A820" s="16" t="s">
         <v>1960</v>
       </c>
@@ -16975,7 +17013,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="821" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:4" ht="20" customHeight="1">
       <c r="A821" s="16" t="s">
         <v>1961</v>
       </c>
@@ -16989,7 +17027,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:4" ht="20" customHeight="1">
       <c r="A822" s="16" t="s">
         <v>1962</v>
       </c>
@@ -17003,7 +17041,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:4" ht="20" customHeight="1">
       <c r="A823" s="16" t="s">
         <v>1963</v>
       </c>
@@ -17011,7 +17049,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:4" ht="20" customHeight="1">
       <c r="A824" s="16" t="s">
         <v>1964</v>
       </c>
@@ -17019,7 +17057,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:4" ht="20" customHeight="1">
       <c r="A825" s="16" t="s">
         <v>1965</v>
       </c>

--- a/code/lang/langdict.xlsx
+++ b/code/lang/langdict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingsongli/Dropbox/git/acycle/code/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA80802-D6F9-4C4A-B90F-AC42A55DFCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8DE9DD-C266-9348-9859-B19541530FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28280" yWindow="-33840" windowWidth="28200" windowHeight="33840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41800" yWindow="-23200" windowWidth="28200" windowHeight="33840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -7433,10 +7433,10 @@
   <dimension ref="A1:D825"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B683" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C236" sqref="C236"/>
+      <selection pane="bottomRight" activeCell="B693" sqref="B693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -15777,7 +15777,7 @@
       <c r="A693" s="7" t="s">
         <v>1672</v>
       </c>
-      <c r="B693" s="8" t="s">
+      <c r="B693" s="17" t="s">
         <v>1673</v>
       </c>
       <c r="C693" s="9" t="s">

--- a/code/lang/langdict.xlsx
+++ b/code/lang/langdict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingsongli/Dropbox/git/acycle/code/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8DE9DD-C266-9348-9859-B19541530FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA218BAB-163C-9A47-A857-2DD8409FF5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41800" yWindow="-23200" windowWidth="28200" windowHeight="33840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19000" yWindow="-33840" windowWidth="18640" windowHeight="32580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="2240">
   <si>
     <t>en</t>
   </si>
@@ -3998,9 +3998,6 @@
   </si>
   <si>
     <t>c36</t>
-  </si>
-  <si>
-    <t>Parameters</t>
   </si>
   <si>
     <t>参数</t>
@@ -6011,6 +6008,792 @@
   </si>
   <si>
     <t>调谐后</t>
+  </si>
+  <si>
+    <t>Fitting01</t>
+  </si>
+  <si>
+    <t>Detrending</t>
+  </si>
+  <si>
+    <t>去趋势</t>
+  </si>
+  <si>
+    <t>Fitting02</t>
+  </si>
+  <si>
+    <t>Fitting03</t>
+  </si>
+  <si>
+    <t>Fitting04</t>
+  </si>
+  <si>
+    <t>Fitting05</t>
+  </si>
+  <si>
+    <t>Fitting06</t>
+  </si>
+  <si>
+    <t>Fitting07</t>
+  </si>
+  <si>
+    <t>Fitting08</t>
+  </si>
+  <si>
+    <t>Fitting09</t>
+  </si>
+  <si>
+    <t>Fitting10</t>
+  </si>
+  <si>
+    <t>Fitting11</t>
+  </si>
+  <si>
+    <t>Fitting12</t>
+  </si>
+  <si>
+    <t>Fitting13</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>或</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>LOWESS</t>
+  </si>
+  <si>
+    <t>rLOWESS</t>
+  </si>
+  <si>
+    <t>LOESS</t>
+  </si>
+  <si>
+    <t>rLOESS</t>
+  </si>
+  <si>
+    <t>Polynomial fit</t>
+  </si>
+  <si>
+    <t>多项式拟合</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>1 order (Linear)</t>
+  </si>
+  <si>
+    <t>2 order</t>
+  </si>
+  <si>
+    <t>二次</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>Select All</t>
+  </si>
+  <si>
+    <t>全选</t>
+  </si>
+  <si>
+    <t>清楚全部</t>
+  </si>
+  <si>
+    <t>Select &amp; save detrending model</t>
+  </si>
+  <si>
+    <t>选择并保存数据</t>
+  </si>
+  <si>
+    <t>spectral01</t>
+  </si>
+  <si>
+    <t>spectral02</t>
+  </si>
+  <si>
+    <t>spectral03</t>
+  </si>
+  <si>
+    <t>Select method</t>
+  </si>
+  <si>
+    <t>Time-bandwidth product</t>
+  </si>
+  <si>
+    <t>Zeropadding</t>
+  </si>
+  <si>
+    <t>Red noise</t>
+  </si>
+  <si>
+    <t>Robust AR(1)</t>
+  </si>
+  <si>
+    <t>Classic AR(1)</t>
+  </si>
+  <si>
+    <t>F-test &amp; Ampl.</t>
+  </si>
+  <si>
+    <t>P.L.</t>
+  </si>
+  <si>
+    <t>B.P.L.</t>
+  </si>
+  <si>
+    <t>White noise</t>
+  </si>
+  <si>
+    <t>Plot: max frequency &amp; Y</t>
+  </si>
+  <si>
+    <t>Nyquist</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Linear Y</t>
+  </si>
+  <si>
+    <t>Log Y</t>
+  </si>
+  <si>
+    <t>log(freq.)</t>
+  </si>
+  <si>
+    <t>X in period</t>
+  </si>
+  <si>
+    <t>Run &amp; save</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>spectral04</t>
+  </si>
+  <si>
+    <t>spectral05</t>
+  </si>
+  <si>
+    <t>spectral06</t>
+  </si>
+  <si>
+    <t>spectral07</t>
+  </si>
+  <si>
+    <t>spectral08</t>
+  </si>
+  <si>
+    <t>spectral09</t>
+  </si>
+  <si>
+    <t>spectral10</t>
+  </si>
+  <si>
+    <t>spectral11</t>
+  </si>
+  <si>
+    <t>spectral12</t>
+  </si>
+  <si>
+    <t>spectral13</t>
+  </si>
+  <si>
+    <t>spectral14</t>
+  </si>
+  <si>
+    <t>spectral15</t>
+  </si>
+  <si>
+    <t>spectral16</t>
+  </si>
+  <si>
+    <t>spectral17</t>
+  </si>
+  <si>
+    <t>spectral18</t>
+  </si>
+  <si>
+    <t>spectral19</t>
+  </si>
+  <si>
+    <t>spectral20</t>
+  </si>
+  <si>
+    <t>spectral21</t>
+  </si>
+  <si>
+    <t>spectral22</t>
+  </si>
+  <si>
+    <t>spectral23</t>
+  </si>
+  <si>
+    <t>spectral24</t>
+  </si>
+  <si>
+    <t>spectral25</t>
+  </si>
+  <si>
+    <t>方法设置</t>
+  </si>
+  <si>
+    <t>时间带宽积</t>
+  </si>
+  <si>
+    <t>红噪音</t>
+  </si>
+  <si>
+    <t>稳健AR(1)</t>
+  </si>
+  <si>
+    <t>经典AR(1)</t>
+  </si>
+  <si>
+    <t>F检验&amp;振幅</t>
+  </si>
+  <si>
+    <t>幂律分布</t>
+  </si>
+  <si>
+    <t>弯曲幂律</t>
+  </si>
+  <si>
+    <t>白噪音</t>
+  </si>
+  <si>
+    <t>投图设置：最大频率与Y轴</t>
+  </si>
+  <si>
+    <t>奈奎斯特頻率</t>
+  </si>
+  <si>
+    <t>线性Y轴</t>
+  </si>
+  <si>
+    <t>对数Y轴</t>
+  </si>
+  <si>
+    <t>对数频率</t>
+  </si>
+  <si>
+    <t>X轴显示周期</t>
+  </si>
+  <si>
+    <t>运行并保存</t>
+  </si>
+  <si>
+    <t>运行</t>
+  </si>
+  <si>
+    <t>Robust AR(1) Estimation</t>
+  </si>
+  <si>
+    <t>Median smoothing window: default 0.2 = 20%</t>
+  </si>
+  <si>
+    <t>AR1 best fit model? 1 = linear ï¼ˆdefaultï¼‰; 2 = log power</t>
+  </si>
+  <si>
+    <t>Bias correction for ultra-high resolution data</t>
+  </si>
+  <si>
+    <t>spectral26</t>
+  </si>
+  <si>
+    <t>spectral27</t>
+  </si>
+  <si>
+    <t>spectral28</t>
+  </si>
+  <si>
+    <t>稳健AR(1)估计</t>
+  </si>
+  <si>
+    <t>滑动中值的窗口：默认20%</t>
+  </si>
+  <si>
+    <t>AR(1)最优拟合模式选择：1=线性（默认）；2=对数</t>
+  </si>
+  <si>
+    <t>是否偏差校准（过高分辨率数据）</t>
+  </si>
+  <si>
+    <t>Large dataset, wait ...</t>
+  </si>
+  <si>
+    <t>数据量过大，等待中</t>
+  </si>
+  <si>
+    <t>spectral29</t>
+  </si>
+  <si>
+    <t>spectral30</t>
+  </si>
+  <si>
+    <t>spectral31</t>
+  </si>
+  <si>
+    <t>spectral32</t>
+  </si>
+  <si>
+    <t>spectral33</t>
+  </si>
+  <si>
+    <t>spectral34</t>
+  </si>
+  <si>
+    <t>spectral35</t>
+  </si>
+  <si>
+    <t>spectral36</t>
+  </si>
+  <si>
+    <t>spectral37</t>
+  </si>
+  <si>
+    <t>spectral38</t>
+  </si>
+  <si>
+    <t>spectral39</t>
+  </si>
+  <si>
+    <t>spectral40</t>
+  </si>
+  <si>
+    <t>spectral41</t>
+  </si>
+  <si>
+    <t>spectral42</t>
+  </si>
+  <si>
+    <t>median-smoothed</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>中值滑动平均</t>
+  </si>
+  <si>
+    <t>频率 (1/</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>带宽</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>全局</t>
+  </si>
+  <si>
+    <t>局部</t>
+  </si>
+  <si>
+    <t>Bending Power Law</t>
+  </si>
+  <si>
+    <t>Power Law</t>
+  </si>
+  <si>
+    <t>Sampling rate may not be uneven! Ignore if this is not ture.</t>
+  </si>
+  <si>
+    <t>采样率可能不均匀！如果不是，请忽略这个警告。</t>
+  </si>
+  <si>
+    <t>Sampling rate</t>
+  </si>
+  <si>
+    <t>Adaptive weighted degrees of freedom</t>
+  </si>
+  <si>
+    <t>Harmonic phase</t>
+  </si>
+  <si>
+    <t>Estimation may take a few minutes...</t>
+  </si>
+  <si>
+    <t>自适应加权自由度</t>
+  </si>
+  <si>
+    <t>谐波相位</t>
+  </si>
+  <si>
+    <t>计算可能需要几分钟...</t>
+  </si>
+  <si>
+    <t>Lomb-Scargle spectrum</t>
+  </si>
+  <si>
+    <t>Lomb-Scargle能谱</t>
+  </si>
+  <si>
+    <t>spectral43</t>
+  </si>
+  <si>
+    <t>spectral44</t>
+  </si>
+  <si>
+    <t>spectral45</t>
+  </si>
+  <si>
+    <t>spectral46</t>
+  </si>
+  <si>
+    <t>spectral47</t>
+  </si>
+  <si>
+    <t>spectral48</t>
+  </si>
+  <si>
+    <t>spectral49</t>
+  </si>
+  <si>
+    <t>spectral50</t>
+  </si>
+  <si>
+    <t>spectral51</t>
+  </si>
+  <si>
+    <t>spectral52</t>
+  </si>
+  <si>
+    <t>Periodogram</t>
+  </si>
+  <si>
+    <t>周期图</t>
+  </si>
+  <si>
+    <t>&gt;&gt;  Refresh main window to see red noise estimation data files: </t>
+  </si>
+  <si>
+    <t>&gt;&gt; 刷新主窗口以查看红噪声估计数据文件：</t>
+  </si>
+  <si>
+    <t>evofft01</t>
+  </si>
+  <si>
+    <t>evofft02</t>
+  </si>
+  <si>
+    <t>evofft03</t>
+  </si>
+  <si>
+    <t>evofft04</t>
+  </si>
+  <si>
+    <t>evofft05</t>
+  </si>
+  <si>
+    <t>evofft06</t>
+  </si>
+  <si>
+    <t>evofft07</t>
+  </si>
+  <si>
+    <t>evofft08</t>
+  </si>
+  <si>
+    <t>evofft09</t>
+  </si>
+  <si>
+    <t>evofft10</t>
+  </si>
+  <si>
+    <t>evofft11</t>
+  </si>
+  <si>
+    <t>evofft12</t>
+  </si>
+  <si>
+    <t>evofft13</t>
+  </si>
+  <si>
+    <t>evofft14</t>
+  </si>
+  <si>
+    <t>evofft15</t>
+  </si>
+  <si>
+    <t>evofft16</t>
+  </si>
+  <si>
+    <t>evofft17</t>
+  </si>
+  <si>
+    <t>evofft18</t>
+  </si>
+  <si>
+    <t>Input for Evolutive FFT</t>
+  </si>
+  <si>
+    <t>Plot series</t>
+  </si>
+  <si>
+    <t>2pi MTM + red</t>
+  </si>
+  <si>
+    <t>Plot-dimension</t>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>Log(power)</t>
+  </si>
+  <si>
+    <t>Log(frequency)</t>
+  </si>
+  <si>
+    <t>Colormap</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>Grid #</t>
+  </si>
+  <si>
+    <t>演化傅里叶变换参数</t>
+  </si>
+  <si>
+    <t>投图：设置最大频率</t>
+  </si>
+  <si>
+    <t>最小频率</t>
+  </si>
+  <si>
+    <t>使用奈奎斯特频率</t>
+  </si>
+  <si>
+    <t>显示序列</t>
+  </si>
+  <si>
+    <t>显示能谱+红噪</t>
+  </si>
+  <si>
+    <t>投图维度</t>
+  </si>
+  <si>
+    <t>自动旋转</t>
+  </si>
+  <si>
+    <t>每个窗口的序列标准化</t>
+  </si>
+  <si>
+    <t>能量对数</t>
+  </si>
+  <si>
+    <t>频率对数</t>
+  </si>
+  <si>
+    <t>颜色分级数</t>
+  </si>
+  <si>
+    <t>Not equally spaced data. Interpolated using mean sampling rate!</t>
+  </si>
+  <si>
+    <t>不是等间距数据。 已经使用平均采样率进行插值！</t>
+  </si>
+  <si>
+    <t>wave01</t>
+  </si>
+  <si>
+    <t>wave02</t>
+  </si>
+  <si>
+    <t>wave03</t>
+  </si>
+  <si>
+    <t>wave04</t>
+  </si>
+  <si>
+    <t>wave05</t>
+  </si>
+  <si>
+    <t>wave06</t>
+  </si>
+  <si>
+    <t>wave07</t>
+  </si>
+  <si>
+    <t>wave08</t>
+  </si>
+  <si>
+    <t>wave09</t>
+  </si>
+  <si>
+    <t>wave10</t>
+  </si>
+  <si>
+    <t>wave11</t>
+  </si>
+  <si>
+    <t>wave12</t>
+  </si>
+  <si>
+    <t>wave13</t>
+  </si>
+  <si>
+    <t>wave14</t>
+  </si>
+  <si>
+    <t>wave15</t>
+  </si>
+  <si>
+    <t>wave16</t>
+  </si>
+  <si>
+    <t>wave17</t>
+  </si>
+  <si>
+    <t>wave18</t>
+  </si>
+  <si>
+    <t>wave19</t>
+  </si>
+  <si>
+    <t>wave20</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>调换</t>
+  </si>
+  <si>
+    <t>Period Min</t>
+  </si>
+  <si>
+    <t>Period Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete scale spacing </t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>spectrum</t>
+  </si>
+  <si>
+    <t>cone of influence</t>
+  </si>
+  <si>
+    <t>flip depth/time</t>
+  </si>
+  <si>
+    <t>flip period</t>
+  </si>
+  <si>
+    <t>swap x-y</t>
+  </si>
+  <si>
+    <t>p=0.05 sig.lev.</t>
+  </si>
+  <si>
+    <t>power log</t>
+  </si>
+  <si>
+    <t>Z level</t>
+  </si>
+  <si>
+    <t>tick label</t>
+  </si>
+  <si>
+    <t>最小周期</t>
+  </si>
+  <si>
+    <t>最大周期</t>
+  </si>
+  <si>
+    <t>母波</t>
+  </si>
+  <si>
+    <t>能谱</t>
+  </si>
+  <si>
+    <t>影响锥</t>
+  </si>
+  <si>
+    <t>翻转周期轴</t>
+  </si>
+  <si>
+    <t>翻转深度/时间轴</t>
+  </si>
+  <si>
+    <t>交换 x-y轴</t>
+  </si>
+  <si>
+    <t>p=0.05显著水平</t>
+  </si>
+  <si>
+    <t>对数能量</t>
+  </si>
+  <si>
+    <t>Z分级</t>
+  </si>
+  <si>
+    <t>刻度标签</t>
+  </si>
+  <si>
+    <t>Wavelet coherence and cross-spectrum</t>
+  </si>
+  <si>
+    <t>小波相干性和交叉谱</t>
+  </si>
+  <si>
+    <t>phase, wtc threshold</t>
+  </si>
+  <si>
+    <t>相位，相干性阈值</t>
+  </si>
+  <si>
+    <t>Series 1: Interpolation needed! Done!</t>
+  </si>
+  <si>
+    <t>序列 1：需要插值！插值完毕！</t>
+  </si>
+  <si>
+    <t>Time ranges are not equal. Inerpolation series applied.</t>
+  </si>
+  <si>
+    <t>所选序列的时间范围不相等。序列插值已完成。</t>
+  </si>
+  <si>
+    <t>离散刻度间距</t>
+  </si>
+  <si>
+    <t>Parameter</t>
   </si>
 </sst>
 </file>
@@ -7430,19 +8213,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D825"/>
+  <dimension ref="A1:D934"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B683" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B889" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B693" sqref="B693"/>
+      <selection pane="bottomRight" activeCell="B929" sqref="B929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
@@ -7451,7 +8234,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7460,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1">
@@ -8125,40 +8908,60 @@
       <c r="A49" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
+      <c r="B49" s="14" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>1994</v>
+      </c>
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="14" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>1996</v>
+      </c>
       <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
+      <c r="B51" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>1656</v>
+      </c>
       <c r="D51" s="11"/>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
+      <c r="B52" s="10" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>2165</v>
+      </c>
       <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
+      <c r="B53" s="14" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>2202</v>
+      </c>
       <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -8538,10 +9341,10 @@
         <v>226</v>
       </c>
       <c r="B82" s="14" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>1973</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>1974</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>153</v>
@@ -8804,10 +9607,10 @@
         <v>274</v>
       </c>
       <c r="B104" s="14" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>1876</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>1877</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>158</v>
@@ -9064,10 +9867,10 @@
         <v>326</v>
       </c>
       <c r="B123" s="14" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C123" s="15" t="s">
         <v>1878</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>1879</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>161</v>
@@ -9416,10 +10219,10 @@
         <v>398</v>
       </c>
       <c r="B149" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C149" s="15" t="s">
         <v>1880</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>1881</v>
       </c>
       <c r="D149" s="15" t="s">
         <v>164</v>
@@ -9430,10 +10233,10 @@
         <v>399</v>
       </c>
       <c r="B150" s="10" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C150" s="15" t="s">
         <v>1882</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>1883</v>
       </c>
       <c r="D150" s="15" t="s">
         <v>164</v>
@@ -9876,10 +10679,10 @@
         <v>486</v>
       </c>
       <c r="B184" s="14" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C184" s="15" t="s">
         <v>1884</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>1885</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>167</v>
@@ -10440,10 +11243,10 @@
         <v>602</v>
       </c>
       <c r="B235" s="14" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C235" s="15" t="s">
         <v>1975</v>
-      </c>
-      <c r="C235" s="15" t="s">
-        <v>1976</v>
       </c>
       <c r="D235" s="11"/>
     </row>
@@ -10452,10 +11255,10 @@
         <v>603</v>
       </c>
       <c r="B236" s="14" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C236" s="15" t="s">
         <v>1977</v>
-      </c>
-      <c r="C236" s="15" t="s">
-        <v>1978</v>
       </c>
       <c r="D236" s="11"/>
     </row>
@@ -13949,11 +14752,11 @@
       <c r="A536" s="7" t="s">
         <v>1325</v>
       </c>
-      <c r="B536" s="8" t="s">
+      <c r="B536" s="17" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C536" s="9" t="s">
         <v>1326</v>
-      </c>
-      <c r="C536" s="9" t="s">
-        <v>1327</v>
       </c>
       <c r="D536" s="9" t="s">
         <v>1315</v>
@@ -13961,13 +14764,13 @@
     </row>
     <row r="537" spans="1:4" ht="20" customHeight="1">
       <c r="A537" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B537" s="8" t="s">
         <v>1328</v>
       </c>
-      <c r="B537" s="8" t="s">
+      <c r="C537" s="9" t="s">
         <v>1329</v>
-      </c>
-      <c r="C537" s="9" t="s">
-        <v>1330</v>
       </c>
       <c r="D537" s="9" t="s">
         <v>1315</v>
@@ -13975,13 +14778,13 @@
     </row>
     <row r="538" spans="1:4" ht="20" customHeight="1">
       <c r="A538" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B538" s="8" t="s">
         <v>1331</v>
       </c>
-      <c r="B538" s="8" t="s">
+      <c r="C538" s="9" t="s">
         <v>1332</v>
-      </c>
-      <c r="C538" s="9" t="s">
-        <v>1333</v>
       </c>
       <c r="D538" s="9" t="s">
         <v>1315</v>
@@ -13989,13 +14792,13 @@
     </row>
     <row r="539" spans="1:4" ht="20" customHeight="1">
       <c r="A539" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B539" s="8" t="s">
         <v>1334</v>
       </c>
-      <c r="B539" s="8" t="s">
+      <c r="C539" s="9" t="s">
         <v>1335</v>
-      </c>
-      <c r="C539" s="9" t="s">
-        <v>1336</v>
       </c>
       <c r="D539" s="9" t="s">
         <v>1315</v>
@@ -14003,13 +14806,13 @@
     </row>
     <row r="540" spans="1:4" ht="20" customHeight="1">
       <c r="A540" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B540" s="8" t="s">
         <v>1337</v>
       </c>
-      <c r="B540" s="8" t="s">
+      <c r="C540" s="9" t="s">
         <v>1338</v>
-      </c>
-      <c r="C540" s="9" t="s">
-        <v>1339</v>
       </c>
       <c r="D540" s="9" t="s">
         <v>1315</v>
@@ -14017,13 +14820,13 @@
     </row>
     <row r="541" spans="1:4" ht="20" customHeight="1">
       <c r="A541" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B541" s="8" t="s">
         <v>1340</v>
       </c>
-      <c r="B541" s="8" t="s">
+      <c r="C541" s="9" t="s">
         <v>1341</v>
-      </c>
-      <c r="C541" s="9" t="s">
-        <v>1342</v>
       </c>
       <c r="D541" s="9" t="s">
         <v>1315</v>
@@ -14031,7 +14834,7 @@
     </row>
     <row r="542" spans="1:4" ht="20" customHeight="1">
       <c r="A542" s="7" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B542" s="10"/>
       <c r="C542" s="11"/>
@@ -14039,7 +14842,7 @@
     </row>
     <row r="543" spans="1:4" ht="20" customHeight="1">
       <c r="A543" s="7" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B543" s="10"/>
       <c r="C543" s="11"/>
@@ -14047,7 +14850,7 @@
     </row>
     <row r="544" spans="1:4" ht="20" customHeight="1">
       <c r="A544" s="7" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B544" s="10"/>
       <c r="C544" s="11"/>
@@ -14055,7 +14858,7 @@
     </row>
     <row r="545" spans="1:4" ht="20" customHeight="1">
       <c r="A545" s="7" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B545" s="10"/>
       <c r="C545" s="11"/>
@@ -14063,19 +14866,19 @@
     </row>
     <row r="546" spans="1:4" ht="20" customHeight="1">
       <c r="A546" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B546" s="8" t="s">
         <v>1347</v>
       </c>
-      <c r="B546" s="8" t="s">
+      <c r="C546" s="9" t="s">
         <v>1348</v>
-      </c>
-      <c r="C546" s="9" t="s">
-        <v>1349</v>
       </c>
       <c r="D546" s="11"/>
     </row>
     <row r="547" spans="1:4" ht="20" customHeight="1">
       <c r="A547" s="7" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B547" s="10"/>
       <c r="C547" s="11"/>
@@ -14083,19 +14886,19 @@
     </row>
     <row r="548" spans="1:4" ht="20" customHeight="1">
       <c r="A548" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B548" s="8" t="s">
         <v>1351</v>
       </c>
-      <c r="B548" s="8" t="s">
+      <c r="C548" s="9" t="s">
         <v>1352</v>
-      </c>
-      <c r="C548" s="9" t="s">
-        <v>1353</v>
       </c>
       <c r="D548" s="11"/>
     </row>
     <row r="549" spans="1:4" ht="20" customHeight="1">
       <c r="A549" s="7" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B549" s="10"/>
       <c r="C549" s="11"/>
@@ -14103,7 +14906,7 @@
     </row>
     <row r="550" spans="1:4" ht="20" customHeight="1">
       <c r="A550" s="7" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B550" s="10"/>
       <c r="C550" s="11"/>
@@ -14111,7 +14914,7 @@
     </row>
     <row r="551" spans="1:4" ht="20" customHeight="1">
       <c r="A551" s="7" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B551" s="10"/>
       <c r="C551" s="11"/>
@@ -14119,13 +14922,13 @@
     </row>
     <row r="552" spans="1:4" ht="20" customHeight="1">
       <c r="A552" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B552" s="8" t="s">
         <v>1357</v>
       </c>
-      <c r="B552" s="8" t="s">
+      <c r="C552" s="9" t="s">
         <v>1358</v>
-      </c>
-      <c r="C552" s="9" t="s">
-        <v>1359</v>
       </c>
       <c r="D552" s="9" t="s">
         <v>508</v>
@@ -14133,13 +14936,13 @@
     </row>
     <row r="553" spans="1:4" ht="20" customHeight="1">
       <c r="A553" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B553" s="8" t="s">
         <v>1360</v>
       </c>
-      <c r="B553" s="8" t="s">
+      <c r="C553" s="9" t="s">
         <v>1361</v>
-      </c>
-      <c r="C553" s="9" t="s">
-        <v>1362</v>
       </c>
       <c r="D553" s="9" t="s">
         <v>508</v>
@@ -14147,13 +14950,13 @@
     </row>
     <row r="554" spans="1:4" ht="20" customHeight="1">
       <c r="A554" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B554" s="8" t="s">
         <v>1363</v>
       </c>
-      <c r="B554" s="8" t="s">
+      <c r="C554" s="9" t="s">
         <v>1364</v>
-      </c>
-      <c r="C554" s="9" t="s">
-        <v>1365</v>
       </c>
       <c r="D554" s="9" t="s">
         <v>508</v>
@@ -14161,13 +14964,13 @@
     </row>
     <row r="555" spans="1:4" ht="22.25" customHeight="1">
       <c r="A555" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B555" s="8" t="s">
         <v>1366</v>
       </c>
-      <c r="B555" s="8" t="s">
+      <c r="C555" s="9" t="s">
         <v>1367</v>
-      </c>
-      <c r="C555" s="9" t="s">
-        <v>1368</v>
       </c>
       <c r="D555" s="9" t="s">
         <v>508</v>
@@ -14175,13 +14978,13 @@
     </row>
     <row r="556" spans="1:4" ht="20" customHeight="1">
       <c r="A556" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B556" s="8" t="s">
         <v>1369</v>
       </c>
-      <c r="B556" s="8" t="s">
-        <v>1370</v>
-      </c>
       <c r="C556" s="9" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D556" s="9" t="s">
         <v>508</v>
@@ -14189,7 +14992,7 @@
     </row>
     <row r="557" spans="1:4" ht="20" customHeight="1">
       <c r="A557" s="7" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B557" s="10"/>
       <c r="C557" s="11"/>
@@ -14197,7 +15000,7 @@
     </row>
     <row r="558" spans="1:4" ht="20" customHeight="1">
       <c r="A558" s="7" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B558" s="10"/>
       <c r="C558" s="11"/>
@@ -14205,7 +15008,7 @@
     </row>
     <row r="559" spans="1:4" ht="20" customHeight="1">
       <c r="A559" s="7" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B559" s="10"/>
       <c r="C559" s="11"/>
@@ -14213,7 +15016,7 @@
     </row>
     <row r="560" spans="1:4" ht="20" customHeight="1">
       <c r="A560" s="7" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B560" s="10"/>
       <c r="C560" s="11"/>
@@ -14221,7 +15024,7 @@
     </row>
     <row r="561" spans="1:4" ht="20" customHeight="1">
       <c r="A561" s="7" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B561" s="10"/>
       <c r="C561" s="11"/>
@@ -14229,13 +15032,13 @@
     </row>
     <row r="562" spans="1:4" ht="20" customHeight="1">
       <c r="A562" s="7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B562" s="8" t="s">
         <v>1376</v>
       </c>
-      <c r="B562" s="8" t="s">
+      <c r="C562" s="9" t="s">
         <v>1377</v>
-      </c>
-      <c r="C562" s="9" t="s">
-        <v>1378</v>
       </c>
       <c r="D562" s="9" t="s">
         <v>463</v>
@@ -14243,13 +15046,13 @@
     </row>
     <row r="563" spans="1:4" ht="20" customHeight="1">
       <c r="A563" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B563" s="8" t="s">
         <v>1379</v>
       </c>
-      <c r="B563" s="8" t="s">
+      <c r="C563" s="9" t="s">
         <v>1380</v>
-      </c>
-      <c r="C563" s="9" t="s">
-        <v>1381</v>
       </c>
       <c r="D563" s="9" t="s">
         <v>463</v>
@@ -14257,13 +15060,13 @@
     </row>
     <row r="564" spans="1:4" ht="20" customHeight="1">
       <c r="A564" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B564" s="8" t="s">
         <v>1382</v>
       </c>
-      <c r="B564" s="8" t="s">
+      <c r="C564" s="9" t="s">
         <v>1383</v>
-      </c>
-      <c r="C564" s="9" t="s">
-        <v>1384</v>
       </c>
       <c r="D564" s="9" t="s">
         <v>463</v>
@@ -14271,13 +15074,13 @@
     </row>
     <row r="565" spans="1:4" ht="20" customHeight="1">
       <c r="A565" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B565" s="8" t="s">
         <v>1385</v>
       </c>
-      <c r="B565" s="8" t="s">
+      <c r="C565" s="9" t="s">
         <v>1386</v>
-      </c>
-      <c r="C565" s="9" t="s">
-        <v>1387</v>
       </c>
       <c r="D565" s="9" t="s">
         <v>463</v>
@@ -14285,13 +15088,13 @@
     </row>
     <row r="566" spans="1:4" ht="20" customHeight="1">
       <c r="A566" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B566" s="8" t="s">
         <v>1388</v>
       </c>
-      <c r="B566" s="8" t="s">
+      <c r="C566" s="9" t="s">
         <v>1389</v>
-      </c>
-      <c r="C566" s="9" t="s">
-        <v>1390</v>
       </c>
       <c r="D566" s="9" t="s">
         <v>463</v>
@@ -14299,13 +15102,13 @@
     </row>
     <row r="567" spans="1:4" ht="20" customHeight="1">
       <c r="A567" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B567" s="8" t="s">
         <v>1391</v>
       </c>
-      <c r="B567" s="8" t="s">
+      <c r="C567" s="9" t="s">
         <v>1392</v>
-      </c>
-      <c r="C567" s="9" t="s">
-        <v>1393</v>
       </c>
       <c r="D567" s="9" t="s">
         <v>463</v>
@@ -14313,13 +15116,13 @@
     </row>
     <row r="568" spans="1:4" ht="20" customHeight="1">
       <c r="A568" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B568" s="8" t="s">
         <v>1394</v>
       </c>
-      <c r="B568" s="8" t="s">
+      <c r="C568" s="9" t="s">
         <v>1395</v>
-      </c>
-      <c r="C568" s="9" t="s">
-        <v>1396</v>
       </c>
       <c r="D568" s="9" t="s">
         <v>463</v>
@@ -14327,13 +15130,13 @@
     </row>
     <row r="569" spans="1:4" ht="20" customHeight="1">
       <c r="A569" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B569" s="8" t="s">
         <v>1397</v>
       </c>
-      <c r="B569" s="8" t="s">
+      <c r="C569" s="9" t="s">
         <v>1398</v>
-      </c>
-      <c r="C569" s="9" t="s">
-        <v>1399</v>
       </c>
       <c r="D569" s="9" t="s">
         <v>463</v>
@@ -14341,13 +15144,13 @@
     </row>
     <row r="570" spans="1:4" ht="20" customHeight="1">
       <c r="A570" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B570" s="8" t="s">
         <v>1400</v>
       </c>
-      <c r="B570" s="8" t="s">
+      <c r="C570" s="9" t="s">
         <v>1401</v>
-      </c>
-      <c r="C570" s="9" t="s">
-        <v>1402</v>
       </c>
       <c r="D570" s="9" t="s">
         <v>463</v>
@@ -14355,13 +15158,13 @@
     </row>
     <row r="571" spans="1:4" ht="20" customHeight="1">
       <c r="A571" s="7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B571" s="8" t="s">
         <v>1403</v>
       </c>
-      <c r="B571" s="8" t="s">
+      <c r="C571" s="9" t="s">
         <v>1404</v>
-      </c>
-      <c r="C571" s="9" t="s">
-        <v>1405</v>
       </c>
       <c r="D571" s="9" t="s">
         <v>463</v>
@@ -14369,13 +15172,13 @@
     </row>
     <row r="572" spans="1:4" ht="20" customHeight="1">
       <c r="A572" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B572" s="8" t="s">
         <v>1406</v>
       </c>
-      <c r="B572" s="8" t="s">
+      <c r="C572" s="9" t="s">
         <v>1407</v>
-      </c>
-      <c r="C572" s="9" t="s">
-        <v>1408</v>
       </c>
       <c r="D572" s="9" t="s">
         <v>463</v>
@@ -14383,13 +15186,13 @@
     </row>
     <row r="573" spans="1:4" ht="20" customHeight="1">
       <c r="A573" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B573" s="8" t="s">
         <v>1409</v>
       </c>
-      <c r="B573" s="8" t="s">
+      <c r="C573" s="9" t="s">
         <v>1410</v>
-      </c>
-      <c r="C573" s="9" t="s">
-        <v>1411</v>
       </c>
       <c r="D573" s="9" t="s">
         <v>463</v>
@@ -14397,13 +15200,13 @@
     </row>
     <row r="574" spans="1:4" ht="20" customHeight="1">
       <c r="A574" s="7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B574" s="8" t="s">
         <v>1412</v>
       </c>
-      <c r="B574" s="8" t="s">
+      <c r="C574" s="9" t="s">
         <v>1413</v>
-      </c>
-      <c r="C574" s="9" t="s">
-        <v>1414</v>
       </c>
       <c r="D574" s="9" t="s">
         <v>463</v>
@@ -14411,13 +15214,13 @@
     </row>
     <row r="575" spans="1:4" ht="20" customHeight="1">
       <c r="A575" s="7" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B575" s="8" t="s">
         <v>1415</v>
       </c>
-      <c r="B575" s="8" t="s">
+      <c r="C575" s="9" t="s">
         <v>1416</v>
-      </c>
-      <c r="C575" s="9" t="s">
-        <v>1417</v>
       </c>
       <c r="D575" s="9" t="s">
         <v>463</v>
@@ -14425,13 +15228,13 @@
     </row>
     <row r="576" spans="1:4" ht="20" customHeight="1">
       <c r="A576" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B576" s="8" t="s">
         <v>1418</v>
       </c>
-      <c r="B576" s="8" t="s">
+      <c r="C576" s="9" t="s">
         <v>1419</v>
-      </c>
-      <c r="C576" s="9" t="s">
-        <v>1420</v>
       </c>
       <c r="D576" s="9" t="s">
         <v>463</v>
@@ -14439,13 +15242,13 @@
     </row>
     <row r="577" spans="1:4" ht="20" customHeight="1">
       <c r="A577" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B577" s="8" t="s">
         <v>1421</v>
       </c>
-      <c r="B577" s="8" t="s">
+      <c r="C577" s="9" t="s">
         <v>1422</v>
-      </c>
-      <c r="C577" s="9" t="s">
-        <v>1423</v>
       </c>
       <c r="D577" s="9" t="s">
         <v>463</v>
@@ -14453,13 +15256,13 @@
     </row>
     <row r="578" spans="1:4" ht="20" customHeight="1">
       <c r="A578" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B578" s="8" t="s">
         <v>1424</v>
       </c>
-      <c r="B578" s="8" t="s">
+      <c r="C578" s="9" t="s">
         <v>1425</v>
-      </c>
-      <c r="C578" s="9" t="s">
-        <v>1426</v>
       </c>
       <c r="D578" s="9" t="s">
         <v>463</v>
@@ -14467,13 +15270,13 @@
     </row>
     <row r="579" spans="1:4" ht="20" customHeight="1">
       <c r="A579" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B579" s="8" t="s">
         <v>1427</v>
       </c>
-      <c r="B579" s="8" t="s">
+      <c r="C579" s="9" t="s">
         <v>1428</v>
-      </c>
-      <c r="C579" s="9" t="s">
-        <v>1429</v>
       </c>
       <c r="D579" s="9" t="s">
         <v>463</v>
@@ -14481,13 +15284,13 @@
     </row>
     <row r="580" spans="1:4" ht="20" customHeight="1">
       <c r="A580" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B580" s="8" t="s">
         <v>1430</v>
       </c>
-      <c r="B580" s="8" t="s">
+      <c r="C580" s="9" t="s">
         <v>1431</v>
-      </c>
-      <c r="C580" s="9" t="s">
-        <v>1432</v>
       </c>
       <c r="D580" s="9" t="s">
         <v>463</v>
@@ -14495,13 +15298,13 @@
     </row>
     <row r="581" spans="1:4" ht="20" customHeight="1">
       <c r="A581" s="7" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B581" s="8" t="s">
         <v>1433</v>
       </c>
-      <c r="B581" s="8" t="s">
+      <c r="C581" s="9" t="s">
         <v>1434</v>
-      </c>
-      <c r="C581" s="9" t="s">
-        <v>1435</v>
       </c>
       <c r="D581" s="9" t="s">
         <v>463</v>
@@ -14509,13 +15312,13 @@
     </row>
     <row r="582" spans="1:4" ht="20" customHeight="1">
       <c r="A582" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B582" s="8" t="s">
         <v>1436</v>
       </c>
-      <c r="B582" s="8" t="s">
+      <c r="C582" s="9" t="s">
         <v>1437</v>
-      </c>
-      <c r="C582" s="9" t="s">
-        <v>1438</v>
       </c>
       <c r="D582" s="9" t="s">
         <v>463</v>
@@ -14523,7 +15326,7 @@
     </row>
     <row r="583" spans="1:4" ht="20" customHeight="1">
       <c r="A583" s="7" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B583" s="8" t="s">
         <v>111</v>
@@ -14537,13 +15340,13 @@
     </row>
     <row r="584" spans="1:4" ht="20" customHeight="1">
       <c r="A584" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B584" s="8" t="s">
         <v>1440</v>
       </c>
-      <c r="B584" s="8" t="s">
+      <c r="C584" s="9" t="s">
         <v>1441</v>
-      </c>
-      <c r="C584" s="9" t="s">
-        <v>1442</v>
       </c>
       <c r="D584" s="9" t="s">
         <v>463</v>
@@ -14551,7 +15354,7 @@
     </row>
     <row r="585" spans="1:4" ht="20" customHeight="1">
       <c r="A585" s="7" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B585" s="10"/>
       <c r="C585" s="11"/>
@@ -14559,7 +15362,7 @@
     </row>
     <row r="586" spans="1:4" ht="20" customHeight="1">
       <c r="A586" s="7" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B586" s="10"/>
       <c r="C586" s="11"/>
@@ -14567,30 +15370,30 @@
     </row>
     <row r="587" spans="1:4" ht="20" customHeight="1">
       <c r="A587" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B587" s="8" t="s">
         <v>1445</v>
       </c>
-      <c r="B587" s="8" t="s">
+      <c r="C587" s="9" t="s">
         <v>1446</v>
       </c>
-      <c r="C587" s="9" t="s">
+      <c r="D587" s="9" t="s">
         <v>1447</v>
-      </c>
-      <c r="D587" s="9" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="588" spans="1:4" ht="20" customHeight="1">
       <c r="A588" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B588" s="8" t="s">
         <v>1449</v>
       </c>
-      <c r="B588" s="8" t="s">
+      <c r="C588" s="9" t="s">
         <v>1450</v>
       </c>
-      <c r="C588" s="9" t="s">
-        <v>1451</v>
-      </c>
       <c r="D588" s="9" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="589" spans="1:4" ht="20" customHeight="1">
@@ -14601,13 +15404,13 @@
     </row>
     <row r="590" spans="1:4" ht="20" customHeight="1">
       <c r="A590" s="7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B590" s="8" t="s">
         <v>1452</v>
       </c>
-      <c r="B590" s="8" t="s">
+      <c r="C590" s="9" t="s">
         <v>1453</v>
-      </c>
-      <c r="C590" s="9" t="s">
-        <v>1454</v>
       </c>
       <c r="D590" s="9" t="s">
         <v>396</v>
@@ -14615,13 +15418,13 @@
     </row>
     <row r="591" spans="1:4" ht="20" customHeight="1">
       <c r="A591" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B591" s="8" t="s">
         <v>1455</v>
       </c>
-      <c r="B591" s="8" t="s">
+      <c r="C591" s="9" t="s">
         <v>1456</v>
-      </c>
-      <c r="C591" s="9" t="s">
-        <v>1457</v>
       </c>
       <c r="D591" s="9" t="s">
         <v>396</v>
@@ -14629,13 +15432,13 @@
     </row>
     <row r="592" spans="1:4" ht="20" customHeight="1">
       <c r="A592" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B592" s="8" t="s">
         <v>1458</v>
       </c>
-      <c r="B592" s="8" t="s">
+      <c r="C592" s="9" t="s">
         <v>1459</v>
-      </c>
-      <c r="C592" s="9" t="s">
-        <v>1460</v>
       </c>
       <c r="D592" s="9" t="s">
         <v>396</v>
@@ -14643,13 +15446,13 @@
     </row>
     <row r="593" spans="1:4" ht="20" customHeight="1">
       <c r="A593" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B593" s="8" t="s">
         <v>1461</v>
       </c>
-      <c r="B593" s="8" t="s">
+      <c r="C593" s="9" t="s">
         <v>1462</v>
-      </c>
-      <c r="C593" s="9" t="s">
-        <v>1463</v>
       </c>
       <c r="D593" s="9" t="s">
         <v>396</v>
@@ -14657,13 +15460,13 @@
     </row>
     <row r="594" spans="1:4" ht="20" customHeight="1">
       <c r="A594" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B594" s="8" t="s">
         <v>1464</v>
       </c>
-      <c r="B594" s="8" t="s">
+      <c r="C594" s="9" t="s">
         <v>1465</v>
-      </c>
-      <c r="C594" s="9" t="s">
-        <v>1466</v>
       </c>
       <c r="D594" s="9" t="s">
         <v>396</v>
@@ -14671,13 +15474,13 @@
     </row>
     <row r="595" spans="1:4" ht="20" customHeight="1">
       <c r="A595" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B595" s="8" t="s">
         <v>1467</v>
       </c>
-      <c r="B595" s="8" t="s">
+      <c r="C595" s="9" t="s">
         <v>1468</v>
-      </c>
-      <c r="C595" s="9" t="s">
-        <v>1469</v>
       </c>
       <c r="D595" s="9" t="s">
         <v>396</v>
@@ -14685,13 +15488,13 @@
     </row>
     <row r="596" spans="1:4" ht="20" customHeight="1">
       <c r="A596" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B596" s="8" t="s">
         <v>1470</v>
       </c>
-      <c r="B596" s="8" t="s">
+      <c r="C596" s="9" t="s">
         <v>1471</v>
-      </c>
-      <c r="C596" s="9" t="s">
-        <v>1472</v>
       </c>
       <c r="D596" s="9" t="s">
         <v>396</v>
@@ -14699,13 +15502,13 @@
     </row>
     <row r="597" spans="1:4" ht="20" customHeight="1">
       <c r="A597" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B597" s="8" t="s">
         <v>1473</v>
       </c>
-      <c r="B597" s="8" t="s">
+      <c r="C597" s="9" t="s">
         <v>1474</v>
-      </c>
-      <c r="C597" s="9" t="s">
-        <v>1475</v>
       </c>
       <c r="D597" s="9" t="s">
         <v>396</v>
@@ -14713,13 +15516,13 @@
     </row>
     <row r="598" spans="1:4" ht="20" customHeight="1">
       <c r="A598" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B598" s="8" t="s">
         <v>1476</v>
       </c>
-      <c r="B598" s="8" t="s">
+      <c r="C598" s="9" t="s">
         <v>1477</v>
-      </c>
-      <c r="C598" s="9" t="s">
-        <v>1478</v>
       </c>
       <c r="D598" s="9" t="s">
         <v>396</v>
@@ -14727,13 +15530,13 @@
     </row>
     <row r="599" spans="1:4" ht="20" customHeight="1">
       <c r="A599" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B599" s="8" t="s">
         <v>1479</v>
       </c>
-      <c r="B599" s="8" t="s">
+      <c r="C599" s="9" t="s">
         <v>1480</v>
-      </c>
-      <c r="C599" s="9" t="s">
-        <v>1481</v>
       </c>
       <c r="D599" s="9" t="s">
         <v>396</v>
@@ -14741,13 +15544,13 @@
     </row>
     <row r="600" spans="1:4" ht="20" customHeight="1">
       <c r="A600" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B600" s="8" t="s">
         <v>1482</v>
       </c>
-      <c r="B600" s="8" t="s">
+      <c r="C600" s="9" t="s">
         <v>1483</v>
-      </c>
-      <c r="C600" s="9" t="s">
-        <v>1484</v>
       </c>
       <c r="D600" s="9" t="s">
         <v>396</v>
@@ -14755,7 +15558,7 @@
     </row>
     <row r="601" spans="1:4" ht="20" customHeight="1">
       <c r="A601" s="7" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B601" s="10"/>
       <c r="C601" s="11"/>
@@ -14765,13 +15568,13 @@
     </row>
     <row r="602" spans="1:4" ht="20" customHeight="1">
       <c r="A602" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B602" s="8" t="s">
         <v>1486</v>
       </c>
-      <c r="B602" s="8" t="s">
+      <c r="C602" s="9" t="s">
         <v>1487</v>
-      </c>
-      <c r="C602" s="9" t="s">
-        <v>1488</v>
       </c>
       <c r="D602" s="9" t="s">
         <v>396</v>
@@ -14779,13 +15582,13 @@
     </row>
     <row r="603" spans="1:4" ht="20" customHeight="1">
       <c r="A603" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B603" s="8" t="s">
         <v>1489</v>
       </c>
-      <c r="B603" s="8" t="s">
+      <c r="C603" s="9" t="s">
         <v>1490</v>
-      </c>
-      <c r="C603" s="9" t="s">
-        <v>1491</v>
       </c>
       <c r="D603" s="9" t="s">
         <v>396</v>
@@ -14793,13 +15596,13 @@
     </row>
     <row r="604" spans="1:4" ht="20" customHeight="1">
       <c r="A604" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B604" s="8" t="s">
         <v>1492</v>
       </c>
-      <c r="B604" s="8" t="s">
+      <c r="C604" s="9" t="s">
         <v>1493</v>
-      </c>
-      <c r="C604" s="9" t="s">
-        <v>1494</v>
       </c>
       <c r="D604" s="9" t="s">
         <v>396</v>
@@ -14807,13 +15610,13 @@
     </row>
     <row r="605" spans="1:4" ht="20" customHeight="1">
       <c r="A605" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B605" s="8" t="s">
         <v>1495</v>
       </c>
-      <c r="B605" s="8" t="s">
+      <c r="C605" s="9" t="s">
         <v>1496</v>
-      </c>
-      <c r="C605" s="9" t="s">
-        <v>1497</v>
       </c>
       <c r="D605" s="9" t="s">
         <v>396</v>
@@ -14821,13 +15624,13 @@
     </row>
     <row r="606" spans="1:4" ht="20" customHeight="1">
       <c r="A606" s="7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B606" s="8" t="s">
         <v>1498</v>
       </c>
-      <c r="B606" s="8" t="s">
+      <c r="C606" s="9" t="s">
         <v>1499</v>
-      </c>
-      <c r="C606" s="9" t="s">
-        <v>1500</v>
       </c>
       <c r="D606" s="9" t="s">
         <v>396</v>
@@ -14835,13 +15638,13 @@
     </row>
     <row r="607" spans="1:4" ht="20" customHeight="1">
       <c r="A607" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B607" s="8" t="s">
         <v>1501</v>
       </c>
-      <c r="B607" s="8" t="s">
+      <c r="C607" s="9" t="s">
         <v>1502</v>
-      </c>
-      <c r="C607" s="9" t="s">
-        <v>1503</v>
       </c>
       <c r="D607" s="9" t="s">
         <v>396</v>
@@ -14849,13 +15652,13 @@
     </row>
     <row r="608" spans="1:4" ht="20" customHeight="1">
       <c r="A608" s="7" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B608" s="8" t="s">
         <v>1504</v>
       </c>
-      <c r="B608" s="8" t="s">
+      <c r="C608" s="9" t="s">
         <v>1505</v>
-      </c>
-      <c r="C608" s="9" t="s">
-        <v>1506</v>
       </c>
       <c r="D608" s="9" t="s">
         <v>396</v>
@@ -14863,13 +15666,13 @@
     </row>
     <row r="609" spans="1:4" ht="20" customHeight="1">
       <c r="A609" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B609" s="8" t="s">
         <v>1507</v>
       </c>
-      <c r="B609" s="8" t="s">
+      <c r="C609" s="9" t="s">
         <v>1508</v>
-      </c>
-      <c r="C609" s="9" t="s">
-        <v>1509</v>
       </c>
       <c r="D609" s="9" t="s">
         <v>396</v>
@@ -14877,13 +15680,13 @@
     </row>
     <row r="610" spans="1:4" ht="20" customHeight="1">
       <c r="A610" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B610" s="8" t="s">
         <v>1510</v>
       </c>
-      <c r="B610" s="8" t="s">
+      <c r="C610" s="9" t="s">
         <v>1511</v>
-      </c>
-      <c r="C610" s="9" t="s">
-        <v>1512</v>
       </c>
       <c r="D610" s="9" t="s">
         <v>396</v>
@@ -14891,13 +15694,13 @@
     </row>
     <row r="611" spans="1:4" ht="20" customHeight="1">
       <c r="A611" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B611" s="8" t="s">
         <v>1513</v>
       </c>
-      <c r="B611" s="8" t="s">
+      <c r="C611" s="9" t="s">
         <v>1514</v>
-      </c>
-      <c r="C611" s="9" t="s">
-        <v>1515</v>
       </c>
       <c r="D611" s="9" t="s">
         <v>396</v>
@@ -14905,13 +15708,13 @@
     </row>
     <row r="612" spans="1:4" ht="20" customHeight="1">
       <c r="A612" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B612" s="8" t="s">
         <v>1516</v>
       </c>
-      <c r="B612" s="8" t="s">
+      <c r="C612" s="9" t="s">
         <v>1517</v>
-      </c>
-      <c r="C612" s="9" t="s">
-        <v>1518</v>
       </c>
       <c r="D612" s="9" t="s">
         <v>396</v>
@@ -14919,13 +15722,13 @@
     </row>
     <row r="613" spans="1:4" ht="20" customHeight="1">
       <c r="A613" s="7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B613" s="8" t="s">
         <v>1519</v>
       </c>
-      <c r="B613" s="8" t="s">
+      <c r="C613" s="9" t="s">
         <v>1520</v>
-      </c>
-      <c r="C613" s="9" t="s">
-        <v>1521</v>
       </c>
       <c r="D613" s="9" t="s">
         <v>396</v>
@@ -14933,13 +15736,13 @@
     </row>
     <row r="614" spans="1:4" ht="20" customHeight="1">
       <c r="A614" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B614" s="8" t="s">
         <v>1522</v>
       </c>
-      <c r="B614" s="8" t="s">
+      <c r="C614" s="9" t="s">
         <v>1523</v>
-      </c>
-      <c r="C614" s="9" t="s">
-        <v>1524</v>
       </c>
       <c r="D614" s="9" t="s">
         <v>396</v>
@@ -14947,7 +15750,7 @@
     </row>
     <row r="615" spans="1:4" ht="20" customHeight="1">
       <c r="A615" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B615" s="10"/>
       <c r="C615" s="11"/>
@@ -14955,7 +15758,7 @@
     </row>
     <row r="616" spans="1:4" ht="20" customHeight="1">
       <c r="A616" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B616" s="10"/>
       <c r="C616" s="11"/>
@@ -14963,7 +15766,7 @@
     </row>
     <row r="617" spans="1:4" ht="20" customHeight="1">
       <c r="A617" s="7" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B617" s="10"/>
       <c r="C617" s="11"/>
@@ -14971,7 +15774,7 @@
     </row>
     <row r="618" spans="1:4" ht="20" customHeight="1">
       <c r="A618" s="7" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B618" s="10"/>
       <c r="C618" s="11"/>
@@ -14979,7 +15782,7 @@
     </row>
     <row r="619" spans="1:4" ht="20" customHeight="1">
       <c r="A619" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B619" s="10"/>
       <c r="C619" s="11"/>
@@ -14987,13 +15790,13 @@
     </row>
     <row r="620" spans="1:4" ht="20" customHeight="1">
       <c r="A620" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B620" s="8" t="s">
         <v>1530</v>
       </c>
-      <c r="B620" s="8" t="s">
+      <c r="C620" s="9" t="s">
         <v>1531</v>
-      </c>
-      <c r="C620" s="9" t="s">
-        <v>1532</v>
       </c>
       <c r="D620" s="9" t="s">
         <v>448</v>
@@ -15001,13 +15804,13 @@
     </row>
     <row r="621" spans="1:4" ht="20" customHeight="1">
       <c r="A621" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B621" s="8" t="s">
         <v>1533</v>
       </c>
-      <c r="B621" s="8" t="s">
+      <c r="C621" s="9" t="s">
         <v>1534</v>
-      </c>
-      <c r="C621" s="9" t="s">
-        <v>1535</v>
       </c>
       <c r="D621" s="9" t="s">
         <v>448</v>
@@ -15015,10 +15818,10 @@
     </row>
     <row r="622" spans="1:4" ht="20" customHeight="1">
       <c r="A622" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B622" s="8" t="s">
         <v>1536</v>
-      </c>
-      <c r="B622" s="8" t="s">
-        <v>1537</v>
       </c>
       <c r="C622" s="9" t="s">
         <v>19</v>
@@ -15029,13 +15832,13 @@
     </row>
     <row r="623" spans="1:4" ht="20" customHeight="1">
       <c r="A623" s="7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B623" s="8" t="s">
         <v>1538</v>
       </c>
-      <c r="B623" s="8" t="s">
+      <c r="C623" s="9" t="s">
         <v>1539</v>
-      </c>
-      <c r="C623" s="9" t="s">
-        <v>1540</v>
       </c>
       <c r="D623" s="9" t="s">
         <v>448</v>
@@ -15043,13 +15846,13 @@
     </row>
     <row r="624" spans="1:4" ht="20" customHeight="1">
       <c r="A624" s="7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B624" s="8" t="s">
         <v>1541</v>
       </c>
-      <c r="B624" s="8" t="s">
+      <c r="C624" s="9" t="s">
         <v>1542</v>
-      </c>
-      <c r="C624" s="9" t="s">
-        <v>1543</v>
       </c>
       <c r="D624" s="9" t="s">
         <v>448</v>
@@ -15057,13 +15860,13 @@
     </row>
     <row r="625" spans="1:4" ht="20" customHeight="1">
       <c r="A625" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B625" s="8" t="s">
         <v>1544</v>
       </c>
-      <c r="B625" s="8" t="s">
+      <c r="C625" s="9" t="s">
         <v>1545</v>
-      </c>
-      <c r="C625" s="9" t="s">
-        <v>1546</v>
       </c>
       <c r="D625" s="9" t="s">
         <v>448</v>
@@ -15071,13 +15874,13 @@
     </row>
     <row r="626" spans="1:4" ht="20" customHeight="1">
       <c r="A626" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B626" s="8" t="s">
         <v>1547</v>
       </c>
-      <c r="B626" s="8" t="s">
+      <c r="C626" s="9" t="s">
         <v>1548</v>
-      </c>
-      <c r="C626" s="9" t="s">
-        <v>1549</v>
       </c>
       <c r="D626" s="9" t="s">
         <v>448</v>
@@ -15085,13 +15888,13 @@
     </row>
     <row r="627" spans="1:4" ht="20" customHeight="1">
       <c r="A627" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B627" s="8" t="s">
         <v>1550</v>
       </c>
-      <c r="B627" s="8" t="s">
+      <c r="C627" s="9" t="s">
         <v>1551</v>
-      </c>
-      <c r="C627" s="9" t="s">
-        <v>1552</v>
       </c>
       <c r="D627" s="9" t="s">
         <v>448</v>
@@ -15099,13 +15902,13 @@
     </row>
     <row r="628" spans="1:4" ht="20" customHeight="1">
       <c r="A628" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B628" s="8" t="s">
         <v>1553</v>
       </c>
-      <c r="B628" s="8" t="s">
+      <c r="C628" s="9" t="s">
         <v>1554</v>
-      </c>
-      <c r="C628" s="9" t="s">
-        <v>1555</v>
       </c>
       <c r="D628" s="9" t="s">
         <v>448</v>
@@ -15113,13 +15916,13 @@
     </row>
     <row r="629" spans="1:4" ht="20" customHeight="1">
       <c r="A629" s="7" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B629" s="8" t="s">
         <v>1556</v>
       </c>
-      <c r="B629" s="8" t="s">
+      <c r="C629" s="9" t="s">
         <v>1557</v>
-      </c>
-      <c r="C629" s="9" t="s">
-        <v>1558</v>
       </c>
       <c r="D629" s="9" t="s">
         <v>448</v>
@@ -15127,13 +15930,13 @@
     </row>
     <row r="630" spans="1:4" ht="20" customHeight="1">
       <c r="A630" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B630" s="8" t="s">
         <v>1559</v>
       </c>
-      <c r="B630" s="8" t="s">
+      <c r="C630" s="9" t="s">
         <v>1560</v>
-      </c>
-      <c r="C630" s="9" t="s">
-        <v>1561</v>
       </c>
       <c r="D630" s="9" t="s">
         <v>448</v>
@@ -15141,13 +15944,13 @@
     </row>
     <row r="631" spans="1:4" ht="20" customHeight="1">
       <c r="A631" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B631" s="8" t="s">
         <v>1562</v>
       </c>
-      <c r="B631" s="8" t="s">
+      <c r="C631" s="9" t="s">
         <v>1563</v>
-      </c>
-      <c r="C631" s="9" t="s">
-        <v>1564</v>
       </c>
       <c r="D631" s="9" t="s">
         <v>448</v>
@@ -15155,13 +15958,13 @@
     </row>
     <row r="632" spans="1:4" ht="20" customHeight="1">
       <c r="A632" s="7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B632" s="8" t="s">
         <v>1565</v>
       </c>
-      <c r="B632" s="8" t="s">
+      <c r="C632" s="9" t="s">
         <v>1566</v>
-      </c>
-      <c r="C632" s="9" t="s">
-        <v>1567</v>
       </c>
       <c r="D632" s="9" t="s">
         <v>448</v>
@@ -15169,13 +15972,13 @@
     </row>
     <row r="633" spans="1:4" ht="20" customHeight="1">
       <c r="A633" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B633" s="8" t="s">
         <v>1568</v>
       </c>
-      <c r="B633" s="8" t="s">
+      <c r="C633" s="9" t="s">
         <v>1569</v>
-      </c>
-      <c r="C633" s="9" t="s">
-        <v>1570</v>
       </c>
       <c r="D633" s="9" t="s">
         <v>448</v>
@@ -15183,13 +15986,13 @@
     </row>
     <row r="634" spans="1:4" ht="20" customHeight="1">
       <c r="A634" s="7" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B634" s="8" t="s">
         <v>1571</v>
       </c>
-      <c r="B634" s="8" t="s">
+      <c r="C634" s="9" t="s">
         <v>1572</v>
-      </c>
-      <c r="C634" s="9" t="s">
-        <v>1573</v>
       </c>
       <c r="D634" s="9" t="s">
         <v>448</v>
@@ -15197,13 +16000,13 @@
     </row>
     <row r="635" spans="1:4" ht="20" customHeight="1">
       <c r="A635" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B635" s="8" t="s">
         <v>1574</v>
       </c>
-      <c r="B635" s="8" t="s">
+      <c r="C635" s="9" t="s">
         <v>1575</v>
-      </c>
-      <c r="C635" s="9" t="s">
-        <v>1576</v>
       </c>
       <c r="D635" s="9" t="s">
         <v>448</v>
@@ -15211,13 +16014,13 @@
     </row>
     <row r="636" spans="1:4" ht="20" customHeight="1">
       <c r="A636" s="7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B636" s="8" t="s">
         <v>1577</v>
       </c>
-      <c r="B636" s="8" t="s">
+      <c r="C636" s="9" t="s">
         <v>1578</v>
-      </c>
-      <c r="C636" s="9" t="s">
-        <v>1579</v>
       </c>
       <c r="D636" s="9" t="s">
         <v>448</v>
@@ -15225,13 +16028,13 @@
     </row>
     <row r="637" spans="1:4" ht="20" customHeight="1">
       <c r="A637" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B637" s="8" t="s">
         <v>1580</v>
       </c>
-      <c r="B637" s="8" t="s">
+      <c r="C637" s="9" t="s">
         <v>1581</v>
-      </c>
-      <c r="C637" s="9" t="s">
-        <v>1582</v>
       </c>
       <c r="D637" s="9" t="s">
         <v>448</v>
@@ -15239,13 +16042,13 @@
     </row>
     <row r="638" spans="1:4" ht="20" customHeight="1">
       <c r="A638" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B638" s="8" t="s">
         <v>1583</v>
       </c>
-      <c r="B638" s="8" t="s">
+      <c r="C638" s="9" t="s">
         <v>1584</v>
-      </c>
-      <c r="C638" s="9" t="s">
-        <v>1585</v>
       </c>
       <c r="D638" s="9" t="s">
         <v>448</v>
@@ -15253,13 +16056,13 @@
     </row>
     <row r="639" spans="1:4" ht="20" customHeight="1">
       <c r="A639" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B639" s="8" t="s">
         <v>1586</v>
       </c>
-      <c r="B639" s="8" t="s">
+      <c r="C639" s="9" t="s">
         <v>1587</v>
-      </c>
-      <c r="C639" s="9" t="s">
-        <v>1588</v>
       </c>
       <c r="D639" s="9" t="s">
         <v>448</v>
@@ -15267,13 +16070,13 @@
     </row>
     <row r="640" spans="1:4" ht="20" customHeight="1">
       <c r="A640" s="7" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B640" s="8" t="s">
         <v>1589</v>
       </c>
-      <c r="B640" s="8" t="s">
+      <c r="C640" s="9" t="s">
         <v>1590</v>
-      </c>
-      <c r="C640" s="9" t="s">
-        <v>1591</v>
       </c>
       <c r="D640" s="9" t="s">
         <v>448</v>
@@ -15281,13 +16084,13 @@
     </row>
     <row r="641" spans="1:4" ht="20" customHeight="1">
       <c r="A641" s="7" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B641" s="8" t="s">
         <v>1592</v>
       </c>
-      <c r="B641" s="8" t="s">
+      <c r="C641" s="9" t="s">
         <v>1593</v>
-      </c>
-      <c r="C641" s="9" t="s">
-        <v>1594</v>
       </c>
       <c r="D641" s="9" t="s">
         <v>448</v>
@@ -15295,13 +16098,13 @@
     </row>
     <row r="642" spans="1:4" ht="20" customHeight="1">
       <c r="A642" s="7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B642" s="8" t="s">
         <v>1595</v>
       </c>
-      <c r="B642" s="8" t="s">
+      <c r="C642" s="9" t="s">
         <v>1596</v>
-      </c>
-      <c r="C642" s="9" t="s">
-        <v>1597</v>
       </c>
       <c r="D642" s="9" t="s">
         <v>448</v>
@@ -15309,13 +16112,13 @@
     </row>
     <row r="643" spans="1:4" ht="20" customHeight="1">
       <c r="A643" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B643" s="8" t="s">
         <v>1598</v>
       </c>
-      <c r="B643" s="8" t="s">
+      <c r="C643" s="9" t="s">
         <v>1599</v>
-      </c>
-      <c r="C643" s="9" t="s">
-        <v>1600</v>
       </c>
       <c r="D643" s="9" t="s">
         <v>448</v>
@@ -15323,13 +16126,13 @@
     </row>
     <row r="644" spans="1:4" ht="20" customHeight="1">
       <c r="A644" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B644" s="8" t="s">
         <v>1601</v>
       </c>
-      <c r="B644" s="8" t="s">
+      <c r="C644" s="9" t="s">
         <v>1602</v>
-      </c>
-      <c r="C644" s="9" t="s">
-        <v>1603</v>
       </c>
       <c r="D644" s="9" t="s">
         <v>448</v>
@@ -15337,13 +16140,13 @@
     </row>
     <row r="645" spans="1:4" ht="20" customHeight="1">
       <c r="A645" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B645" s="8" t="s">
         <v>1604</v>
       </c>
-      <c r="B645" s="8" t="s">
+      <c r="C645" s="9" t="s">
         <v>1605</v>
-      </c>
-      <c r="C645" s="9" t="s">
-        <v>1606</v>
       </c>
       <c r="D645" s="9" t="s">
         <v>448</v>
@@ -15351,13 +16154,13 @@
     </row>
     <row r="646" spans="1:4" ht="20" customHeight="1">
       <c r="A646" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B646" s="8" t="s">
         <v>1607</v>
       </c>
-      <c r="B646" s="8" t="s">
+      <c r="C646" s="9" t="s">
         <v>1608</v>
-      </c>
-      <c r="C646" s="9" t="s">
-        <v>1609</v>
       </c>
       <c r="D646" s="9" t="s">
         <v>448</v>
@@ -15365,13 +16168,13 @@
     </row>
     <row r="647" spans="1:4" ht="20" customHeight="1">
       <c r="A647" s="7" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B647" s="8" t="s">
         <v>1610</v>
       </c>
-      <c r="B647" s="8" t="s">
+      <c r="C647" s="9" t="s">
         <v>1611</v>
-      </c>
-      <c r="C647" s="9" t="s">
-        <v>1612</v>
       </c>
       <c r="D647" s="9" t="s">
         <v>448</v>
@@ -15379,7 +16182,7 @@
     </row>
     <row r="648" spans="1:4" ht="20" customHeight="1">
       <c r="A648" s="7" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B648" s="10"/>
       <c r="C648" s="11"/>
@@ -15387,7 +16190,7 @@
     </row>
     <row r="649" spans="1:4" ht="20" customHeight="1">
       <c r="A649" s="7" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B649" s="10"/>
       <c r="C649" s="11"/>
@@ -15395,7 +16198,7 @@
     </row>
     <row r="650" spans="1:4" ht="20" customHeight="1">
       <c r="A650" s="7" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B650" s="10"/>
       <c r="C650" s="11"/>
@@ -15403,7 +16206,7 @@
     </row>
     <row r="651" spans="1:4" ht="20" customHeight="1">
       <c r="A651" s="7" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B651" s="10"/>
       <c r="C651" s="11"/>
@@ -15411,7 +16214,7 @@
     </row>
     <row r="652" spans="1:4" ht="20" customHeight="1">
       <c r="A652" s="7" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B652" s="10"/>
       <c r="C652" s="11"/>
@@ -15419,7 +16222,7 @@
     </row>
     <row r="653" spans="1:4" ht="20" customHeight="1">
       <c r="A653" s="7" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B653" s="10"/>
       <c r="C653" s="11"/>
@@ -15427,7 +16230,7 @@
     </row>
     <row r="654" spans="1:4" ht="20" customHeight="1">
       <c r="A654" s="7" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B654" s="10"/>
       <c r="C654" s="11"/>
@@ -15435,7 +16238,7 @@
     </row>
     <row r="655" spans="1:4" ht="20" customHeight="1">
       <c r="A655" s="7" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B655" s="10"/>
       <c r="C655" s="11"/>
@@ -15443,7 +16246,7 @@
     </row>
     <row r="656" spans="1:4" ht="20" customHeight="1">
       <c r="A656" s="7" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B656" s="10"/>
       <c r="C656" s="11"/>
@@ -15451,7 +16254,7 @@
     </row>
     <row r="657" spans="1:4" ht="20" customHeight="1">
       <c r="A657" s="7" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B657" s="10"/>
       <c r="C657" s="11"/>
@@ -15459,7 +16262,7 @@
     </row>
     <row r="658" spans="1:4" ht="20" customHeight="1">
       <c r="A658" s="7" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B658" s="10"/>
       <c r="C658" s="11"/>
@@ -15467,7 +16270,7 @@
     </row>
     <row r="659" spans="1:4" ht="20" customHeight="1">
       <c r="A659" s="7" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B659" s="10"/>
       <c r="C659" s="11"/>
@@ -15475,7 +16278,7 @@
     </row>
     <row r="660" spans="1:4" ht="20" customHeight="1">
       <c r="A660" s="7" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B660" s="10"/>
       <c r="C660" s="11"/>
@@ -15483,7 +16286,7 @@
     </row>
     <row r="661" spans="1:4" ht="20" customHeight="1">
       <c r="A661" s="7" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B661" s="10"/>
       <c r="C661" s="11"/>
@@ -15491,7 +16294,7 @@
     </row>
     <row r="662" spans="1:4" ht="20" customHeight="1">
       <c r="A662" s="7" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B662" s="10"/>
       <c r="C662" s="11"/>
@@ -15499,7 +16302,7 @@
     </row>
     <row r="663" spans="1:4" ht="20" customHeight="1">
       <c r="A663" s="7" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B663" s="10"/>
       <c r="C663" s="11"/>
@@ -15507,7 +16310,7 @@
     </row>
     <row r="664" spans="1:4" ht="20" customHeight="1">
       <c r="A664" s="7" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B664" s="10"/>
       <c r="C664" s="11"/>
@@ -15515,7 +16318,7 @@
     </row>
     <row r="665" spans="1:4" ht="20" customHeight="1">
       <c r="A665" s="7" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B665" s="10"/>
       <c r="C665" s="11"/>
@@ -15523,7 +16326,7 @@
     </row>
     <row r="666" spans="1:4" ht="20" customHeight="1">
       <c r="A666" s="7" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B666" s="10"/>
       <c r="C666" s="11"/>
@@ -15531,7 +16334,7 @@
     </row>
     <row r="667" spans="1:4" ht="20" customHeight="1">
       <c r="A667" s="7" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B667" s="10"/>
       <c r="C667" s="11"/>
@@ -15539,7 +16342,7 @@
     </row>
     <row r="668" spans="1:4" ht="20" customHeight="1">
       <c r="A668" s="7" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B668" s="10"/>
       <c r="C668" s="11"/>
@@ -15547,7 +16350,7 @@
     </row>
     <row r="669" spans="1:4" ht="20" customHeight="1">
       <c r="A669" s="7" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B669" s="10"/>
       <c r="C669" s="11"/>
@@ -15555,7 +16358,7 @@
     </row>
     <row r="670" spans="1:4" ht="20" customHeight="1">
       <c r="A670" s="7" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B670" s="10"/>
       <c r="C670" s="11"/>
@@ -15563,7 +16366,7 @@
     </row>
     <row r="671" spans="1:4" ht="20" customHeight="1">
       <c r="A671" s="7" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B671" s="10"/>
       <c r="C671" s="11"/>
@@ -15571,7 +16374,7 @@
     </row>
     <row r="672" spans="1:4" ht="20" customHeight="1">
       <c r="A672" s="7" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B672" s="10"/>
       <c r="C672" s="11"/>
@@ -15579,7 +16382,7 @@
     </row>
     <row r="673" spans="1:4" ht="20" customHeight="1">
       <c r="A673" s="7" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B673" s="10"/>
       <c r="C673" s="11"/>
@@ -15587,7 +16390,7 @@
     </row>
     <row r="674" spans="1:4" ht="20" customHeight="1">
       <c r="A674" s="7" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B674" s="10"/>
       <c r="C674" s="11"/>
@@ -15595,7 +16398,7 @@
     </row>
     <row r="675" spans="1:4" ht="20" customHeight="1">
       <c r="A675" s="7" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B675" s="10"/>
       <c r="C675" s="11"/>
@@ -15603,7 +16406,7 @@
     </row>
     <row r="676" spans="1:4" ht="20" customHeight="1">
       <c r="A676" s="7" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B676" s="10"/>
       <c r="C676" s="11"/>
@@ -15611,7 +16414,7 @@
     </row>
     <row r="677" spans="1:4" ht="20" customHeight="1">
       <c r="A677" s="7" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B677" s="10"/>
       <c r="C677" s="11"/>
@@ -15619,7 +16422,7 @@
     </row>
     <row r="678" spans="1:4" ht="20" customHeight="1">
       <c r="A678" s="7" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B678" s="10"/>
       <c r="C678" s="11"/>
@@ -15627,7 +16430,7 @@
     </row>
     <row r="679" spans="1:4" ht="20" customHeight="1">
       <c r="A679" s="7" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B679" s="10"/>
       <c r="C679" s="11"/>
@@ -15635,7 +16438,7 @@
     </row>
     <row r="680" spans="1:4" ht="20" customHeight="1">
       <c r="A680" s="7" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B680" s="10"/>
       <c r="C680" s="11"/>
@@ -15643,7 +16446,7 @@
     </row>
     <row r="681" spans="1:4" ht="20" customHeight="1">
       <c r="A681" s="7" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B681" s="10"/>
       <c r="C681" s="11"/>
@@ -15651,7 +16454,7 @@
     </row>
     <row r="682" spans="1:4" ht="20" customHeight="1">
       <c r="A682" s="7" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B682" s="10"/>
       <c r="C682" s="11"/>
@@ -15659,7 +16462,7 @@
     </row>
     <row r="683" spans="1:4" ht="20" customHeight="1">
       <c r="A683" s="7" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B683" s="10"/>
       <c r="C683" s="11"/>
@@ -15667,799 +16470,799 @@
     </row>
     <row r="684" spans="1:4" ht="20" customHeight="1">
       <c r="A684" s="7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B684" s="8" t="s">
         <v>1649</v>
       </c>
-      <c r="B684" s="8" t="s">
+      <c r="C684" s="9" t="s">
         <v>1650</v>
-      </c>
-      <c r="C684" s="9" t="s">
-        <v>1651</v>
       </c>
       <c r="D684" s="11"/>
     </row>
     <row r="685" spans="1:4" ht="20" customHeight="1">
       <c r="A685" s="7" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B685" s="8" t="s">
         <v>1652</v>
       </c>
-      <c r="B685" s="8" t="s">
+      <c r="C685" s="9" t="s">
         <v>1653</v>
-      </c>
-      <c r="C685" s="9" t="s">
-        <v>1654</v>
       </c>
       <c r="D685" s="11"/>
     </row>
     <row r="686" spans="1:4" ht="20" customHeight="1">
       <c r="A686" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B686" s="8" t="s">
         <v>1655</v>
       </c>
-      <c r="B686" s="8" t="s">
+      <c r="C686" s="9" t="s">
         <v>1656</v>
-      </c>
-      <c r="C686" s="9" t="s">
-        <v>1657</v>
       </c>
       <c r="D686" s="11"/>
     </row>
     <row r="687" spans="1:4" ht="20" customHeight="1">
       <c r="A687" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B687" s="8" t="s">
         <v>1658</v>
       </c>
-      <c r="B687" s="8" t="s">
-        <v>1659</v>
-      </c>
       <c r="C687" s="9" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D687" s="11"/>
     </row>
     <row r="688" spans="1:4" ht="20" customHeight="1">
       <c r="A688" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B688" s="8" t="s">
         <v>1660</v>
       </c>
-      <c r="B688" s="8" t="s">
-        <v>1661</v>
-      </c>
       <c r="C688" s="9" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D688" s="11"/>
     </row>
     <row r="689" spans="1:4" ht="20" customHeight="1">
       <c r="A689" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B689" s="8" t="s">
         <v>1662</v>
       </c>
-      <c r="B689" s="8" t="s">
+      <c r="C689" s="9" t="s">
         <v>1663</v>
-      </c>
-      <c r="C689" s="9" t="s">
-        <v>1664</v>
       </c>
       <c r="D689" s="11"/>
     </row>
     <row r="690" spans="1:4" ht="20" customHeight="1">
       <c r="A690" s="7" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B690" s="8" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C690" s="9" t="s">
         <v>1554</v>
-      </c>
-      <c r="C690" s="9" t="s">
-        <v>1555</v>
       </c>
       <c r="D690" s="11"/>
     </row>
     <row r="691" spans="1:4" ht="20" customHeight="1">
       <c r="A691" s="7" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B691" s="8" t="s">
         <v>1666</v>
       </c>
-      <c r="B691" s="8" t="s">
+      <c r="C691" s="9" t="s">
         <v>1667</v>
-      </c>
-      <c r="C691" s="9" t="s">
-        <v>1668</v>
       </c>
       <c r="D691" s="11"/>
     </row>
     <row r="692" spans="1:4" ht="20" customHeight="1">
       <c r="A692" s="7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B692" s="8" t="s">
         <v>1669</v>
       </c>
-      <c r="B692" s="8" t="s">
+      <c r="C692" s="9" t="s">
         <v>1670</v>
-      </c>
-      <c r="C692" s="9" t="s">
-        <v>1671</v>
       </c>
       <c r="D692" s="11"/>
     </row>
     <row r="693" spans="1:4" ht="20" customHeight="1">
       <c r="A693" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B693" s="17" t="s">
         <v>1672</v>
       </c>
-      <c r="B693" s="17" t="s">
+      <c r="C693" s="9" t="s">
         <v>1673</v>
-      </c>
-      <c r="C693" s="9" t="s">
-        <v>1674</v>
       </c>
       <c r="D693" s="11"/>
     </row>
     <row r="694" spans="1:4" ht="20" customHeight="1">
       <c r="A694" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B694" s="8" t="s">
         <v>1675</v>
       </c>
-      <c r="B694" s="8" t="s">
+      <c r="C694" s="9" t="s">
         <v>1676</v>
-      </c>
-      <c r="C694" s="9" t="s">
-        <v>1677</v>
       </c>
       <c r="D694" s="11"/>
     </row>
     <row r="695" spans="1:4" ht="20" customHeight="1">
       <c r="A695" s="7" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B695" s="8" t="s">
         <v>1678</v>
       </c>
-      <c r="B695" s="8" t="s">
+      <c r="C695" s="9" t="s">
         <v>1679</v>
-      </c>
-      <c r="C695" s="9" t="s">
-        <v>1680</v>
       </c>
       <c r="D695" s="11"/>
     </row>
     <row r="696" spans="1:4" ht="20" customHeight="1">
       <c r="A696" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B696" s="8" t="s">
         <v>1681</v>
       </c>
-      <c r="B696" s="8" t="s">
+      <c r="C696" s="9" t="s">
         <v>1682</v>
-      </c>
-      <c r="C696" s="9" t="s">
-        <v>1683</v>
       </c>
       <c r="D696" s="11"/>
     </row>
     <row r="697" spans="1:4" ht="20" customHeight="1">
       <c r="A697" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B697" s="8" t="s">
         <v>1684</v>
       </c>
-      <c r="B697" s="8" t="s">
+      <c r="C697" s="9" t="s">
         <v>1685</v>
-      </c>
-      <c r="C697" s="9" t="s">
-        <v>1686</v>
       </c>
       <c r="D697" s="11"/>
     </row>
     <row r="698" spans="1:4" ht="20" customHeight="1">
       <c r="A698" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B698" s="8" t="s">
         <v>1687</v>
       </c>
-      <c r="B698" s="8" t="s">
-        <v>1688</v>
-      </c>
       <c r="C698" s="9" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D698" s="11"/>
     </row>
     <row r="699" spans="1:4" ht="20" customHeight="1">
       <c r="A699" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B699" s="8" t="s">
         <v>1689</v>
       </c>
-      <c r="B699" s="8" t="s">
+      <c r="C699" s="9" t="s">
         <v>1690</v>
-      </c>
-      <c r="C699" s="9" t="s">
-        <v>1691</v>
       </c>
       <c r="D699" s="11"/>
     </row>
     <row r="700" spans="1:4" ht="20" customHeight="1">
       <c r="A700" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B700" s="8" t="s">
         <v>1692</v>
       </c>
-      <c r="B700" s="8" t="s">
+      <c r="C700" s="9" t="s">
         <v>1693</v>
-      </c>
-      <c r="C700" s="9" t="s">
-        <v>1694</v>
       </c>
       <c r="D700" s="11"/>
     </row>
     <row r="701" spans="1:4" ht="20" customHeight="1">
       <c r="A701" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B701" s="8" t="s">
         <v>1695</v>
       </c>
-      <c r="B701" s="8" t="s">
+      <c r="C701" s="9" t="s">
         <v>1696</v>
-      </c>
-      <c r="C701" s="9" t="s">
-        <v>1697</v>
       </c>
       <c r="D701" s="11"/>
     </row>
     <row r="702" spans="1:4" ht="20" customHeight="1">
       <c r="A702" s="7" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B702" s="8" t="s">
         <v>1698</v>
       </c>
-      <c r="B702" s="8" t="s">
-        <v>1699</v>
-      </c>
       <c r="C702" s="9" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D702" s="11"/>
     </row>
     <row r="703" spans="1:4" ht="20" customHeight="1">
       <c r="A703" s="7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B703" s="8" t="s">
         <v>1700</v>
       </c>
-      <c r="B703" s="8" t="s">
+      <c r="C703" s="9" t="s">
         <v>1701</v>
-      </c>
-      <c r="C703" s="9" t="s">
-        <v>1702</v>
       </c>
       <c r="D703" s="11"/>
     </row>
     <row r="704" spans="1:4" ht="20" customHeight="1">
       <c r="A704" s="7" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B704" s="8" t="s">
         <v>1703</v>
       </c>
-      <c r="B704" s="8" t="s">
+      <c r="C704" s="9" t="s">
         <v>1704</v>
-      </c>
-      <c r="C704" s="9" t="s">
-        <v>1705</v>
       </c>
       <c r="D704" s="11"/>
     </row>
     <row r="705" spans="1:4" ht="20" customHeight="1">
       <c r="A705" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B705" s="8" t="s">
         <v>1706</v>
       </c>
-      <c r="B705" s="8" t="s">
+      <c r="C705" s="9" t="s">
         <v>1707</v>
-      </c>
-      <c r="C705" s="9" t="s">
-        <v>1708</v>
       </c>
       <c r="D705" s="11"/>
     </row>
     <row r="706" spans="1:4" ht="20" customHeight="1">
       <c r="A706" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B706" s="8" t="s">
         <v>1709</v>
       </c>
-      <c r="B706" s="8" t="s">
+      <c r="C706" s="9" t="s">
         <v>1710</v>
-      </c>
-      <c r="C706" s="9" t="s">
-        <v>1711</v>
       </c>
       <c r="D706" s="11"/>
     </row>
     <row r="707" spans="1:4" ht="20" customHeight="1">
       <c r="A707" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B707" s="8" t="s">
         <v>1712</v>
       </c>
-      <c r="B707" s="8" t="s">
+      <c r="C707" s="9" t="s">
         <v>1713</v>
-      </c>
-      <c r="C707" s="9" t="s">
-        <v>1714</v>
       </c>
       <c r="D707" s="11"/>
     </row>
     <row r="708" spans="1:4" ht="20" customHeight="1">
       <c r="A708" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B708" s="8" t="s">
         <v>1715</v>
       </c>
-      <c r="B708" s="8" t="s">
+      <c r="C708" s="9" t="s">
         <v>1716</v>
-      </c>
-      <c r="C708" s="9" t="s">
-        <v>1717</v>
       </c>
       <c r="D708" s="11"/>
     </row>
     <row r="709" spans="1:4" ht="20" customHeight="1">
       <c r="A709" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B709" s="8" t="s">
         <v>1718</v>
       </c>
-      <c r="B709" s="8" t="s">
+      <c r="C709" s="9" t="s">
         <v>1719</v>
-      </c>
-      <c r="C709" s="9" t="s">
-        <v>1720</v>
       </c>
       <c r="D709" s="11"/>
     </row>
     <row r="710" spans="1:4" ht="20" customHeight="1">
       <c r="A710" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B710" s="8" t="s">
         <v>1721</v>
       </c>
-      <c r="B710" s="8" t="s">
+      <c r="C710" s="9" t="s">
         <v>1722</v>
-      </c>
-      <c r="C710" s="9" t="s">
-        <v>1723</v>
       </c>
       <c r="D710" s="11"/>
     </row>
     <row r="711" spans="1:4" ht="20" customHeight="1">
       <c r="A711" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B711" s="8" t="s">
         <v>1724</v>
       </c>
-      <c r="B711" s="8" t="s">
+      <c r="C711" s="9" t="s">
         <v>1725</v>
-      </c>
-      <c r="C711" s="9" t="s">
-        <v>1726</v>
       </c>
       <c r="D711" s="11"/>
     </row>
     <row r="712" spans="1:4" ht="20" customHeight="1">
       <c r="A712" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B712" s="8" t="s">
         <v>1727</v>
       </c>
-      <c r="B712" s="8" t="s">
+      <c r="C712" s="9" t="s">
         <v>1728</v>
-      </c>
-      <c r="C712" s="9" t="s">
-        <v>1729</v>
       </c>
       <c r="D712" s="11"/>
     </row>
     <row r="713" spans="1:4" ht="20" customHeight="1">
       <c r="A713" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B713" s="8" t="s">
         <v>1730</v>
       </c>
-      <c r="B713" s="8" t="s">
+      <c r="C713" s="9" t="s">
         <v>1731</v>
-      </c>
-      <c r="C713" s="9" t="s">
-        <v>1732</v>
       </c>
       <c r="D713" s="11"/>
     </row>
     <row r="714" spans="1:4" ht="20" customHeight="1">
       <c r="A714" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B714" s="8" t="s">
         <v>1733</v>
       </c>
-      <c r="B714" s="8" t="s">
+      <c r="C714" s="9" t="s">
         <v>1734</v>
-      </c>
-      <c r="C714" s="9" t="s">
-        <v>1735</v>
       </c>
       <c r="D714" s="11"/>
     </row>
     <row r="715" spans="1:4" ht="20" customHeight="1">
       <c r="A715" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B715" s="8" t="s">
         <v>1736</v>
       </c>
-      <c r="B715" s="8" t="s">
+      <c r="C715" s="9" t="s">
         <v>1737</v>
-      </c>
-      <c r="C715" s="9" t="s">
-        <v>1738</v>
       </c>
       <c r="D715" s="11"/>
     </row>
     <row r="716" spans="1:4" ht="20" customHeight="1">
       <c r="A716" s="7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B716" s="8" t="s">
         <v>1739</v>
       </c>
-      <c r="B716" s="8" t="s">
+      <c r="C716" s="9" t="s">
         <v>1740</v>
-      </c>
-      <c r="C716" s="9" t="s">
-        <v>1741</v>
       </c>
       <c r="D716" s="11"/>
     </row>
     <row r="717" spans="1:4" ht="20" customHeight="1">
       <c r="A717" s="7" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B717" s="8" t="s">
         <v>1742</v>
       </c>
-      <c r="B717" s="8" t="s">
+      <c r="C717" s="9" t="s">
         <v>1743</v>
-      </c>
-      <c r="C717" s="9" t="s">
-        <v>1744</v>
       </c>
       <c r="D717" s="11"/>
     </row>
     <row r="718" spans="1:4" ht="20" customHeight="1">
       <c r="A718" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B718" s="8" t="s">
         <v>1745</v>
       </c>
-      <c r="B718" s="8" t="s">
+      <c r="C718" s="9" t="s">
         <v>1746</v>
-      </c>
-      <c r="C718" s="9" t="s">
-        <v>1747</v>
       </c>
       <c r="D718" s="11"/>
     </row>
     <row r="719" spans="1:4" ht="20" customHeight="1">
       <c r="A719" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B719" s="8" t="s">
         <v>1748</v>
       </c>
-      <c r="B719" s="8" t="s">
+      <c r="C719" s="9" t="s">
         <v>1749</v>
-      </c>
-      <c r="C719" s="9" t="s">
-        <v>1750</v>
       </c>
       <c r="D719" s="11"/>
     </row>
     <row r="720" spans="1:4" ht="20" customHeight="1">
       <c r="A720" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B720" s="8" t="s">
         <v>1751</v>
       </c>
-      <c r="B720" s="8" t="s">
+      <c r="C720" s="9" t="s">
         <v>1752</v>
-      </c>
-      <c r="C720" s="9" t="s">
-        <v>1753</v>
       </c>
       <c r="D720" s="11"/>
     </row>
     <row r="721" spans="1:4" ht="20" customHeight="1">
       <c r="A721" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B721" s="8" t="s">
         <v>1754</v>
       </c>
-      <c r="B721" s="8" t="s">
+      <c r="C721" s="9" t="s">
         <v>1755</v>
-      </c>
-      <c r="C721" s="9" t="s">
-        <v>1756</v>
       </c>
       <c r="D721" s="11"/>
     </row>
     <row r="722" spans="1:4" ht="20" customHeight="1">
       <c r="A722" s="7" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B722" s="8" t="s">
         <v>1757</v>
       </c>
-      <c r="B722" s="8" t="s">
+      <c r="C722" s="9" t="s">
         <v>1758</v>
-      </c>
-      <c r="C722" s="9" t="s">
-        <v>1759</v>
       </c>
       <c r="D722" s="11"/>
     </row>
     <row r="723" spans="1:4" ht="20" customHeight="1">
       <c r="A723" s="7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B723" s="8" t="s">
         <v>1760</v>
       </c>
-      <c r="B723" s="8" t="s">
+      <c r="C723" s="9" t="s">
         <v>1761</v>
-      </c>
-      <c r="C723" s="9" t="s">
-        <v>1762</v>
       </c>
       <c r="D723" s="11"/>
     </row>
     <row r="724" spans="1:4" ht="20" customHeight="1">
       <c r="A724" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B724" s="8" t="s">
         <v>1763</v>
       </c>
-      <c r="B724" s="8" t="s">
+      <c r="C724" s="9" t="s">
         <v>1764</v>
-      </c>
-      <c r="C724" s="9" t="s">
-        <v>1765</v>
       </c>
       <c r="D724" s="11"/>
     </row>
     <row r="725" spans="1:4" ht="20" customHeight="1">
       <c r="A725" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B725" s="8" t="s">
         <v>1766</v>
       </c>
-      <c r="B725" s="8" t="s">
+      <c r="C725" s="9" t="s">
         <v>1767</v>
-      </c>
-      <c r="C725" s="9" t="s">
-        <v>1768</v>
       </c>
       <c r="D725" s="11"/>
     </row>
     <row r="726" spans="1:4" ht="20" customHeight="1">
       <c r="A726" s="7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B726" s="8" t="s">
         <v>1769</v>
       </c>
-      <c r="B726" s="8" t="s">
+      <c r="C726" s="9" t="s">
         <v>1770</v>
-      </c>
-      <c r="C726" s="9" t="s">
-        <v>1771</v>
       </c>
       <c r="D726" s="11"/>
     </row>
     <row r="727" spans="1:4" ht="20" customHeight="1">
       <c r="A727" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B727" s="8" t="s">
         <v>1772</v>
       </c>
-      <c r="B727" s="8" t="s">
+      <c r="C727" s="9" t="s">
         <v>1773</v>
-      </c>
-      <c r="C727" s="9" t="s">
-        <v>1774</v>
       </c>
       <c r="D727" s="11"/>
     </row>
     <row r="728" spans="1:4" ht="20" customHeight="1">
       <c r="A728" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B728" s="8" t="s">
         <v>1775</v>
       </c>
-      <c r="B728" s="8" t="s">
+      <c r="C728" s="9" t="s">
         <v>1776</v>
-      </c>
-      <c r="C728" s="9" t="s">
-        <v>1777</v>
       </c>
       <c r="D728" s="11"/>
     </row>
     <row r="729" spans="1:4" ht="20" customHeight="1">
       <c r="A729" s="7" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B729" s="8" t="s">
         <v>1778</v>
       </c>
-      <c r="B729" s="8" t="s">
+      <c r="C729" s="9" t="s">
         <v>1779</v>
-      </c>
-      <c r="C729" s="9" t="s">
-        <v>1780</v>
       </c>
       <c r="D729" s="11"/>
     </row>
     <row r="730" spans="1:4" ht="20" customHeight="1">
       <c r="A730" s="7" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B730" s="8" t="s">
         <v>1781</v>
       </c>
-      <c r="B730" s="8" t="s">
-        <v>1782</v>
-      </c>
       <c r="C730" s="9" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D730" s="11"/>
     </row>
     <row r="731" spans="1:4" ht="20" customHeight="1">
       <c r="A731" s="7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B731" s="8" t="s">
         <v>1783</v>
       </c>
-      <c r="B731" s="8" t="s">
+      <c r="C731" s="9" t="s">
         <v>1784</v>
-      </c>
-      <c r="C731" s="9" t="s">
-        <v>1785</v>
       </c>
       <c r="D731" s="11"/>
     </row>
     <row r="732" spans="1:4" ht="20" customHeight="1">
       <c r="A732" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B732" s="8" t="s">
         <v>1786</v>
       </c>
-      <c r="B732" s="8" t="s">
+      <c r="C732" s="9" t="s">
         <v>1787</v>
-      </c>
-      <c r="C732" s="9" t="s">
-        <v>1788</v>
       </c>
       <c r="D732" s="11"/>
     </row>
     <row r="733" spans="1:4" ht="20" customHeight="1">
       <c r="A733" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B733" s="8" t="s">
         <v>1789</v>
       </c>
-      <c r="B733" s="8" t="s">
+      <c r="C733" s="9" t="s">
         <v>1790</v>
-      </c>
-      <c r="C733" s="9" t="s">
-        <v>1791</v>
       </c>
       <c r="D733" s="11"/>
     </row>
     <row r="734" spans="1:4" ht="20" customHeight="1">
       <c r="A734" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B734" s="8" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C734" s="9" t="s">
         <v>1792</v>
-      </c>
-      <c r="B734" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C734" s="9" t="s">
-        <v>1793</v>
       </c>
       <c r="D734" s="11"/>
     </row>
     <row r="735" spans="1:4" ht="20" customHeight="1">
       <c r="A735" s="7" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B735" s="8" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C735" s="9" t="s">
         <v>1707</v>
-      </c>
-      <c r="C735" s="9" t="s">
-        <v>1708</v>
       </c>
       <c r="D735" s="11"/>
     </row>
     <row r="736" spans="1:4" ht="20" customHeight="1">
       <c r="A736" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B736" s="8" t="s">
         <v>1795</v>
       </c>
-      <c r="B736" s="8" t="s">
+      <c r="C736" s="9" t="s">
         <v>1796</v>
-      </c>
-      <c r="C736" s="9" t="s">
-        <v>1797</v>
       </c>
       <c r="D736" s="11"/>
     </row>
     <row r="737" spans="1:4" ht="20" customHeight="1">
       <c r="A737" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B737" s="8" t="s">
         <v>1798</v>
       </c>
-      <c r="B737" s="8" t="s">
+      <c r="C737" s="9" t="s">
         <v>1799</v>
-      </c>
-      <c r="C737" s="9" t="s">
-        <v>1800</v>
       </c>
       <c r="D737" s="11"/>
     </row>
     <row r="738" spans="1:4" ht="20" customHeight="1">
       <c r="A738" s="7" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B738" s="8" t="s">
         <v>1801</v>
       </c>
-      <c r="B738" s="8" t="s">
+      <c r="C738" s="9" t="s">
         <v>1802</v>
-      </c>
-      <c r="C738" s="9" t="s">
-        <v>1803</v>
       </c>
       <c r="D738" s="11"/>
     </row>
     <row r="739" spans="1:4" ht="20" customHeight="1">
       <c r="A739" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B739" s="8" t="s">
         <v>1804</v>
       </c>
-      <c r="B739" s="8" t="s">
+      <c r="C739" s="9" t="s">
         <v>1805</v>
-      </c>
-      <c r="C739" s="9" t="s">
-        <v>1806</v>
       </c>
       <c r="D739" s="11"/>
     </row>
     <row r="740" spans="1:4" ht="20" customHeight="1">
       <c r="A740" s="7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B740" s="8" t="s">
         <v>1807</v>
       </c>
-      <c r="B740" s="8" t="s">
+      <c r="C740" s="9" t="s">
         <v>1808</v>
-      </c>
-      <c r="C740" s="9" t="s">
-        <v>1809</v>
       </c>
       <c r="D740" s="11"/>
     </row>
     <row r="741" spans="1:4" ht="20" customHeight="1">
       <c r="A741" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B741" s="8" t="s">
         <v>1810</v>
       </c>
-      <c r="B741" s="8" t="s">
+      <c r="C741" s="9" t="s">
         <v>1811</v>
-      </c>
-      <c r="C741" s="9" t="s">
-        <v>1812</v>
       </c>
       <c r="D741" s="11"/>
     </row>
     <row r="742" spans="1:4" ht="20" customHeight="1">
       <c r="A742" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B742" s="8" t="s">
         <v>1813</v>
       </c>
-      <c r="B742" s="8" t="s">
+      <c r="C742" s="9" t="s">
         <v>1814</v>
-      </c>
-      <c r="C742" s="9" t="s">
-        <v>1815</v>
       </c>
       <c r="D742" s="11"/>
     </row>
     <row r="743" spans="1:4" ht="20" customHeight="1">
       <c r="A743" s="7" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B743" s="8" t="s">
         <v>1816</v>
       </c>
-      <c r="B743" s="8" t="s">
+      <c r="C743" s="9" t="s">
         <v>1817</v>
-      </c>
-      <c r="C743" s="9" t="s">
-        <v>1818</v>
       </c>
       <c r="D743" s="11"/>
     </row>
     <row r="744" spans="1:4" ht="20" customHeight="1">
       <c r="A744" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B744" s="8" t="s">
         <v>1819</v>
       </c>
-      <c r="B744" s="8" t="s">
+      <c r="C744" s="9" t="s">
         <v>1820</v>
-      </c>
-      <c r="C744" s="9" t="s">
-        <v>1821</v>
       </c>
       <c r="D744" s="11"/>
     </row>
     <row r="745" spans="1:4" ht="20" customHeight="1">
       <c r="A745" s="7" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B745" s="8" t="s">
         <v>1822</v>
       </c>
-      <c r="B745" s="8" t="s">
+      <c r="C745" s="9" t="s">
         <v>1823</v>
-      </c>
-      <c r="C745" s="9" t="s">
-        <v>1824</v>
       </c>
       <c r="D745" s="11"/>
     </row>
     <row r="746" spans="1:4" ht="20" customHeight="1">
       <c r="A746" s="7" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B746" s="8" t="s">
         <v>1825</v>
       </c>
-      <c r="B746" s="8" t="s">
+      <c r="C746" s="9" t="s">
         <v>1826</v>
-      </c>
-      <c r="C746" s="9" t="s">
-        <v>1827</v>
       </c>
       <c r="D746" s="11"/>
     </row>
     <row r="747" spans="1:4" ht="20" customHeight="1">
       <c r="A747" s="7" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B747" s="8" t="s">
         <v>1828</v>
       </c>
-      <c r="B747" s="8" t="s">
+      <c r="C747" s="9" t="s">
         <v>1829</v>
-      </c>
-      <c r="C747" s="9" t="s">
-        <v>1830</v>
       </c>
       <c r="D747" s="11"/>
     </row>
     <row r="748" spans="1:4" ht="20" customHeight="1">
       <c r="A748" s="7" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B748" s="8" t="s">
         <v>1831</v>
       </c>
-      <c r="B748" s="8" t="s">
+      <c r="C748" s="9" t="s">
         <v>1832</v>
-      </c>
-      <c r="C748" s="9" t="s">
-        <v>1833</v>
       </c>
       <c r="D748" s="11"/>
     </row>
     <row r="749" spans="1:4" ht="20" customHeight="1">
       <c r="A749" s="7" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B749" s="8" t="s">
         <v>1834</v>
       </c>
-      <c r="B749" s="8" t="s">
+      <c r="C749" s="9" t="s">
         <v>1835</v>
-      </c>
-      <c r="C749" s="9" t="s">
-        <v>1836</v>
       </c>
       <c r="D749" s="11"/>
     </row>
     <row r="750" spans="1:4" ht="20" customHeight="1">
       <c r="A750" s="7" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B750" s="10"/>
       <c r="C750" s="11"/>
@@ -16467,602 +17270,1627 @@
     </row>
     <row r="751" spans="1:4" ht="20" customHeight="1">
       <c r="A751" s="7" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B751" s="8" t="s">
         <v>1838</v>
       </c>
-      <c r="B751" s="8" t="s">
+      <c r="C751" s="9" t="s">
         <v>1839</v>
-      </c>
-      <c r="C751" s="9" t="s">
-        <v>1840</v>
       </c>
       <c r="D751" s="11"/>
     </row>
     <row r="752" spans="1:4" ht="20" customHeight="1">
       <c r="A752" s="7" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B752" s="8" t="s">
         <v>1841</v>
       </c>
-      <c r="B752" s="8" t="s">
+      <c r="C752" s="9" t="s">
         <v>1842</v>
-      </c>
-      <c r="C752" s="9" t="s">
-        <v>1843</v>
       </c>
       <c r="D752" s="11"/>
     </row>
     <row r="753" spans="1:4" ht="20" customHeight="1">
       <c r="A753" s="7" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B753" s="8" t="s">
         <v>1844</v>
       </c>
-      <c r="B753" s="8" t="s">
+      <c r="C753" s="9" t="s">
         <v>1845</v>
-      </c>
-      <c r="C753" s="9" t="s">
-        <v>1846</v>
       </c>
       <c r="D753" s="11"/>
     </row>
     <row r="754" spans="1:4" ht="20" customHeight="1">
       <c r="A754" s="7" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B754" s="8" t="s">
         <v>1847</v>
       </c>
-      <c r="B754" s="8" t="s">
+      <c r="C754" s="9" t="s">
         <v>1848</v>
-      </c>
-      <c r="C754" s="9" t="s">
-        <v>1849</v>
       </c>
       <c r="D754" s="11"/>
     </row>
     <row r="755" spans="1:4" ht="20" customHeight="1">
       <c r="A755" s="7" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B755" s="8" t="s">
         <v>1850</v>
       </c>
-      <c r="B755" s="8" t="s">
+      <c r="C755" s="9" t="s">
         <v>1851</v>
-      </c>
-      <c r="C755" s="9" t="s">
-        <v>1852</v>
       </c>
       <c r="D755" s="11"/>
     </row>
     <row r="756" spans="1:4" ht="20" customHeight="1">
       <c r="A756" s="7" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B756" s="8" t="s">
         <v>1853</v>
       </c>
-      <c r="B756" s="8" t="s">
+      <c r="C756" s="9" t="s">
         <v>1854</v>
-      </c>
-      <c r="C756" s="9" t="s">
-        <v>1855</v>
       </c>
       <c r="D756" s="11"/>
     </row>
     <row r="757" spans="1:4" ht="20" customHeight="1">
       <c r="A757" s="7" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B757" s="8" t="s">
         <v>1856</v>
       </c>
-      <c r="B757" s="8" t="s">
+      <c r="C757" s="9" t="s">
         <v>1857</v>
-      </c>
-      <c r="C757" s="9" t="s">
-        <v>1858</v>
       </c>
       <c r="D757" s="11"/>
     </row>
     <row r="758" spans="1:4" ht="20" customHeight="1">
       <c r="A758" s="7" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B758" s="8" t="s">
         <v>1859</v>
       </c>
-      <c r="B758" s="8" t="s">
+      <c r="C758" s="9" t="s">
         <v>1860</v>
-      </c>
-      <c r="C758" s="9" t="s">
-        <v>1861</v>
       </c>
       <c r="D758" s="11"/>
     </row>
     <row r="759" spans="1:4" ht="20" customHeight="1">
       <c r="A759" s="7" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B759" s="8" t="s">
         <v>1862</v>
       </c>
-      <c r="B759" s="8" t="s">
+      <c r="C759" s="9" t="s">
         <v>1863</v>
-      </c>
-      <c r="C759" s="9" t="s">
-        <v>1864</v>
       </c>
       <c r="D759" s="11"/>
     </row>
     <row r="760" spans="1:4" ht="20" customHeight="1">
       <c r="A760" s="7" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B760" s="8" t="s">
         <v>1865</v>
       </c>
-      <c r="B760" s="8" t="s">
+      <c r="C760" s="9" t="s">
         <v>1866</v>
-      </c>
-      <c r="C760" s="9" t="s">
-        <v>1867</v>
       </c>
       <c r="D760" s="11"/>
     </row>
     <row r="761" spans="1:4" ht="20" customHeight="1">
       <c r="A761" s="7" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B761" s="8" t="s">
         <v>1868</v>
       </c>
-      <c r="B761" s="8" t="s">
+      <c r="C761" s="9" t="s">
         <v>1869</v>
-      </c>
-      <c r="C761" s="9" t="s">
-        <v>1870</v>
       </c>
       <c r="D761" s="11"/>
     </row>
     <row r="762" spans="1:4" ht="20" customHeight="1">
       <c r="A762" s="7" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B762" s="8" t="s">
         <v>1871</v>
       </c>
-      <c r="B762" s="8" t="s">
+      <c r="C762" s="9" t="s">
         <v>1872</v>
-      </c>
-      <c r="C762" s="9" t="s">
-        <v>1873</v>
       </c>
       <c r="D762" s="11"/>
     </row>
     <row r="786" spans="1:4" ht="20" customHeight="1">
       <c r="A786" s="18" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B786" s="18" t="s">
         <v>1886</v>
-      </c>
-      <c r="B786" s="18" t="s">
-        <v>1887</v>
       </c>
       <c r="C786" s="18" t="s">
         <v>106</v>
       </c>
       <c r="D786" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="787" spans="1:4" ht="20" customHeight="1">
       <c r="A787" s="18" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B787" s="18" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C787" s="18" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D787" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="788" spans="1:4" ht="20" customHeight="1">
       <c r="A788" s="18" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B788" s="18" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C788" s="18" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D788" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="789" spans="1:4" ht="20" customHeight="1">
       <c r="A789" s="18" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B789" s="18" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C789" s="18" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D789" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="790" spans="1:4" ht="20" customHeight="1">
       <c r="A790" s="18" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B790" s="18" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C790" s="18" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D790" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="791" spans="1:4" ht="20" customHeight="1">
       <c r="A791" s="18" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B791" s="18" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C791" s="18" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D791" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="792" spans="1:4" ht="20" customHeight="1">
       <c r="A792" s="18" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B792" s="18" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C792" s="18" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D792" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="793" spans="1:4" ht="20" customHeight="1">
       <c r="A793" s="18" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B793" s="19" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C793" s="19" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D793" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="794" spans="1:4" ht="20" customHeight="1">
       <c r="A794" s="18" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B794" s="18" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C794" s="18" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D794" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="795" spans="1:4" ht="20" customHeight="1">
       <c r="A795" s="18" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B795" s="18" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C795" s="18" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D795" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="796" spans="1:4" ht="20" customHeight="1">
       <c r="A796" s="18" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B796" s="18" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C796" s="18" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D796" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="797" spans="1:4" ht="20" customHeight="1">
       <c r="A797" s="18" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B797" s="18" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C797" s="18" t="s">
         <v>1226</v>
       </c>
       <c r="D797" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="798" spans="1:4" ht="20" customHeight="1">
       <c r="A798" s="18" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B798" s="18" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C798" s="18" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D798" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="799" spans="1:4" ht="20" customHeight="1">
       <c r="A799" s="18" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B799" s="18" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C799" s="18" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D799" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="800" spans="1:4" ht="20" customHeight="1">
       <c r="A800" s="18" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B800" s="18" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C800" s="18" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D800" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="801" spans="1:4" ht="20" customHeight="1">
       <c r="A801" s="18" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B801" s="19" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C801" s="19" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D801" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="802" spans="1:4" ht="20" customHeight="1">
       <c r="A802" s="18" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B802" s="18" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C802" s="18" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D802" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="803" spans="1:4" ht="20" customHeight="1">
       <c r="A803" s="18" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B803" s="18" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C803" s="18" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D803" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="804" spans="1:4" ht="20" customHeight="1">
       <c r="A804" s="18" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B804" s="18" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C804" s="18" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D804" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="805" spans="1:4" ht="20" customHeight="1">
       <c r="A805" s="18" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B805" s="18" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C805" s="18" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D805" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="806" spans="1:4" ht="20" customHeight="1">
       <c r="A806" s="18" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B806" s="18" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C806" s="18" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D806" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="807" spans="1:4" ht="20" customHeight="1">
       <c r="A807" s="18" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B807" s="18" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C807" s="18" t="s">
         <v>1226</v>
       </c>
       <c r="D807" s="18" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="808" spans="1:4" ht="20" customHeight="1">
       <c r="A808" s="16" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="809" spans="1:4" ht="20" customHeight="1">
       <c r="A809" s="16" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="810" spans="1:4" ht="20" customHeight="1">
       <c r="A810" s="16" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="811" spans="1:4" ht="20" customHeight="1">
       <c r="A811" s="16" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="812" spans="1:4" ht="20" customHeight="1">
       <c r="A812" s="16" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="813" spans="1:4" ht="20" customHeight="1">
       <c r="A813" s="16" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="814" spans="1:4" ht="20" customHeight="1">
       <c r="A814" s="16" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="815" spans="1:4" ht="20" customHeight="1">
       <c r="A815" s="16" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="817" spans="1:4" ht="20" customHeight="1">
       <c r="A817" s="16" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C817" s="16" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D817" s="16" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="818" spans="1:4" ht="20" customHeight="1">
       <c r="A818" s="16" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C818" s="16" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D818" s="16" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="819" spans="1:4" ht="20" customHeight="1">
       <c r="A819" s="16" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C819" s="16" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D819" s="16" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="820" spans="1:4" ht="20" customHeight="1">
       <c r="A820" s="16" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C820" s="16" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D820" s="16" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="821" spans="1:4" ht="20" customHeight="1">
       <c r="A821" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C821" s="16" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D821" s="16" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="822" spans="1:4" ht="20" customHeight="1">
       <c r="A822" s="16" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C822" s="16" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D822" s="16" t="s">
         <v>1971</v>
-      </c>
-      <c r="D822" s="16" t="s">
-        <v>1972</v>
       </c>
     </row>
     <row r="823" spans="1:4" ht="20" customHeight="1">
       <c r="A823" s="16" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D823" s="16" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="824" spans="1:4" ht="20" customHeight="1">
       <c r="A824" s="16" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D824" s="16" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="825" spans="1:4" ht="20" customHeight="1">
       <c r="A825" s="16" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D825" s="16" t="s">
-        <v>1972</v>
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" ht="20" customHeight="1">
+      <c r="A829" s="16" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B829" s="16" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C829" s="16" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" ht="20" customHeight="1">
+      <c r="A830" s="16" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B830" s="16" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" ht="20" customHeight="1">
+      <c r="A831" s="16" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B831" s="16" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" ht="20" customHeight="1">
+      <c r="A832" s="16" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B832" s="16" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" ht="20" customHeight="1">
+      <c r="A833" s="16" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B833" s="16" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" ht="20" customHeight="1">
+      <c r="A834" s="16" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B834" s="16" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C834" s="16" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" ht="20" customHeight="1">
+      <c r="A835" s="16" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B835" s="16" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C835" s="16" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" ht="20" customHeight="1">
+      <c r="A836" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B836" s="16" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C836" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" ht="20" customHeight="1">
+      <c r="A837" s="16" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B837" s="16" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C837" s="16" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" ht="20" customHeight="1">
+      <c r="A838" s="16" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B838" s="16" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C838" s="16" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" ht="20" customHeight="1">
+      <c r="A839" s="16" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B839" s="16" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C839" s="16" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" ht="20" customHeight="1">
+      <c r="A840" s="16" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B840" s="16" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C840" s="16" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" ht="20" customHeight="1">
+      <c r="A841" s="16" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B841" s="16" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C841" s="16" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" ht="20" customHeight="1">
+      <c r="A842" s="16"/>
+    </row>
+    <row r="843" spans="1:3" ht="20" customHeight="1">
+      <c r="A843" s="16" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B843" s="16" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C843" s="16" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" ht="20" customHeight="1">
+      <c r="A844" s="16" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B844" s="16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C844" s="16" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" ht="20" customHeight="1">
+      <c r="A845" s="16" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B845" s="16" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C845" s="16" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" ht="20" customHeight="1">
+      <c r="A846" s="16" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C846" s="16" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" ht="20" customHeight="1">
+      <c r="A847" s="16" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B847" s="16" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C847" s="16" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" ht="20" customHeight="1">
+      <c r="A848" s="16" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B848" s="16" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C848" s="16" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" ht="20" customHeight="1">
+      <c r="A849" s="16" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B849" s="16" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C849" s="16" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" ht="20" customHeight="1">
+      <c r="A850" s="16" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B850" s="16" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C850" s="16" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" ht="20" customHeight="1">
+      <c r="A851" s="16" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B851" s="16" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C851" s="16" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D851" s="16" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" ht="20" customHeight="1">
+      <c r="A852" s="16" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B852" s="16" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C852" s="16" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D852" s="16" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" ht="20" customHeight="1">
+      <c r="A853" s="16" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B853" s="16" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C853" s="16" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" ht="20" customHeight="1">
+      <c r="A854" s="16" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C854" s="16" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" ht="20" customHeight="1">
+      <c r="A855" s="16" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B855" s="16" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C855" s="16" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" ht="20" customHeight="1">
+      <c r="A856" s="16" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B856" s="16" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C856" s="16" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" ht="20" customHeight="1">
+      <c r="A857" s="16" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B857" s="16" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C857" s="16" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" ht="20" customHeight="1">
+      <c r="A858" s="16" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B858" s="16" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C858" s="16" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" ht="20" customHeight="1">
+      <c r="A859" s="16" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B859" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C859" s="16" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" ht="20" customHeight="1">
+      <c r="A860" s="16" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B860" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C860" s="16" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" ht="20" customHeight="1">
+      <c r="A861" s="16" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B861" s="16" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C861" s="16" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" ht="20" customHeight="1">
+      <c r="A862" s="16" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B862" s="16" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C862" s="16" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" ht="20" customHeight="1">
+      <c r="A863" s="16" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" ht="20" customHeight="1">
+      <c r="A864" s="16" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B864" s="20" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C864" s="16" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" ht="20" customHeight="1">
+      <c r="A865" s="16" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" ht="20" customHeight="1">
+      <c r="A866" s="16" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" ht="20" customHeight="1">
+      <c r="A867" s="16" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B867" s="20" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C867" s="16" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" ht="20" customHeight="1">
+      <c r="A868" s="16" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B868" s="20" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C868" s="16" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" ht="20" customHeight="1">
+      <c r="A869" s="16" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B869" s="20" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C869" s="16" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" ht="20" customHeight="1">
+      <c r="A870" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B870" s="20" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C870" s="16" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" ht="20" customHeight="1">
+      <c r="A871" s="16" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B871" s="20" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C871" s="16" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" ht="20" customHeight="1">
+      <c r="A872" s="16" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B872" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C872" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" ht="20" customHeight="1">
+      <c r="A873" s="16" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B873" s="16" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C873" s="16" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" ht="20" customHeight="1">
+      <c r="A874" s="16" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B874" s="16" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C874" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" ht="20" customHeight="1">
+      <c r="A875" s="16" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B875" s="16" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C875" s="16" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" ht="20" customHeight="1">
+      <c r="A876" s="16" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B876" s="16" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C876" s="16" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" ht="20" customHeight="1">
+      <c r="A877" s="16" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B877" s="16" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C877" s="16" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" ht="20" customHeight="1">
+      <c r="A878" s="16" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B878" s="16" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C878" s="16" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" ht="20" customHeight="1">
+      <c r="A879" s="16" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B879" s="16" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C879" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" ht="20" customHeight="1">
+      <c r="A880" s="16" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B880" s="20" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" ht="20" customHeight="1">
+      <c r="A881" s="16" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B881" s="20" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" ht="20" customHeight="1">
+      <c r="A882" s="16" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B882" s="20" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C882" s="16" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" ht="20" customHeight="1">
+      <c r="A883" s="16" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B883" s="20" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C883" s="20" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" ht="20" customHeight="1">
+      <c r="A884" s="16" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B884" s="16" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C884" s="16" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" ht="20" customHeight="1">
+      <c r="A885" s="16" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B885" s="20" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C885" s="16" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" ht="20" customHeight="1">
+      <c r="A886" s="16" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B886" s="20" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C886" s="16" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" ht="20" customHeight="1">
+      <c r="A887" s="16" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" ht="20" customHeight="1">
+      <c r="A888" s="16" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" ht="20" customHeight="1">
+      <c r="A889" s="16" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" ht="20" customHeight="1">
+      <c r="A890" s="16" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" ht="20" customHeight="1">
+      <c r="A891" s="16" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" ht="20" customHeight="1">
+      <c r="A892" s="16" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" ht="20" customHeight="1">
+      <c r="A893" s="16" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" ht="20" customHeight="1">
+      <c r="A894" s="16" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" ht="20" customHeight="1">
+      <c r="A896" s="16" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C896" s="16" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" ht="20" customHeight="1">
+      <c r="A897" s="16" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C897" s="16" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" ht="20" customHeight="1">
+      <c r="A898" s="16" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C898" s="16" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" ht="20" customHeight="1">
+      <c r="A899" s="16" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C899" s="16" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" ht="20" customHeight="1">
+      <c r="A900" s="16" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C900" s="16" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" ht="20" customHeight="1">
+      <c r="A901" s="16" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C901" s="16" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" ht="20" customHeight="1">
+      <c r="A902" s="16" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C902" s="16" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" ht="20" customHeight="1">
+      <c r="A903" s="16" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C903" s="16" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" ht="20" customHeight="1">
+      <c r="A904" s="16" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C904" s="16" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" ht="20" customHeight="1">
+      <c r="A905" s="16" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C905" s="16" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" ht="20" customHeight="1">
+      <c r="A906" s="16" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C906" s="16" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" ht="20" customHeight="1">
+      <c r="A907" s="16" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C907" s="16" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" ht="20" customHeight="1">
+      <c r="A908" s="16" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" ht="20" customHeight="1">
+      <c r="A909" s="16" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B909" s="20" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C909" s="16" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" ht="20" customHeight="1">
+      <c r="A910" s="16" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" ht="20" customHeight="1">
+      <c r="A911" s="16" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" ht="20" customHeight="1">
+      <c r="A912" s="16" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" ht="20" customHeight="1">
+      <c r="A913" s="16" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" ht="20" customHeight="1">
+      <c r="A914" s="16"/>
+    </row>
+    <row r="915" spans="1:3" ht="20" customHeight="1">
+      <c r="A915" s="16" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B915" s="16" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C915" s="16" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" ht="20" customHeight="1">
+      <c r="A916" s="16" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B916" s="16" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C916" s="16" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" ht="20" customHeight="1">
+      <c r="A917" s="16" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C917" s="16" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" ht="20" customHeight="1">
+      <c r="A918" s="16" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" ht="20" customHeight="1">
+      <c r="A919" s="16" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C919" s="16" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" ht="20" customHeight="1">
+      <c r="A920" s="16" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B920" s="16" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C920" s="16" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" ht="20" customHeight="1">
+      <c r="A921" s="16" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" ht="20" customHeight="1">
+      <c r="A922" s="16" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C922" s="16" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" ht="20" customHeight="1">
+      <c r="A923" s="16" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C923" s="16" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" ht="20" customHeight="1">
+      <c r="A924" s="16" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C924" s="16" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" ht="20" customHeight="1">
+      <c r="A925" s="16" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C925" s="16" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" ht="20" customHeight="1">
+      <c r="A926" s="16" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C926" s="16" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" ht="20" customHeight="1">
+      <c r="A927" s="16" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C927" s="16" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" ht="20" customHeight="1">
+      <c r="A928" s="16" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" ht="20" customHeight="1">
+      <c r="A929" s="16" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B929" s="20" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C929" s="16" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" ht="20" customHeight="1">
+      <c r="A930" s="16" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B930" s="20" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C930" s="16" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" ht="20" customHeight="1">
+      <c r="A931" s="16" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B931" s="20" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C931" s="16" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" ht="20" customHeight="1">
+      <c r="A932" s="16" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B932" s="20" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C932" s="16" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" ht="20" customHeight="1">
+      <c r="A933" s="16" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" ht="20" customHeight="1">
+      <c r="A934" s="16" t="s">
+        <v>2200</v>
       </c>
     </row>
   </sheetData>

--- a/code/lang/langdict.xlsx
+++ b/code/lang/langdict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingsongli/Dropbox/git/acycle/code/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA218BAB-163C-9A47-A857-2DD8409FF5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D461C758-B02A-DB47-B950-9DB0D75F84CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19000" yWindow="-33840" windowWidth="18640" windowHeight="32580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10240" yWindow="-37800" windowWidth="16220" windowHeight="32640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="2240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="2307">
   <si>
     <t>en</t>
   </si>
@@ -6794,6 +6794,207 @@
   </si>
   <si>
     <t>Parameter</t>
+  </si>
+  <si>
+    <t>ft01</t>
+  </si>
+  <si>
+    <t>ft02</t>
+  </si>
+  <si>
+    <t>ft03</t>
+  </si>
+  <si>
+    <t>ft04</t>
+  </si>
+  <si>
+    <t>ft05</t>
+  </si>
+  <si>
+    <t>ft06</t>
+  </si>
+  <si>
+    <t>ft07</t>
+  </si>
+  <si>
+    <t>ft08</t>
+  </si>
+  <si>
+    <t>ft09</t>
+  </si>
+  <si>
+    <t>ft10</t>
+  </si>
+  <si>
+    <t>ft11</t>
+  </si>
+  <si>
+    <t>ft12</t>
+  </si>
+  <si>
+    <t>ft13</t>
+  </si>
+  <si>
+    <t>ft14</t>
+  </si>
+  <si>
+    <t>ft15</t>
+  </si>
+  <si>
+    <t>ft16</t>
+  </si>
+  <si>
+    <t>ft17</t>
+  </si>
+  <si>
+    <t>ft18</t>
+  </si>
+  <si>
+    <t>ft19</t>
+  </si>
+  <si>
+    <t>ft20</t>
+  </si>
+  <si>
+    <t>Bandpass filter: frequency</t>
+  </si>
+  <si>
+    <t>Power spectra plot</t>
+  </si>
+  <si>
+    <t>Highpass and lowpass</t>
+  </si>
+  <si>
+    <t>FFT &amp; 2π MTM</t>
+  </si>
+  <si>
+    <t>f lower</t>
+  </si>
+  <si>
+    <t>f upper</t>
+  </si>
+  <si>
+    <t>f center</t>
+  </si>
+  <si>
+    <t>Roll-off: 10^</t>
+  </si>
+  <si>
+    <t>f max</t>
+  </si>
+  <si>
+    <t>f min</t>
+  </si>
+  <si>
+    <t>Power max</t>
+  </si>
+  <si>
+    <t>Power min</t>
+  </si>
+  <si>
+    <t>Highpass</t>
+  </si>
+  <si>
+    <t>Lowpass</t>
+  </si>
+  <si>
+    <t>Bandstop</t>
+  </si>
+  <si>
+    <t>带通滤波设置：频率</t>
+  </si>
+  <si>
+    <t>能谱投图设置</t>
+  </si>
+  <si>
+    <t>高通和低通滤波设置</t>
+  </si>
+  <si>
+    <t>傅里叶变换&amp;2π MTM</t>
+  </si>
+  <si>
+    <t>频率下边界</t>
+  </si>
+  <si>
+    <t>频率上边界</t>
+  </si>
+  <si>
+    <t>频率中值</t>
+  </si>
+  <si>
+    <t>滚降率: 10^</t>
+  </si>
+  <si>
+    <t>最大能量</t>
+  </si>
+  <si>
+    <t>最小能量</t>
+  </si>
+  <si>
+    <t>高通滤波</t>
+  </si>
+  <si>
+    <t>低通滤波</t>
+  </si>
+  <si>
+    <t>带阻滤波</t>
+  </si>
+  <si>
+    <t>Select filtering method</t>
+  </si>
+  <si>
+    <t>选择滤波方法</t>
+  </si>
+  <si>
+    <t>Modulated signal &amp; Instantaneous amplitude</t>
+  </si>
+  <si>
+    <t>调制信号和瞬时振幅</t>
+  </si>
+  <si>
+    <t>Unrolled instantaneous phase</t>
+  </si>
+  <si>
+    <t>Instantaneous phase</t>
+  </si>
+  <si>
+    <t>瞬时相</t>
+  </si>
+  <si>
+    <t>展开瞬时相</t>
+  </si>
+  <si>
+    <t>phase (radians)</t>
+  </si>
+  <si>
+    <t>相位（弧度）</t>
+  </si>
+  <si>
+    <t>ft21</t>
+  </si>
+  <si>
+    <t>Instantaneous frequency</t>
+  </si>
+  <si>
+    <t>瞬时频率</t>
+  </si>
+  <si>
+    <t>&gt;&gt; Done. See AC main window for the filtered output file(s)</t>
+  </si>
+  <si>
+    <t>ft22</t>
+  </si>
+  <si>
+    <t>&gt;&gt; 完成。 查看主窗口，可以看到滤波后的输出文件</t>
+  </si>
+  <si>
+    <t>ft23</t>
+  </si>
+  <si>
+    <t>ft24</t>
+  </si>
+  <si>
+    <t>ft25</t>
   </si>
 </sst>
 </file>
@@ -8213,13 +8414,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D934"/>
+  <dimension ref="A1:D960"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B889" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B908" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B929" sqref="B929"/>
+      <selection pane="bottomRight" activeCell="B960" sqref="B960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -18893,6 +19094,263 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="936" spans="1:3" ht="20" customHeight="1">
+      <c r="A936" s="16" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C936" s="16" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" ht="20" customHeight="1">
+      <c r="A937" s="16" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C937" s="16" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" ht="20" customHeight="1">
+      <c r="A938" s="16" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C938" s="16" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" ht="20" customHeight="1">
+      <c r="A939" s="16" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B939" s="16" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C939" s="16" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" ht="20" customHeight="1">
+      <c r="A940" s="16" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C940" s="16" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" ht="20" customHeight="1">
+      <c r="A941" s="16" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C941" s="16" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" ht="20" customHeight="1">
+      <c r="A942" s="16" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B942" s="16" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C942" s="16" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" ht="20" customHeight="1">
+      <c r="A943" s="16" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B943" s="16" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C943" s="16" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" ht="20" customHeight="1">
+      <c r="A944" s="16" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B944" s="16" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C944" s="16" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" ht="20" customHeight="1">
+      <c r="A945" s="16" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B945" s="16" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C945" s="16" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" ht="20" customHeight="1">
+      <c r="A946" s="16" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B946" s="16" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C946" s="16" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" ht="20" customHeight="1">
+      <c r="A947" s="16" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B947" s="16" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C947" s="16" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" ht="20" customHeight="1">
+      <c r="A948" s="16" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B948" s="16" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C948" s="16" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" ht="20" customHeight="1">
+      <c r="A949" s="16" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B949" s="16" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C949" s="16" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" ht="20" customHeight="1">
+      <c r="A950" s="16" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B950" s="16" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C950" s="16" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" ht="20" customHeight="1">
+      <c r="A951" s="16" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B951" s="20" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C951" s="16" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" ht="20" customHeight="1">
+      <c r="A952" s="16" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B952" s="20" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C952" s="16" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" ht="20" customHeight="1">
+      <c r="A953" s="16" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B953" s="20" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C953" s="16" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" ht="20" customHeight="1">
+      <c r="A954" s="16" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B954" s="20" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" ht="20" customHeight="1">
+      <c r="A955" s="16" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B955" s="20" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C955" s="16" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" ht="20" customHeight="1">
+      <c r="A956" s="16" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B956" s="20" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C956" s="16" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" ht="20" customHeight="1">
+      <c r="A957" s="16" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B957" s="20" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C957" s="16" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" ht="20" customHeight="1">
+      <c r="A958" s="16" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" ht="20" customHeight="1">
+      <c r="A959" s="16" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" ht="20" customHeight="1">
+      <c r="A960" s="16" t="s">
+        <v>2306</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>

--- a/code/lang/langdict.xlsx
+++ b/code/lang/langdict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingsongli/Dropbox/git/acycle/code/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C7A8C0-92AC-EB46-BE20-33E62E24C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C7F17-72CB-7944-A97F-6FF84AA5443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27080" yWindow="-37800" windowWidth="16220" windowHeight="32640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/code/lang/langdict.xlsx
+++ b/code/lang/langdict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingsongli/Dropbox/git/acycle/code/lang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397886A-764B-3E45-9BD2-D79977AF4265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB13CDF-8501-2442-8DEC-AF11134AB5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16640" yWindow="-32780" windowWidth="34160" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13071,10 +13071,10 @@
   <dimension ref="A1:U1235"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B817" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="A830" sqref="A830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
